--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -800,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1063,7 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3992,7 +3993,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>-0.76</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>0.02</v>
@@ -4089,7 +4090,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-1.12</v>
+        <v>-1.17</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-0.15</v>
@@ -8456,7 +8457,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-7.12</v>
+        <v>-6.95</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-7.12</v>
@@ -8553,7 +8554,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-5.4</v>
+        <v>-6.48</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-5.4</v>
@@ -8650,7 +8651,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>60.26</v>
+        <v>30.94</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>60.26</v>
@@ -8746,9 +8747,9 @@
           <t>us30:EIDE</t>
         </is>
       </c>
-      <c r="B22" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
+      <c r="B22" s="93" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
       <c r="C22" s="91" t="inlineStr">
@@ -8904,7 +8905,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-7.89</v>
+        <v>-7.84</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-7.89</v>
@@ -9001,7 +9002,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-5.74</v>
+        <v>-7.18</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-5.74</v>
@@ -9098,7 +9099,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>82.31999999999999</v>
+        <v>45.96</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>82.31999999999999</v>
@@ -9352,7 +9353,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-9.84</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-9.84</v>
@@ -9449,7 +9450,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-7.4</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-7.4</v>
@@ -9540,13 +9541,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="inlineStr">
+      <c r="A29" s="96" t="inlineStr">
         <is>
           <t>ixic:RS2</t>
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>61.17</v>
+        <v>32.54</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>61.17</v>
@@ -10248,7 +10249,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>-2.19</v>
+        <v>-2.18</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>-1.95</v>
@@ -10345,7 +10346,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>-0.32</v>
+        <v>-0.31</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>-0.37</v>
@@ -10442,7 +10443,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>86.14</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>84.69</v>
@@ -10696,7 +10697,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>4.1</v>
+        <v>4.04</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.25</v>
@@ -10793,7 +10794,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>1.66</v>
@@ -10890,7 +10891,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>69.62</v>
+        <v>69.08</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>71.25</v>
@@ -11144,7 +11145,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-4.22</v>
+        <v>-3.88</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-2.07</v>
@@ -11241,7 +11242,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>5.3</v>
@@ -11338,7 +11339,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>62.79</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>75.61</v>
@@ -11592,7 +11593,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>5.16</v>
+        <v>6.15</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>8.15</v>
@@ -11683,13 +11684,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="76" t="inlineStr">
+      <c r="A48" s="95" t="inlineStr">
         <is>
           <t>dax30:RNG120</t>
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>18.96</v>
+        <v>20.08</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>22.61</v>
@@ -11786,7 +11787,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>71.54000000000001</v>
+        <v>82.12</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>87.81999999999999</v>
@@ -11879,14 +11880,14 @@
     <row r="51">
       <c r="A51" s="90" t="inlineStr">
         <is>
-          <t>今日买报：</t>
+          <t>今日买报：ixic:RS2:32.54&lt;=38</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:81.46&gt;=66;kc:RS5:75.1&gt;=65;hk50:RS4:89.43&gt;=73;vn:RS3:86.14&gt;=85</t>
+          <t>今日卖报：sh:RS3:81.46&gt;=66;kc:RS5:75.1&gt;=65;hk50:RS4:89.43&gt;=73;vn:RS3:86.29&gt;=85;dax30:RNG120:20.08&gt;=20</t>
         </is>
       </c>
     </row>
@@ -15502,13 +15503,13 @@
       <c r="G2" s="36" t="n">
         <v>66</v>
       </c>
-      <c r="H2" s="96" t="n">
+      <c r="H2" s="97" t="n">
         <v>22.3514585</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>7.06</v>
       </c>
-      <c r="J2" s="97">
+      <c r="J2" s="98">
         <f>(1+H2/100)^(1/(YEAR(D2)-YEAR(C2)))-1</f>
         <v/>
       </c>
@@ -15540,13 +15541,13 @@
       <c r="G3" s="39" t="n">
         <v>73</v>
       </c>
-      <c r="H3" s="98" t="n">
+      <c r="H3" s="99" t="n">
         <v>35.0298984</v>
       </c>
       <c r="I3" s="39" t="n">
         <v>11.41</v>
       </c>
-      <c r="J3" s="97">
+      <c r="J3" s="98">
         <f>(1+H3/100)^(1/(YEAR(D3)-YEAR(C3)))-1</f>
         <v/>
       </c>
@@ -15578,13 +15579,13 @@
       <c r="G4" s="39" t="n">
         <v>85</v>
       </c>
-      <c r="H4" s="98" t="n">
+      <c r="H4" s="99" t="n">
         <v>122.4911655</v>
       </c>
       <c r="I4" s="39" t="n">
         <v>76.98</v>
       </c>
-      <c r="J4" s="99">
+      <c r="J4" s="100">
         <f>(1+H4/100)^(1/(YEAR(D4)-YEAR(C4)))-1</f>
         <v/>
       </c>
@@ -15616,13 +15617,13 @@
       <c r="G5" s="39" t="n">
         <v>96</v>
       </c>
-      <c r="H5" s="98" t="n">
+      <c r="H5" s="99" t="n">
         <v>136.13543</v>
       </c>
       <c r="I5" s="39" t="n">
         <v>100.05</v>
       </c>
-      <c r="J5" s="99">
+      <c r="J5" s="100">
         <f>(1+H5/100)^(1/(YEAR(D5)-YEAR(C5)))-1</f>
         <v/>
       </c>
@@ -15654,13 +15655,13 @@
       <c r="G6" s="39" t="n">
         <v>95</v>
       </c>
-      <c r="H6" s="98" t="n">
+      <c r="H6" s="99" t="n">
         <v>95.7546074</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>44.37</v>
       </c>
-      <c r="J6" s="99">
+      <c r="J6" s="100">
         <f>(1+H6/100)^(1/(YEAR(D6)-YEAR(C6)))-1</f>
         <v/>
       </c>
@@ -15692,13 +15693,13 @@
       <c r="G7" s="39" t="n">
         <v>86</v>
       </c>
-      <c r="H7" s="98" t="n">
+      <c r="H7" s="99" t="n">
         <v>123.8525927</v>
       </c>
       <c r="I7" s="39" t="n">
         <v>63.41</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="100">
         <f>(1+H7/100)^(1/(YEAR(D7)-YEAR(C7)))-1</f>
         <v/>
       </c>
@@ -15730,13 +15731,13 @@
       <c r="G8" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="H8" s="98" t="n">
+      <c r="H8" s="99" t="n">
         <v>81.41461922000001</v>
       </c>
       <c r="I8" s="39" t="n">
         <v>26.39</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="100">
         <f>(1+H8/100)^(1/(YEAR(D8)-YEAR(C8)))-1</f>
         <v/>
       </c>
@@ -15768,13 +15769,13 @@
       <c r="G9" s="39" t="n">
         <v>83</v>
       </c>
-      <c r="H9" s="98" t="n">
+      <c r="H9" s="99" t="n">
         <v>47.02060524</v>
       </c>
       <c r="I9" s="39" t="n">
         <v>37.82</v>
       </c>
-      <c r="J9" s="99">
+      <c r="J9" s="100">
         <f>(1+H9/100)^(1/(YEAR(D9)-YEAR(C9)))-1</f>
         <v/>
       </c>
@@ -15805,13 +15806,13 @@
       <c r="G10" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H10" s="100" t="n">
+      <c r="H10" s="101" t="n">
         <v>27.8860732</v>
       </c>
       <c r="I10" s="24" t="n">
         <v>-10.97</v>
       </c>
-      <c r="J10" s="101" t="n">
+      <c r="J10" s="102" t="n">
         <v>0.278860732</v>
       </c>
     </row>
@@ -15842,13 +15843,13 @@
       <c r="G11" s="24" t="n">
         <v>93</v>
       </c>
-      <c r="H11" s="100" t="n">
+      <c r="H11" s="101" t="n">
         <v>17.4948656</v>
       </c>
       <c r="I11" s="24" t="n">
         <v>-7.7</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="102">
         <f>(1+H11/100)^(1/(YEAR(D11)-YEAR(C11)))-1</f>
         <v/>
       </c>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -800,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,7 +1063,6 @@
     <xf numFmtId="0" fontId="0" fillId="47" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="46" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3896,7 +3895,7 @@
         </is>
       </c>
       <c r="B25" s="87" t="n">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="C25" s="87" t="n">
         <v>7.21</v>
@@ -3993,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.8100000000000001</v>
@@ -4090,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-0.79</v>
+        <v>-0.71</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-1.17</v>
@@ -8905,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-7.84</v>
+        <v>-7.55</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-7.84</v>
@@ -9099,7 +9098,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>45.96</v>
+        <v>63.59</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>45.96</v>
@@ -9353,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-9.390000000000001</v>
+        <v>-10.02</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-9.390000000000001</v>
@@ -9450,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.09</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-8.279999999999999</v>
@@ -9541,13 +9540,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="96" t="inlineStr">
+      <c r="A29" s="76" t="inlineStr">
         <is>
           <t>ixic:RS2</t>
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>32.54</v>
+        <v>47.86</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>32.54</v>
@@ -10249,7 +10248,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>-1.99</v>
+        <v>-1.66</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>-2.18</v>
@@ -10346,7 +10345,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>-1.2</v>
+        <v>-0.86</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>-0.31</v>
@@ -10443,7 +10442,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>89.83</v>
+        <v>91.91</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>86.29000000000001</v>
@@ -10697,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>4.59</v>
+        <v>4.61</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.04</v>
@@ -10794,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>0.33</v>
@@ -10891,7 +10890,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>69.66</v>
+        <v>69.77</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>69.08</v>
@@ -11145,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.94</v>
+        <v>-4.34</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-3.88</v>
@@ -11242,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>5.98</v>
+        <v>5.53</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>3.64</v>
@@ -11339,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>59.41</v>
+        <v>53.51</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>68.23999999999999</v>
@@ -11593,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>6.78</v>
+        <v>6.1</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.15</v>
@@ -11690,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>21.07</v>
+        <v>20.3</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>20.08</v>
@@ -11787,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>82.31</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>82.12</v>
@@ -11880,14 +11879,14 @@
     <row r="51">
       <c r="A51" s="90" t="inlineStr">
         <is>
-          <t>今日买报：ixic:RS2:32.54&lt;=38</t>
+          <t>今日买报：</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:89.9&gt;=66;kc:RS5:77.83&gt;=65;hk50:RS4:89.94&gt;=73;vn:RS3:89.83&gt;=85;dax30:RNG120:21.07&gt;=20</t>
+          <t>今日卖报：sh:RS3:89.9&gt;=66;kc:RS5:77.83&gt;=65;hk50:RS4:89.94&gt;=73;vn:RS3:91.91&gt;=85;dax30:RNG120:20.3&gt;=20</t>
         </is>
       </c>
     </row>
@@ -15503,13 +15502,13 @@
       <c r="G2" s="36" t="n">
         <v>66</v>
       </c>
-      <c r="H2" s="97" t="n">
+      <c r="H2" s="96" t="n">
         <v>22.3514585</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>7.06</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="97">
         <f>(1+H2/100)^(1/(YEAR(D2)-YEAR(C2)))-1</f>
         <v/>
       </c>
@@ -15541,13 +15540,13 @@
       <c r="G3" s="39" t="n">
         <v>73</v>
       </c>
-      <c r="H3" s="99" t="n">
+      <c r="H3" s="98" t="n">
         <v>35.0298984</v>
       </c>
       <c r="I3" s="39" t="n">
         <v>11.41</v>
       </c>
-      <c r="J3" s="98">
+      <c r="J3" s="97">
         <f>(1+H3/100)^(1/(YEAR(D3)-YEAR(C3)))-1</f>
         <v/>
       </c>
@@ -15579,13 +15578,13 @@
       <c r="G4" s="39" t="n">
         <v>85</v>
       </c>
-      <c r="H4" s="99" t="n">
+      <c r="H4" s="98" t="n">
         <v>122.4911655</v>
       </c>
       <c r="I4" s="39" t="n">
         <v>76.98</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="99">
         <f>(1+H4/100)^(1/(YEAR(D4)-YEAR(C4)))-1</f>
         <v/>
       </c>
@@ -15617,13 +15616,13 @@
       <c r="G5" s="39" t="n">
         <v>96</v>
       </c>
-      <c r="H5" s="99" t="n">
+      <c r="H5" s="98" t="n">
         <v>136.13543</v>
       </c>
       <c r="I5" s="39" t="n">
         <v>100.05</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="99">
         <f>(1+H5/100)^(1/(YEAR(D5)-YEAR(C5)))-1</f>
         <v/>
       </c>
@@ -15655,13 +15654,13 @@
       <c r="G6" s="39" t="n">
         <v>95</v>
       </c>
-      <c r="H6" s="99" t="n">
+      <c r="H6" s="98" t="n">
         <v>95.7546074</v>
       </c>
       <c r="I6" s="39" t="n">
         <v>44.37</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="99">
         <f>(1+H6/100)^(1/(YEAR(D6)-YEAR(C6)))-1</f>
         <v/>
       </c>
@@ -15693,13 +15692,13 @@
       <c r="G7" s="39" t="n">
         <v>86</v>
       </c>
-      <c r="H7" s="99" t="n">
+      <c r="H7" s="98" t="n">
         <v>123.8525927</v>
       </c>
       <c r="I7" s="39" t="n">
         <v>63.41</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="99">
         <f>(1+H7/100)^(1/(YEAR(D7)-YEAR(C7)))-1</f>
         <v/>
       </c>
@@ -15731,13 +15730,13 @@
       <c r="G8" s="39" t="n">
         <v>87</v>
       </c>
-      <c r="H8" s="99" t="n">
+      <c r="H8" s="98" t="n">
         <v>81.41461922000001</v>
       </c>
       <c r="I8" s="39" t="n">
         <v>26.39</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="99">
         <f>(1+H8/100)^(1/(YEAR(D8)-YEAR(C8)))-1</f>
         <v/>
       </c>
@@ -15769,13 +15768,13 @@
       <c r="G9" s="39" t="n">
         <v>83</v>
       </c>
-      <c r="H9" s="99" t="n">
+      <c r="H9" s="98" t="n">
         <v>47.02060524</v>
       </c>
       <c r="I9" s="39" t="n">
         <v>37.82</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="99">
         <f>(1+H9/100)^(1/(YEAR(D9)-YEAR(C9)))-1</f>
         <v/>
       </c>
@@ -15806,13 +15805,13 @@
       <c r="G10" s="24" t="n">
         <v>65</v>
       </c>
-      <c r="H10" s="101" t="n">
+      <c r="H10" s="100" t="n">
         <v>27.8860732</v>
       </c>
       <c r="I10" s="24" t="n">
         <v>-10.97</v>
       </c>
-      <c r="J10" s="102" t="n">
+      <c r="J10" s="101" t="n">
         <v>0.278860732</v>
       </c>
     </row>
@@ -15843,13 +15842,13 @@
       <c r="G11" s="24" t="n">
         <v>93</v>
       </c>
-      <c r="H11" s="101" t="n">
+      <c r="H11" s="100" t="n">
         <v>17.4948656</v>
       </c>
       <c r="I11" s="24" t="n">
         <v>-7.7</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <f>(1+H11/100)^(1/(YEAR(D11)-YEAR(C11)))-1</f>
         <v/>
       </c>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>0.25</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-1.45</v>
+        <v>-1.39</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-0.71</v>
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-7.17</v>
+        <v>-6.67</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-7.17</v>
@@ -8537,7 +8537,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-6.17</v>
+        <v>-5.35</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-6.17</v>
@@ -8634,7 +8634,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>55.32</v>
+        <v>77.04000000000001</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>55.32</v>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-7.55</v>
+        <v>-7.23</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-7.55</v>
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-7.18</v>
+        <v>-5.79</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-7.18</v>
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>63.59</v>
+        <v>74.66</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>63.59</v>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-10.02</v>
+        <v>-8.73</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-10.02</v>
@@ -9433,7 +9433,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-8.09</v>
+        <v>-7.02</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-8.09</v>
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>47.86</v>
+        <v>81.23</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>47.86</v>
@@ -10680,7 +10680,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>2.41</v>
+        <v>2.23</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.61</v>
@@ -10777,7 +10777,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>1.25</v>
+        <v>1.07</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>1.51</v>
@@ -10874,7 +10874,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>65.61</v>
+        <v>63.59</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>69.77</v>
@@ -11128,7 +11128,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.62</v>
+        <v>-3.89</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-4.34</v>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>6.92</v>
+        <v>6.62</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>5.53</v>
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>65.42</v>
+        <v>63.11</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>53.51</v>
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>6.79</v>
+        <v>6.58</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.1</v>
@@ -11673,7 +11673,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>20.31</v>
+        <v>20.07</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>20.3</v>
@@ -11770,7 +11770,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>79.22</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>73.98999999999999</v>
@@ -11870,7 +11870,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:91.85&gt;=66;kc:RS5:68.25&gt;=65;cy:RS3:94.7&gt;=93;hk50:RS4:91.51&gt;=73;vn:RS3:96.65&gt;=85;dax30:RNG120:20.31&gt;=20</t>
+          <t>今日卖报：sh:RS3:91.85&gt;=66;kc:RS5:68.25&gt;=65;cy:RS3:94.7&gt;=93;hk50:RS4:91.51&gt;=73;vn:RS3:96.65&gt;=85;dax30:RNG120:20.07&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>0.2</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-2.52</v>
+        <v>-2.5</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-1.39</v>
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-6.67</v>
+        <v>-6.48</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-6.67</v>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-5.35</v>
+        <v>-5.44</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-5.35</v>
@@ -8640,7 +8640,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>77.04000000000001</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>77.04000000000001</v>
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-7.23</v>
+        <v>-7.03</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-7.23</v>
@@ -8989,7 +8989,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-5.79</v>
+        <v>-6.16</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-5.79</v>
@@ -9086,7 +9086,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>74.66</v>
+        <v>61.53</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>74.66</v>
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-8.73</v>
+        <v>-8.76</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-8.73</v>
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-7.02</v>
+        <v>-6.77</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-7.02</v>
@@ -9532,7 +9532,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>81.23</v>
+        <v>81.33</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>81.23</v>
@@ -11120,7 +11120,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.49</v>
+        <v>-3.55</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-3.89</v>
@@ -11217,7 +11217,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>5.98</v>
+        <v>5.91</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>6.62</v>
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>69.45999999999999</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>63.11</v>
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>6.52</v>
+        <v>6.63</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.58</v>
@@ -11663,7 +11663,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>23.34</v>
+        <v>23.46</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>20.07</v>
@@ -11760,7 +11760,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>80.61</v>
+        <v>80.97</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>78.51000000000001</v>
@@ -11860,7 +11860,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:70.06&gt;=66;hk50:RS4:93.08&gt;=73;vn:RS3:86.82&gt;=85;dax30:RNG120:23.34&gt;=20</t>
+          <t>今日卖报：sh:RS3:70.06&gt;=66;hk50:RS4:93.08&gt;=73;vn:RS3:86.82&gt;=85;dax30:RNG120:23.46&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>-0.51</v>
+        <v>-0.55</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.04</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-1.98</v>
+        <v>-2.02</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-2.5</v>
@@ -8298,9 +8298,9 @@
           <t>us500:EIDE</t>
         </is>
       </c>
-      <c r="B18" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
+      <c r="B18" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
       <c r="C18" s="92" t="inlineStr">
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-6.48</v>
+        <v>-4.43</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-6.48</v>
@@ -8553,7 +8553,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>-5.44</v>
+        <v>-1.76</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>-5.44</v>
@@ -8644,13 +8644,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="76" t="inlineStr">
+      <c r="A21" s="95" t="inlineStr">
         <is>
           <t>us500:RS2</t>
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>68.79000000000001</v>
+        <v>97.11</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>68.79000000000001</v>
@@ -8746,9 +8746,9 @@
           <t>us30:EIDE</t>
         </is>
       </c>
-      <c r="B22" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
+      <c r="B22" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
       <c r="C22" s="92" t="inlineStr">
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-7.03</v>
+        <v>-5.15</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-7.03</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-6.16</v>
+        <v>-3.06</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-6.16</v>
@@ -9092,13 +9092,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="76" t="inlineStr">
+      <c r="A25" s="95" t="inlineStr">
         <is>
           <t>us30:RS3</t>
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>61.53</v>
+        <v>89.23</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>61.53</v>
@@ -9194,9 +9194,9 @@
           <t>ixic:EIDE</t>
         </is>
       </c>
-      <c r="B26" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
+      <c r="B26" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
       <c r="C26" s="92" t="inlineStr">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-8.76</v>
+        <v>-6.2</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-8.76</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-6.77</v>
+        <v>-2.09</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-6.77</v>
@@ -9540,13 +9540,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="76" t="inlineStr">
+      <c r="A29" s="95" t="inlineStr">
         <is>
           <t>ixic:RS2</t>
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>81.33</v>
+        <v>98.37</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>81.33</v>
@@ -10248,7 +10248,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>0.32</v>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>1.18</v>
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>93.23999999999999</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>86.81999999999999</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>5.52</v>
+        <v>5.6</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>1.51</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>4.69</v>
+        <v>4.77</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>-0.05</v>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>71.04000000000001</v>
+        <v>71.28</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>52.53</v>
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-2.18</v>
+        <v>-2.39</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-3.55</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>8.210000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>5.91</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>79.20999999999999</v>
+        <v>78.25</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>68.95999999999999</v>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>6.63</v>
+        <v>6.4</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.63</v>
@@ -11613,10 +11613,10 @@
         <v>8.15</v>
       </c>
       <c r="I47" s="94" t="n">
-        <v>10.64</v>
+        <v>7.35</v>
       </c>
       <c r="J47" s="94" t="n">
-        <v>10.64</v>
+        <v>7.35</v>
       </c>
       <c r="K47" s="94" t="n">
         <v>4.99</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>23.46</v>
+        <v>24.01</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>23.46</v>
@@ -11710,10 +11710,10 @@
         <v>22.61</v>
       </c>
       <c r="I48" s="94" t="n">
-        <v>23.57</v>
+        <v>19.89</v>
       </c>
       <c r="J48" s="94" t="n">
-        <v>23.57</v>
+        <v>19.89</v>
       </c>
       <c r="K48" s="94" t="n">
         <v>17.49</v>
@@ -11786,94 +11786,94 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>72.23999999999999</v>
+        <v>82.09</v>
       </c>
       <c r="C49" s="94" t="n">
-        <v>72.23999999999999</v>
+        <v>80.97</v>
       </c>
       <c r="D49" s="94" t="n">
-        <v>72.23999999999999</v>
+        <v>80.97</v>
       </c>
       <c r="E49" s="94" t="n">
-        <v>69.55</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="F49" s="94" t="n">
-        <v>64.98</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="G49" s="94" t="n">
-        <v>69.92</v>
+        <v>82.12</v>
       </c>
       <c r="H49" s="94" t="n">
-        <v>73.20999999999999</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="I49" s="94" t="n">
-        <v>89.92</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="J49" s="94" t="n">
-        <v>89.92</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="K49" s="94" t="n">
-        <v>77.66</v>
+        <v>77.56</v>
       </c>
       <c r="L49" s="94" t="n">
-        <v>77.66</v>
+        <v>77.56</v>
       </c>
       <c r="M49" s="94" t="n">
-        <v>76.34</v>
+        <v>76.25</v>
       </c>
       <c r="N49" s="94" t="n">
-        <v>73.53</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="O49" s="94" t="n">
-        <v>73.02</v>
+        <v>72.92</v>
       </c>
       <c r="P49" s="94" t="n">
-        <v>73.02</v>
+        <v>72.92</v>
       </c>
       <c r="Q49" s="94" t="n">
-        <v>70.11</v>
+        <v>70.02</v>
       </c>
       <c r="R49" s="94" t="n">
-        <v>68.48</v>
+        <v>68.39</v>
       </c>
       <c r="S49" s="94" t="n">
-        <v>55.21</v>
+        <v>55.14</v>
       </c>
       <c r="T49" s="94" t="n">
-        <v>53.04</v>
+        <v>52.99</v>
       </c>
       <c r="U49" s="94" t="n">
-        <v>53.04</v>
+        <v>52.99</v>
       </c>
       <c r="V49" s="94" t="n">
-        <v>53.04</v>
+        <v>52.99</v>
       </c>
       <c r="W49" s="94" t="n">
-        <v>53.04</v>
+        <v>52.99</v>
       </c>
       <c r="X49" s="94" t="n">
-        <v>55.73</v>
+        <v>55.66</v>
       </c>
       <c r="Y49" s="94" t="n">
-        <v>54.69</v>
+        <v>54.62</v>
       </c>
       <c r="Z49" s="94" t="n">
-        <v>49.52</v>
+        <v>49.48</v>
       </c>
       <c r="AA49" s="94" t="n">
-        <v>38.08</v>
+        <v>38.14</v>
       </c>
       <c r="AB49" s="94" t="n">
-        <v>38.08</v>
+        <v>38.14</v>
       </c>
       <c r="AC49" s="94" t="n">
-        <v>40.57</v>
+        <v>40.61</v>
       </c>
       <c r="AD49" s="94" t="n">
-        <v>19.97</v>
+        <v>20.28</v>
       </c>
       <c r="AE49" s="94" t="n">
-        <v>24.88</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="51">
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:84.8&gt;=66;hk50:RS4:97.56&gt;=73;vn:RS3:93.24&gt;=85;dax30:RNG120:23.46&gt;=20</t>
+          <t>今日卖报：sh:RS3:84.8&gt;=66;hk50:RS4:97.56&gt;=73;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:93.32&gt;=85;dax30:RNG120:24.01&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -6351,152 +6351,152 @@
       </c>
       <c r="B1" s="77" t="inlineStr">
         <is>
+          <t>250513</t>
+        </is>
+      </c>
+      <c r="C1" s="77" t="inlineStr">
+        <is>
           <t>250512</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="D1" s="77" t="inlineStr">
         <is>
           <t>250511</t>
         </is>
       </c>
-      <c r="D1" s="77" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>250509</t>
         </is>
       </c>
-      <c r="E1" s="77" t="inlineStr">
+      <c r="F1" s="77" t="inlineStr">
         <is>
           <t>250508</t>
         </is>
       </c>
-      <c r="F1" s="77" t="inlineStr">
+      <c r="G1" s="77" t="inlineStr">
         <is>
           <t>250507</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="H1" s="77" t="inlineStr">
         <is>
           <t>250506</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>250505</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="J1" s="77" t="inlineStr">
         <is>
           <t>250504</t>
         </is>
       </c>
-      <c r="J1" s="77" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>250502</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>250501</t>
         </is>
       </c>
-      <c r="L1" s="77" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>250430</t>
         </is>
       </c>
-      <c r="M1" s="77" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>250429</t>
         </is>
       </c>
-      <c r="N1" s="77" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>250428</t>
         </is>
       </c>
-      <c r="O1" s="77" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>250427</t>
         </is>
       </c>
-      <c r="P1" s="77" t="inlineStr">
+      <c r="Q1" s="77" t="inlineStr">
         <is>
           <t>250425</t>
         </is>
       </c>
-      <c r="Q1" s="77" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>250424</t>
         </is>
       </c>
-      <c r="R1" s="77" t="inlineStr">
+      <c r="S1" s="77" t="inlineStr">
         <is>
           <t>250423</t>
         </is>
       </c>
-      <c r="S1" s="77" t="inlineStr">
+      <c r="T1" s="77" t="inlineStr">
         <is>
           <t>250422</t>
         </is>
       </c>
-      <c r="T1" s="77" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>250421</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="V1" s="77" t="inlineStr">
         <is>
           <t>250420</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="W1" s="77" t="inlineStr">
         <is>
           <t>250418</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="X1" s="77" t="inlineStr">
         <is>
           <t>250417</t>
         </is>
       </c>
-      <c r="X1" s="77" t="inlineStr">
+      <c r="Y1" s="77" t="inlineStr">
         <is>
           <t>250416</t>
         </is>
       </c>
-      <c r="Y1" s="77" t="inlineStr">
+      <c r="Z1" s="77" t="inlineStr">
         <is>
           <t>250415</t>
         </is>
       </c>
-      <c r="Z1" s="77" t="inlineStr">
+      <c r="AA1" s="77" t="inlineStr">
         <is>
           <t>250414</t>
         </is>
       </c>
-      <c r="AA1" s="77" t="inlineStr">
+      <c r="AB1" s="77" t="inlineStr">
         <is>
           <t>250413</t>
         </is>
       </c>
-      <c r="AB1" s="77" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>250411</t>
         </is>
       </c>
-      <c r="AC1" s="77" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>250410</t>
         </is>
       </c>
-      <c r="AD1" s="77" t="inlineStr">
+      <c r="AE1" s="77" t="inlineStr">
         <is>
           <t>250409</t>
-        </is>
-      </c>
-      <c r="AE1" s="77" t="inlineStr">
-        <is>
-          <t>250408</t>
         </is>
       </c>
     </row>
@@ -6511,149 +6511,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C2" s="92" t="inlineStr">
+      <c r="C2" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D2" s="92" t="inlineStr">
+      <c r="E2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E2" s="91" t="inlineStr">
+      <c r="F2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F2" s="91" t="inlineStr">
+      <c r="G2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G2" s="91" t="inlineStr">
+      <c r="H2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H2" s="93" t="inlineStr">
+      <c r="I2" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="I2" s="93" t="inlineStr">
+      <c r="J2" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="J2" s="93" t="inlineStr">
+      <c r="K2" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" s="93" t="inlineStr">
+      <c r="L2" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="L2" s="93" t="inlineStr">
+      <c r="M2" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="M2" s="92" t="inlineStr">
+      <c r="N2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N2" s="92" t="inlineStr">
+      <c r="O2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O2" s="92" t="inlineStr">
+      <c r="P2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P2" s="92" t="inlineStr">
+      <c r="Q2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q2" s="91" t="inlineStr">
+      <c r="R2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R2" s="91" t="inlineStr">
+      <c r="S2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S2" s="91" t="inlineStr">
+      <c r="T2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T2" s="91" t="inlineStr">
+      <c r="U2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U2" s="91" t="inlineStr">
+      <c r="V2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V2" s="91" t="inlineStr">
+      <c r="W2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W2" s="91" t="inlineStr">
+      <c r="X2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="X2" s="91" t="inlineStr">
+      <c r="Y2" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Y2" s="92" t="inlineStr">
+      <c r="Z2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z2" s="92" t="inlineStr">
+      <c r="AA2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA2" s="92" t="inlineStr">
+      <c r="AB2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB2" s="92" t="inlineStr">
+      <c r="AC2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC2" s="92" t="inlineStr">
+      <c r="AD2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD2" s="92" t="inlineStr">
+      <c r="AE2" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE2" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -6664,25 +6664,25 @@
         </is>
       </c>
       <c r="B3" s="94" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C3" s="94" t="n">
         <v>1.54</v>
-      </c>
-      <c r="C3" s="94" t="n">
-        <v>0.6</v>
       </c>
       <c r="D3" s="94" t="n">
         <v>0.6</v>
       </c>
       <c r="E3" s="94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="94" t="n">
         <v>1.46</v>
       </c>
-      <c r="F3" s="94" t="n">
+      <c r="G3" s="94" t="n">
         <v>2.2</v>
       </c>
-      <c r="G3" s="94" t="n">
+      <c r="H3" s="94" t="n">
         <v>2.68</v>
-      </c>
-      <c r="H3" s="94" t="n">
-        <v>0.87</v>
       </c>
       <c r="I3" s="94" t="n">
         <v>0.87</v>
@@ -6697,61 +6697,61 @@
         <v>0.87</v>
       </c>
       <c r="M3" s="94" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N3" s="94" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" s="94" t="n">
+      <c r="O3" s="94" t="n">
         <v>1.8</v>
-      </c>
-      <c r="O3" s="94" t="n">
-        <v>2.53</v>
       </c>
       <c r="P3" s="94" t="n">
         <v>2.53</v>
       </c>
       <c r="Q3" s="94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="R3" s="94" t="n">
         <v>1.69</v>
       </c>
-      <c r="R3" s="94" t="n">
+      <c r="S3" s="94" t="n">
         <v>1.6</v>
       </c>
-      <c r="S3" s="94" t="n">
+      <c r="T3" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="T3" s="94" t="n">
+      <c r="U3" s="94" t="n">
         <v>1.71</v>
-      </c>
-      <c r="U3" s="94" t="n">
-        <v>1.54</v>
       </c>
       <c r="V3" s="94" t="n">
         <v>1.54</v>
       </c>
       <c r="W3" s="94" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X3" s="94" t="n">
         <v>1.22</v>
       </c>
-      <c r="X3" s="94" t="n">
+      <c r="Y3" s="94" t="n">
         <v>3.65</v>
       </c>
-      <c r="Y3" s="94" t="n">
+      <c r="Z3" s="94" t="n">
         <v>3.13</v>
       </c>
-      <c r="Z3" s="94" t="n">
+      <c r="AA3" s="94" t="n">
         <v>1.6</v>
-      </c>
-      <c r="AA3" s="94" t="n">
-        <v>0.25</v>
       </c>
       <c r="AB3" s="94" t="n">
         <v>0.25</v>
       </c>
       <c r="AC3" s="94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD3" s="94" t="n">
         <v>-0.19</v>
       </c>
-      <c r="AD3" s="94" t="n">
+      <c r="AE3" s="94" t="n">
         <v>-0.63</v>
-      </c>
-      <c r="AE3" s="94" t="n">
-        <v>-2.05</v>
       </c>
     </row>
     <row r="4">
@@ -6761,25 +6761,25 @@
         </is>
       </c>
       <c r="B4" s="94" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="C4" s="94" t="n">
         <v>-2.41</v>
-      </c>
-      <c r="C4" s="94" t="n">
-        <v>-3.71</v>
       </c>
       <c r="D4" s="94" t="n">
         <v>-3.71</v>
       </c>
       <c r="E4" s="94" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="F4" s="94" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="F4" s="94" t="n">
+      <c r="G4" s="94" t="n">
         <v>-1.31</v>
       </c>
-      <c r="G4" s="94" t="n">
+      <c r="H4" s="94" t="n">
         <v>0.18</v>
-      </c>
-      <c r="H4" s="94" t="n">
-        <v>0.21</v>
       </c>
       <c r="I4" s="94" t="n">
         <v>0.21</v>
@@ -6797,58 +6797,58 @@
         <v>0.21</v>
       </c>
       <c r="N4" s="94" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O4" s="94" t="n">
         <v>0.68</v>
-      </c>
-      <c r="O4" s="94" t="n">
-        <v>0.26</v>
       </c>
       <c r="P4" s="94" t="n">
         <v>0.26</v>
       </c>
       <c r="Q4" s="94" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R4" s="94" t="n">
         <v>-0.75</v>
       </c>
-      <c r="R4" s="94" t="n">
+      <c r="S4" s="94" t="n">
         <v>-0.1</v>
       </c>
-      <c r="S4" s="94" t="n">
+      <c r="T4" s="94" t="n">
         <v>0.59</v>
       </c>
-      <c r="T4" s="94" t="n">
+      <c r="U4" s="94" t="n">
         <v>-0.34</v>
-      </c>
-      <c r="U4" s="94" t="n">
-        <v>-0.28</v>
       </c>
       <c r="V4" s="94" t="n">
         <v>-0.28</v>
       </c>
       <c r="W4" s="94" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="X4" s="94" t="n">
         <v>0.37</v>
       </c>
-      <c r="X4" s="94" t="n">
+      <c r="Y4" s="94" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y4" s="94" t="n">
+      <c r="Z4" s="94" t="n">
         <v>3.1</v>
       </c>
-      <c r="Z4" s="94" t="n">
+      <c r="AA4" s="94" t="n">
         <v>1.87</v>
-      </c>
-      <c r="AA4" s="94" t="n">
-        <v>1.15</v>
       </c>
       <c r="AB4" s="94" t="n">
         <v>1.15</v>
       </c>
       <c r="AC4" s="94" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD4" s="94" t="n">
         <v>-1.85</v>
       </c>
-      <c r="AD4" s="94" t="n">
+      <c r="AE4" s="94" t="n">
         <v>-0.96</v>
-      </c>
-      <c r="AE4" s="94" t="n">
-        <v>-4.74</v>
       </c>
     </row>
     <row r="5">
@@ -6858,25 +6858,25 @@
         </is>
       </c>
       <c r="B5" s="94" t="n">
+        <v>85.66</v>
+      </c>
+      <c r="C5" s="94" t="n">
         <v>84.8</v>
-      </c>
-      <c r="C5" s="94" t="n">
-        <v>70.06</v>
       </c>
       <c r="D5" s="94" t="n">
         <v>70.06</v>
       </c>
       <c r="E5" s="94" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="F5" s="94" t="n">
         <v>91.84999999999999</v>
       </c>
-      <c r="F5" s="94" t="n">
+      <c r="G5" s="94" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="G5" s="94" t="n">
+      <c r="H5" s="94" t="n">
         <v>81.45999999999999</v>
-      </c>
-      <c r="H5" s="94" t="n">
-        <v>16.68</v>
       </c>
       <c r="I5" s="94" t="n">
         <v>16.68</v>
@@ -6891,61 +6891,61 @@
         <v>16.68</v>
       </c>
       <c r="M5" s="94" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="N5" s="94" t="n">
         <v>32</v>
       </c>
-      <c r="N5" s="94" t="n">
+      <c r="O5" s="94" t="n">
         <v>37.27</v>
-      </c>
-      <c r="O5" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="P5" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="Q5" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="R5" s="94" t="n">
         <v>75.73</v>
       </c>
-      <c r="R5" s="94" t="n">
+      <c r="S5" s="94" t="n">
         <v>74.39</v>
       </c>
-      <c r="S5" s="94" t="n">
+      <c r="T5" s="94" t="n">
         <v>85.98</v>
       </c>
-      <c r="T5" s="94" t="n">
+      <c r="U5" s="94" t="n">
         <v>81.19</v>
-      </c>
-      <c r="U5" s="94" t="n">
-        <v>68.56</v>
       </c>
       <c r="V5" s="94" t="n">
         <v>68.56</v>
       </c>
       <c r="W5" s="94" t="n">
+        <v>68.56</v>
+      </c>
+      <c r="X5" s="94" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="X5" s="94" t="n">
+      <c r="Y5" s="94" t="n">
         <v>74.51000000000001</v>
       </c>
-      <c r="Y5" s="94" t="n">
+      <c r="Z5" s="94" t="n">
         <v>70.33</v>
       </c>
-      <c r="Z5" s="94" t="n">
+      <c r="AA5" s="94" t="n">
         <v>68.31999999999999</v>
-      </c>
-      <c r="AA5" s="94" t="n">
-        <v>58.9</v>
       </c>
       <c r="AB5" s="94" t="n">
         <v>58.9</v>
       </c>
       <c r="AC5" s="94" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="AD5" s="94" t="n">
         <v>53.42</v>
       </c>
-      <c r="AD5" s="94" t="n">
+      <c r="AE5" s="94" t="n">
         <v>39.94</v>
-      </c>
-      <c r="AE5" s="94" t="n">
-        <v>23.39</v>
       </c>
     </row>
     <row r="6">
@@ -6969,139 +6969,139 @@
           <t>green</t>
         </is>
       </c>
-      <c r="E6" s="91" t="inlineStr">
+      <c r="E6" s="93" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="F6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F6" s="91" t="inlineStr">
+      <c r="G6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G6" s="91" t="inlineStr">
+      <c r="H6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H6" s="91" t="inlineStr">
+      <c r="I6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I6" s="91" t="inlineStr">
+      <c r="J6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J6" s="91" t="inlineStr">
+      <c r="K6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K6" s="91" t="inlineStr">
+      <c r="L6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L6" s="91" t="inlineStr">
+      <c r="M6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M6" s="93" t="inlineStr">
+      <c r="N6" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="N6" s="93" t="inlineStr">
+      <c r="O6" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="O6" s="93" t="inlineStr">
+      <c r="P6" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="P6" s="93" t="inlineStr">
+      <c r="Q6" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Q6" s="93" t="inlineStr">
+      <c r="R6" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="R6" s="92" t="inlineStr">
+      <c r="S6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S6" s="91" t="inlineStr">
+      <c r="T6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T6" s="91" t="inlineStr">
+      <c r="U6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U6" s="92" t="inlineStr">
+      <c r="V6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V6" s="92" t="inlineStr">
+      <c r="W6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W6" s="91" t="inlineStr">
+      <c r="X6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="X6" s="91" t="inlineStr">
+      <c r="Y6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Y6" s="92" t="inlineStr">
+      <c r="Z6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z6" s="91" t="inlineStr">
+      <c r="AA6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA6" s="91" t="inlineStr">
+      <c r="AB6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AB6" s="91" t="inlineStr">
+      <c r="AC6" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AC6" s="92" t="inlineStr">
+      <c r="AD6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD6" s="92" t="inlineStr">
+      <c r="AE6" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AE6" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -7112,25 +7112,25 @@
         </is>
       </c>
       <c r="B7" s="94" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="C7" s="94" t="n">
         <v>-1.29</v>
-      </c>
-      <c r="C7" s="94" t="n">
-        <v>-2.94</v>
       </c>
       <c r="D7" s="94" t="n">
         <v>-2.94</v>
       </c>
       <c r="E7" s="94" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="F7" s="94" t="n">
         <v>0.75</v>
       </c>
-      <c r="F7" s="94" t="n">
+      <c r="G7" s="94" t="n">
         <v>1.88</v>
       </c>
-      <c r="G7" s="94" t="n">
+      <c r="H7" s="94" t="n">
         <v>4.45</v>
-      </c>
-      <c r="H7" s="94" t="n">
-        <v>6</v>
       </c>
       <c r="I7" s="94" t="n">
         <v>6</v>
@@ -7145,61 +7145,61 @@
         <v>6</v>
       </c>
       <c r="M7" s="94" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" s="94" t="n">
         <v>2.98</v>
       </c>
-      <c r="N7" s="94" t="n">
+      <c r="O7" s="94" t="n">
         <v>3.8</v>
-      </c>
-      <c r="O7" s="94" t="n">
-        <v>3</v>
       </c>
       <c r="P7" s="94" t="n">
         <v>3</v>
       </c>
       <c r="Q7" s="94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="94" t="n">
         <v>2.77</v>
       </c>
-      <c r="R7" s="94" t="n">
+      <c r="S7" s="94" t="n">
         <v>4.58</v>
       </c>
-      <c r="S7" s="94" t="n">
+      <c r="T7" s="94" t="n">
         <v>5.21</v>
       </c>
-      <c r="T7" s="94" t="n">
+      <c r="U7" s="94" t="n">
         <v>6.59</v>
-      </c>
-      <c r="U7" s="94" t="n">
-        <v>3.16</v>
       </c>
       <c r="V7" s="94" t="n">
         <v>3.16</v>
       </c>
       <c r="W7" s="94" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="X7" s="94" t="n">
         <v>3.57</v>
       </c>
-      <c r="X7" s="94" t="n">
+      <c r="Y7" s="94" t="n">
         <v>6.54</v>
       </c>
-      <c r="Y7" s="94" t="n">
+      <c r="Z7" s="94" t="n">
         <v>5.86</v>
       </c>
-      <c r="Z7" s="94" t="n">
+      <c r="AA7" s="94" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AA7" s="94" t="n">
-        <v>4.83</v>
       </c>
       <c r="AB7" s="94" t="n">
         <v>4.83</v>
       </c>
       <c r="AC7" s="94" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AD7" s="94" t="n">
         <v>2.66</v>
       </c>
-      <c r="AD7" s="94" t="n">
+      <c r="AE7" s="94" t="n">
         <v>4.46</v>
-      </c>
-      <c r="AE7" s="94" t="n">
-        <v>-0.18</v>
       </c>
     </row>
     <row r="8">
@@ -7209,25 +7209,25 @@
         </is>
       </c>
       <c r="B8" s="94" t="n">
+        <v>-5.93</v>
+      </c>
+      <c r="C8" s="94" t="n">
         <v>-1.4</v>
-      </c>
-      <c r="C8" s="94" t="n">
-        <v>-2.15</v>
       </c>
       <c r="D8" s="94" t="n">
         <v>-2.15</v>
       </c>
       <c r="E8" s="94" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="F8" s="94" t="n">
         <v>2.84</v>
       </c>
-      <c r="F8" s="94" t="n">
+      <c r="G8" s="94" t="n">
         <v>3.42</v>
       </c>
-      <c r="G8" s="94" t="n">
+      <c r="H8" s="94" t="n">
         <v>7.53</v>
-      </c>
-      <c r="H8" s="94" t="n">
-        <v>7.73</v>
       </c>
       <c r="I8" s="94" t="n">
         <v>7.73</v>
@@ -7242,61 +7242,61 @@
         <v>7.73</v>
       </c>
       <c r="M8" s="94" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="N8" s="94" t="n">
         <v>3.55</v>
       </c>
-      <c r="N8" s="94" t="n">
+      <c r="O8" s="94" t="n">
         <v>4.59</v>
-      </c>
-      <c r="O8" s="94" t="n">
-        <v>2.99</v>
       </c>
       <c r="P8" s="94" t="n">
         <v>2.99</v>
       </c>
       <c r="Q8" s="94" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R8" s="94" t="n">
         <v>1.7</v>
       </c>
-      <c r="R8" s="94" t="n">
+      <c r="S8" s="94" t="n">
         <v>2.16</v>
       </c>
-      <c r="S8" s="94" t="n">
+      <c r="T8" s="94" t="n">
         <v>3.95</v>
       </c>
-      <c r="T8" s="94" t="n">
+      <c r="U8" s="94" t="n">
         <v>4.11</v>
-      </c>
-      <c r="U8" s="94" t="n">
-        <v>2.31</v>
       </c>
       <c r="V8" s="94" t="n">
         <v>2.31</v>
       </c>
       <c r="W8" s="94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="X8" s="94" t="n">
         <v>1.64</v>
       </c>
-      <c r="X8" s="94" t="n">
+      <c r="Y8" s="94" t="n">
         <v>3.66</v>
       </c>
-      <c r="Y8" s="94" t="n">
+      <c r="Z8" s="94" t="n">
         <v>14.47</v>
       </c>
-      <c r="Z8" s="94" t="n">
+      <c r="AA8" s="94" t="n">
         <v>15.83</v>
-      </c>
-      <c r="AA8" s="94" t="n">
-        <v>12.56</v>
       </c>
       <c r="AB8" s="94" t="n">
         <v>12.56</v>
       </c>
       <c r="AC8" s="94" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="AD8" s="94" t="n">
         <v>7.05</v>
       </c>
-      <c r="AD8" s="94" t="n">
+      <c r="AE8" s="94" t="n">
         <v>9.09</v>
-      </c>
-      <c r="AE8" s="94" t="n">
-        <v>-1.48</v>
       </c>
     </row>
     <row r="9">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B9" s="94" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="C9" s="94" t="n">
         <v>44.98</v>
-      </c>
-      <c r="C9" s="94" t="n">
-        <v>37.39</v>
       </c>
       <c r="D9" s="94" t="n">
         <v>37.39</v>
       </c>
       <c r="E9" s="94" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="F9" s="94" t="n">
         <v>68.25</v>
       </c>
-      <c r="F9" s="94" t="n">
+      <c r="G9" s="94" t="n">
         <v>77.83</v>
       </c>
-      <c r="G9" s="94" t="n">
+      <c r="H9" s="94" t="n">
         <v>75.09999999999999</v>
-      </c>
-      <c r="H9" s="94" t="n">
-        <v>59.87</v>
       </c>
       <c r="I9" s="94" t="n">
         <v>59.87</v>
@@ -7339,61 +7339,61 @@
         <v>59.87</v>
       </c>
       <c r="M9" s="94" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="N9" s="94" t="n">
         <v>42.94</v>
       </c>
-      <c r="N9" s="94" t="n">
+      <c r="O9" s="94" t="n">
         <v>40.49</v>
-      </c>
-      <c r="O9" s="94" t="n">
-        <v>42.96</v>
       </c>
       <c r="P9" s="94" t="n">
         <v>42.96</v>
       </c>
       <c r="Q9" s="94" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="R9" s="94" t="n">
         <v>40.89</v>
       </c>
-      <c r="R9" s="94" t="n">
+      <c r="S9" s="94" t="n">
         <v>52.16</v>
       </c>
-      <c r="S9" s="94" t="n">
+      <c r="T9" s="94" t="n">
         <v>56.97</v>
       </c>
-      <c r="T9" s="94" t="n">
+      <c r="U9" s="94" t="n">
         <v>60.99</v>
-      </c>
-      <c r="U9" s="94" t="n">
-        <v>51.77</v>
       </c>
       <c r="V9" s="94" t="n">
         <v>51.77</v>
       </c>
       <c r="W9" s="94" t="n">
+        <v>51.77</v>
+      </c>
+      <c r="X9" s="94" t="n">
         <v>60.45</v>
       </c>
-      <c r="X9" s="94" t="n">
+      <c r="Y9" s="94" t="n">
         <v>58.91</v>
       </c>
-      <c r="Y9" s="94" t="n">
+      <c r="Z9" s="94" t="n">
         <v>53.78</v>
       </c>
-      <c r="Z9" s="94" t="n">
+      <c r="AA9" s="94" t="n">
         <v>59.56</v>
-      </c>
-      <c r="AA9" s="94" t="n">
-        <v>58.4</v>
       </c>
       <c r="AB9" s="94" t="n">
         <v>58.4</v>
       </c>
       <c r="AC9" s="94" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="AD9" s="94" t="n">
         <v>49.1</v>
       </c>
-      <c r="AD9" s="94" t="n">
+      <c r="AE9" s="94" t="n">
         <v>43.89</v>
-      </c>
-      <c r="AE9" s="94" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="10">
@@ -7457,94 +7457,94 @@
           <t>red</t>
         </is>
       </c>
-      <c r="M10" s="92" t="inlineStr">
+      <c r="M10" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N10" s="92" t="inlineStr">
+      <c r="O10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O10" s="91" t="inlineStr">
+      <c r="P10" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P10" s="91" t="inlineStr">
+      <c r="Q10" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q10" s="92" t="inlineStr">
+      <c r="R10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R10" s="91" t="inlineStr">
+      <c r="S10" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S10" s="92" t="inlineStr">
+      <c r="T10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T10" s="92" t="inlineStr">
+      <c r="U10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U10" s="92" t="inlineStr">
+      <c r="V10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V10" s="92" t="inlineStr">
+      <c r="W10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W10" s="92" t="inlineStr">
+      <c r="X10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X10" s="92" t="inlineStr">
+      <c r="Y10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y10" s="92" t="inlineStr">
+      <c r="Z10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z10" s="92" t="inlineStr">
+      <c r="AA10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA10" s="92" t="inlineStr">
+      <c r="AB10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB10" s="92" t="inlineStr">
+      <c r="AC10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC10" s="92" t="inlineStr">
+      <c r="AD10" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD10" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE10" s="93" t="inlineStr">
@@ -7560,25 +7560,25 @@
         </is>
       </c>
       <c r="B11" s="94" t="n">
+        <v>-6.02</v>
+      </c>
+      <c r="C11" s="94" t="n">
         <v>-4.09</v>
-      </c>
-      <c r="C11" s="94" t="n">
-        <v>-7.88</v>
       </c>
       <c r="D11" s="94" t="n">
         <v>-7.88</v>
       </c>
       <c r="E11" s="94" t="n">
+        <v>-7.88</v>
+      </c>
+      <c r="F11" s="94" t="n">
         <v>-6.66</v>
       </c>
-      <c r="F11" s="94" t="n">
+      <c r="G11" s="94" t="n">
         <v>-5.86</v>
       </c>
-      <c r="G11" s="94" t="n">
+      <c r="H11" s="94" t="n">
         <v>-3.71</v>
-      </c>
-      <c r="H11" s="94" t="n">
-        <v>-5.61</v>
       </c>
       <c r="I11" s="94" t="n">
         <v>-5.61</v>
@@ -7593,61 +7593,61 @@
         <v>-5.61</v>
       </c>
       <c r="M11" s="94" t="n">
+        <v>-5.61</v>
+      </c>
+      <c r="N11" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
-      <c r="N11" s="94" t="n">
+      <c r="O11" s="94" t="n">
         <v>-7.59</v>
-      </c>
-      <c r="O11" s="94" t="n">
-        <v>-7.32</v>
       </c>
       <c r="P11" s="94" t="n">
         <v>-7.32</v>
       </c>
       <c r="Q11" s="94" t="n">
+        <v>-7.32</v>
+      </c>
+      <c r="R11" s="94" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="R11" s="94" t="n">
+      <c r="S11" s="94" t="n">
         <v>-7.39</v>
       </c>
-      <c r="S11" s="94" t="n">
+      <c r="T11" s="94" t="n">
         <v>-6.72</v>
       </c>
-      <c r="T11" s="94" t="n">
+      <c r="U11" s="94" t="n">
         <v>-5.22</v>
-      </c>
-      <c r="U11" s="94" t="n">
-        <v>-6.08</v>
       </c>
       <c r="V11" s="94" t="n">
         <v>-6.08</v>
       </c>
       <c r="W11" s="94" t="n">
+        <v>-6.08</v>
+      </c>
+      <c r="X11" s="94" t="n">
         <v>-8.039999999999999</v>
       </c>
-      <c r="X11" s="94" t="n">
+      <c r="Y11" s="94" t="n">
         <v>-3.8</v>
       </c>
-      <c r="Y11" s="94" t="n">
+      <c r="Z11" s="94" t="n">
         <v>-2.27</v>
       </c>
-      <c r="Z11" s="94" t="n">
+      <c r="AA11" s="94" t="n">
         <v>-3.87</v>
-      </c>
-      <c r="AA11" s="94" t="n">
-        <v>-4.09</v>
       </c>
       <c r="AB11" s="94" t="n">
         <v>-4.09</v>
       </c>
       <c r="AC11" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="AD11" s="94" t="n">
         <v>-6.3</v>
       </c>
-      <c r="AD11" s="94" t="n">
+      <c r="AE11" s="94" t="n">
         <v>-7.74</v>
-      </c>
-      <c r="AE11" s="94" t="n">
-        <v>-8.710000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -7657,25 +7657,25 @@
         </is>
       </c>
       <c r="B12" s="94" t="n">
+        <v>-13.9</v>
+      </c>
+      <c r="C12" s="94" t="n">
         <v>-11.06</v>
-      </c>
-      <c r="C12" s="94" t="n">
-        <v>-14.42</v>
       </c>
       <c r="D12" s="94" t="n">
         <v>-14.42</v>
       </c>
       <c r="E12" s="94" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="F12" s="94" t="n">
         <v>-10.43</v>
       </c>
-      <c r="F12" s="94" t="n">
+      <c r="G12" s="94" t="n">
         <v>-12.81</v>
       </c>
-      <c r="G12" s="94" t="n">
+      <c r="H12" s="94" t="n">
         <v>-9.130000000000001</v>
-      </c>
-      <c r="H12" s="94" t="n">
-        <v>-8.27</v>
       </c>
       <c r="I12" s="94" t="n">
         <v>-8.27</v>
@@ -7690,61 +7690,61 @@
         <v>-8.27</v>
       </c>
       <c r="M12" s="94" t="n">
+        <v>-8.27</v>
+      </c>
+      <c r="N12" s="94" t="n">
         <v>-10.74</v>
       </c>
-      <c r="N12" s="94" t="n">
+      <c r="O12" s="94" t="n">
         <v>-10.09</v>
-      </c>
-      <c r="O12" s="94" t="n">
-        <v>-10.57</v>
       </c>
       <c r="P12" s="94" t="n">
         <v>-10.57</v>
       </c>
       <c r="Q12" s="94" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="R12" s="94" t="n">
         <v>-13.16</v>
       </c>
-      <c r="R12" s="94" t="n">
+      <c r="S12" s="94" t="n">
         <v>-12.94</v>
       </c>
-      <c r="S12" s="94" t="n">
+      <c r="T12" s="94" t="n">
         <v>-11.34</v>
       </c>
-      <c r="T12" s="94" t="n">
+      <c r="U12" s="94" t="n">
         <v>-11.83</v>
-      </c>
-      <c r="U12" s="94" t="n">
-        <v>-13.67</v>
       </c>
       <c r="V12" s="94" t="n">
         <v>-13.67</v>
       </c>
       <c r="W12" s="94" t="n">
+        <v>-13.67</v>
+      </c>
+      <c r="X12" s="94" t="n">
         <v>-13.64</v>
       </c>
-      <c r="X12" s="94" t="n">
+      <c r="Y12" s="94" t="n">
         <v>-13.12</v>
       </c>
-      <c r="Y12" s="94" t="n">
+      <c r="Z12" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="Z12" s="94" t="n">
+      <c r="AA12" s="94" t="n">
         <v>-5.25</v>
-      </c>
-      <c r="AA12" s="94" t="n">
-        <v>-7.65</v>
       </c>
       <c r="AB12" s="94" t="n">
         <v>-7.65</v>
       </c>
       <c r="AC12" s="94" t="n">
+        <v>-7.65</v>
+      </c>
+      <c r="AD12" s="94" t="n">
         <v>-11.82</v>
       </c>
-      <c r="AD12" s="94" t="n">
+      <c r="AE12" s="94" t="n">
         <v>-11.54</v>
-      </c>
-      <c r="AE12" s="94" t="n">
-        <v>-16.84</v>
       </c>
     </row>
     <row r="13">
@@ -7754,25 +7754,25 @@
         </is>
       </c>
       <c r="B13" s="94" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="C13" s="94" t="n">
         <v>85.88</v>
-      </c>
-      <c r="C13" s="94" t="n">
-        <v>68.02</v>
       </c>
       <c r="D13" s="94" t="n">
         <v>68.02</v>
       </c>
       <c r="E13" s="94" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="F13" s="94" t="n">
         <v>94.7</v>
       </c>
-      <c r="F13" s="94" t="n">
+      <c r="G13" s="94" t="n">
         <v>89.67</v>
       </c>
-      <c r="G13" s="94" t="n">
+      <c r="H13" s="94" t="n">
         <v>87.18000000000001</v>
-      </c>
-      <c r="H13" s="94" t="n">
-        <v>67.06</v>
       </c>
       <c r="I13" s="94" t="n">
         <v>67.06</v>
@@ -7787,61 +7787,61 @@
         <v>67.06</v>
       </c>
       <c r="M13" s="94" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="N13" s="94" t="n">
         <v>41.37</v>
       </c>
-      <c r="N13" s="94" t="n">
+      <c r="O13" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="O13" s="94" t="n">
-        <v>64.22</v>
       </c>
       <c r="P13" s="94" t="n">
         <v>64.22</v>
       </c>
       <c r="Q13" s="94" t="n">
+        <v>64.22</v>
+      </c>
+      <c r="R13" s="94" t="n">
         <v>52.12</v>
       </c>
-      <c r="R13" s="94" t="n">
+      <c r="S13" s="94" t="n">
         <v>70.87</v>
       </c>
-      <c r="S13" s="94" t="n">
+      <c r="T13" s="94" t="n">
         <v>53.47</v>
       </c>
-      <c r="T13" s="94" t="n">
+      <c r="U13" s="94" t="n">
         <v>76.97</v>
-      </c>
-      <c r="U13" s="94" t="n">
-        <v>47.71</v>
       </c>
       <c r="V13" s="94" t="n">
         <v>47.71</v>
       </c>
       <c r="W13" s="94" t="n">
+        <v>47.71</v>
+      </c>
+      <c r="X13" s="94" t="n">
         <v>38.86</v>
       </c>
-      <c r="X13" s="94" t="n">
+      <c r="Y13" s="94" t="n">
         <v>36.55</v>
       </c>
-      <c r="Y13" s="94" t="n">
+      <c r="Z13" s="94" t="n">
         <v>56.28</v>
       </c>
-      <c r="Z13" s="94" t="n">
+      <c r="AA13" s="94" t="n">
         <v>58.55</v>
-      </c>
-      <c r="AA13" s="94" t="n">
-        <v>55.42</v>
       </c>
       <c r="AB13" s="94" t="n">
         <v>55.42</v>
       </c>
       <c r="AC13" s="94" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="AD13" s="94" t="n">
         <v>44.39</v>
       </c>
-      <c r="AD13" s="94" t="n">
+      <c r="AE13" s="94" t="n">
         <v>23.88</v>
-      </c>
-      <c r="AE13" s="94" t="n">
-        <v>14.93</v>
       </c>
     </row>
     <row r="14">
@@ -7850,149 +7850,149 @@
           <t>hk50:EIDE</t>
         </is>
       </c>
-      <c r="B14" s="91" t="inlineStr">
+      <c r="B14" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="C14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="C14" s="92" t="inlineStr">
+      <c r="D14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D14" s="92" t="inlineStr">
+      <c r="E14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E14" s="91" t="inlineStr">
+      <c r="F14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F14" s="91" t="inlineStr">
+      <c r="G14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G14" s="91" t="inlineStr">
+      <c r="H14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="H14" s="91" t="inlineStr">
+      <c r="I14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I14" s="91" t="inlineStr">
+      <c r="J14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J14" s="91" t="inlineStr">
+      <c r="K14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K14" s="91" t="inlineStr">
+      <c r="L14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L14" s="91" t="inlineStr">
+      <c r="M14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M14" s="91" t="inlineStr">
+      <c r="N14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N14" s="91" t="inlineStr">
+      <c r="O14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O14" s="91" t="inlineStr">
+      <c r="P14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P14" s="91" t="inlineStr">
+      <c r="Q14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q14" s="91" t="inlineStr">
+      <c r="R14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R14" s="91" t="inlineStr">
+      <c r="S14" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S14" s="92" t="inlineStr">
+      <c r="T14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T14" s="92" t="inlineStr">
+      <c r="U14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U14" s="92" t="inlineStr">
+      <c r="V14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V14" s="92" t="inlineStr">
+      <c r="W14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W14" s="92" t="inlineStr">
+      <c r="X14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X14" s="92" t="inlineStr">
+      <c r="Y14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y14" s="92" t="inlineStr">
+      <c r="Z14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z14" s="92" t="inlineStr">
+      <c r="AA14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA14" s="92" t="inlineStr">
+      <c r="AB14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB14" s="92" t="inlineStr">
+      <c r="AC14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC14" s="92" t="inlineStr">
+      <c r="AD14" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD14" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE14" s="93" t="inlineStr">
@@ -8008,25 +8008,25 @@
         </is>
       </c>
       <c r="B15" s="94" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="C15" s="94" t="n">
         <v>9.42</v>
-      </c>
-      <c r="C15" s="94" t="n">
-        <v>8.210000000000001</v>
       </c>
       <c r="D15" s="94" t="n">
         <v>8.210000000000001</v>
       </c>
       <c r="E15" s="94" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="F15" s="94" t="n">
         <v>9.02</v>
       </c>
-      <c r="F15" s="94" t="n">
+      <c r="G15" s="94" t="n">
         <v>10.17</v>
       </c>
-      <c r="G15" s="94" t="n">
+      <c r="H15" s="94" t="n">
         <v>9.01</v>
-      </c>
-      <c r="H15" s="94" t="n">
-        <v>11.31</v>
       </c>
       <c r="I15" s="94" t="n">
         <v>11.31</v>
@@ -8035,34 +8035,34 @@
         <v>11.31</v>
       </c>
       <c r="K15" s="94" t="n">
-        <v>9.369999999999999</v>
+        <v>11.31</v>
       </c>
       <c r="L15" s="94" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="M15" s="94" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="N15" s="94" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="N15" s="94" t="n">
+      <c r="O15" s="94" t="n">
         <v>9.5</v>
-      </c>
-      <c r="O15" s="94" t="n">
-        <v>11.57</v>
       </c>
       <c r="P15" s="94" t="n">
         <v>11.57</v>
       </c>
       <c r="Q15" s="94" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="R15" s="94" t="n">
         <v>10.77</v>
       </c>
-      <c r="R15" s="94" t="n">
+      <c r="S15" s="94" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="S15" s="94" t="n">
+      <c r="T15" s="94" t="n">
         <v>8.210000000000001</v>
-      </c>
-      <c r="T15" s="94" t="n">
-        <v>9.25</v>
       </c>
       <c r="U15" s="94" t="n">
         <v>9.25</v>
@@ -8074,28 +8074,28 @@
         <v>9.25</v>
       </c>
       <c r="X15" s="94" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y15" s="94" t="n">
         <v>7.86</v>
       </c>
-      <c r="Y15" s="94" t="n">
+      <c r="Z15" s="94" t="n">
         <v>11.3</v>
       </c>
-      <c r="Z15" s="94" t="n">
+      <c r="AA15" s="94" t="n">
         <v>11.43</v>
-      </c>
-      <c r="AA15" s="94" t="n">
-        <v>10.81</v>
       </c>
       <c r="AB15" s="94" t="n">
         <v>10.81</v>
       </c>
       <c r="AC15" s="94" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="AD15" s="94" t="n">
         <v>8.48</v>
       </c>
-      <c r="AD15" s="94" t="n">
+      <c r="AE15" s="94" t="n">
         <v>5.32</v>
-      </c>
-      <c r="AE15" s="94" t="n">
-        <v>4.4</v>
       </c>
     </row>
     <row r="16">
@@ -8105,25 +8105,25 @@
         </is>
       </c>
       <c r="B16" s="94" t="n">
+        <v>13.29</v>
+      </c>
+      <c r="C16" s="94" t="n">
         <v>13.61</v>
-      </c>
-      <c r="C16" s="94" t="n">
-        <v>9.140000000000001</v>
       </c>
       <c r="D16" s="94" t="n">
         <v>9.140000000000001</v>
       </c>
       <c r="E16" s="94" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="F16" s="94" t="n">
         <v>10.89</v>
       </c>
-      <c r="F16" s="94" t="n">
+      <c r="G16" s="94" t="n">
         <v>8.02</v>
       </c>
-      <c r="G16" s="94" t="n">
+      <c r="H16" s="94" t="n">
         <v>10.19</v>
-      </c>
-      <c r="H16" s="94" t="n">
-        <v>9.74</v>
       </c>
       <c r="I16" s="94" t="n">
         <v>9.74</v>
@@ -8132,34 +8132,34 @@
         <v>9.74</v>
       </c>
       <c r="K16" s="94" t="n">
-        <v>8.869999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="L16" s="94" t="n">
         <v>8.869999999999999</v>
       </c>
       <c r="M16" s="94" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="N16" s="94" t="n">
         <v>7.99</v>
       </c>
-      <c r="N16" s="94" t="n">
+      <c r="O16" s="94" t="n">
         <v>6.14</v>
-      </c>
-      <c r="O16" s="94" t="n">
-        <v>6.71</v>
       </c>
       <c r="P16" s="94" t="n">
         <v>6.71</v>
       </c>
       <c r="Q16" s="94" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="R16" s="94" t="n">
         <v>6.41</v>
       </c>
-      <c r="R16" s="94" t="n">
+      <c r="S16" s="94" t="n">
         <v>7.73</v>
       </c>
-      <c r="S16" s="94" t="n">
+      <c r="T16" s="94" t="n">
         <v>3.86</v>
-      </c>
-      <c r="T16" s="94" t="n">
-        <v>4.37</v>
       </c>
       <c r="U16" s="94" t="n">
         <v>4.37</v>
@@ -8171,56 +8171,56 @@
         <v>4.37</v>
       </c>
       <c r="X16" s="94" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Y16" s="94" t="n">
         <v>2.83</v>
       </c>
-      <c r="Y16" s="94" t="n">
+      <c r="Z16" s="94" t="n">
         <v>3.18</v>
       </c>
-      <c r="Z16" s="94" t="n">
+      <c r="AA16" s="94" t="n">
         <v>6.67</v>
-      </c>
-      <c r="AA16" s="94" t="n">
-        <v>3.09</v>
       </c>
       <c r="AB16" s="94" t="n">
         <v>3.09</v>
       </c>
       <c r="AC16" s="94" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AD16" s="94" t="n">
         <v>1.79</v>
       </c>
-      <c r="AD16" s="94" t="n">
+      <c r="AE16" s="94" t="n">
         <v>-3.93</v>
       </c>
-      <c r="AE16" s="94" t="n">
-        <v>-5.29</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" s="95" t="inlineStr">
+      <c r="A17" s="76" t="inlineStr">
         <is>
           <t>hk50:RS4</t>
         </is>
       </c>
       <c r="B17" s="94" t="n">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="C17" s="94" t="n">
         <v>97.56</v>
-      </c>
-      <c r="C17" s="94" t="n">
-        <v>93.08</v>
       </c>
       <c r="D17" s="94" t="n">
         <v>93.08</v>
       </c>
       <c r="E17" s="94" t="n">
+        <v>93.08</v>
+      </c>
+      <c r="F17" s="94" t="n">
         <v>91.51000000000001</v>
       </c>
-      <c r="F17" s="94" t="n">
+      <c r="G17" s="94" t="n">
         <v>89.94</v>
       </c>
-      <c r="G17" s="94" t="n">
+      <c r="H17" s="94" t="n">
         <v>89.43000000000001</v>
-      </c>
-      <c r="H17" s="94" t="n">
-        <v>86.7</v>
       </c>
       <c r="I17" s="94" t="n">
         <v>86.7</v>
@@ -8229,34 +8229,34 @@
         <v>86.7</v>
       </c>
       <c r="K17" s="94" t="n">
-        <v>74.8</v>
+        <v>86.7</v>
       </c>
       <c r="L17" s="94" t="n">
         <v>74.8</v>
       </c>
       <c r="M17" s="94" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="N17" s="94" t="n">
         <v>68.73999999999999</v>
       </c>
-      <c r="N17" s="94" t="n">
+      <c r="O17" s="94" t="n">
         <v>66.8</v>
-      </c>
-      <c r="O17" s="94" t="n">
-        <v>67.56</v>
       </c>
       <c r="P17" s="94" t="n">
         <v>67.56</v>
       </c>
       <c r="Q17" s="94" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="R17" s="94" t="n">
         <v>65.14</v>
       </c>
-      <c r="R17" s="94" t="n">
+      <c r="S17" s="94" t="n">
         <v>74.75</v>
       </c>
-      <c r="S17" s="94" t="n">
+      <c r="T17" s="94" t="n">
         <v>61.35</v>
-      </c>
-      <c r="T17" s="94" t="n">
-        <v>55.56</v>
       </c>
       <c r="U17" s="94" t="n">
         <v>55.56</v>
@@ -8268,28 +8268,28 @@
         <v>55.56</v>
       </c>
       <c r="X17" s="94" t="n">
+        <v>55.56</v>
+      </c>
+      <c r="Y17" s="94" t="n">
         <v>42.49</v>
       </c>
-      <c r="Y17" s="94" t="n">
+      <c r="Z17" s="94" t="n">
         <v>57.97</v>
       </c>
-      <c r="Z17" s="94" t="n">
+      <c r="AA17" s="94" t="n">
         <v>56.55</v>
-      </c>
-      <c r="AA17" s="94" t="n">
-        <v>41.26</v>
       </c>
       <c r="AB17" s="94" t="n">
         <v>41.26</v>
       </c>
       <c r="AC17" s="94" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="AD17" s="94" t="n">
         <v>33.08</v>
       </c>
-      <c r="AD17" s="94" t="n">
+      <c r="AE17" s="94" t="n">
         <v>17.68</v>
-      </c>
-      <c r="AE17" s="94" t="n">
-        <v>12.74</v>
       </c>
     </row>
     <row r="18">
@@ -8303,149 +8303,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C18" s="92" t="inlineStr">
+      <c r="C18" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D18" s="92" t="inlineStr">
+      <c r="E18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E18" s="92" t="inlineStr">
+      <c r="F18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F18" s="92" t="inlineStr">
+      <c r="G18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G18" s="92" t="inlineStr">
+      <c r="H18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H18" s="92" t="inlineStr">
+      <c r="I18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I18" s="91" t="inlineStr">
+      <c r="J18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J18" s="91" t="inlineStr">
+      <c r="K18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K18" s="91" t="inlineStr">
+      <c r="L18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L18" s="91" t="inlineStr">
+      <c r="M18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M18" s="91" t="inlineStr">
+      <c r="N18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N18" s="91" t="inlineStr">
+      <c r="O18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O18" s="91" t="inlineStr">
+      <c r="P18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P18" s="91" t="inlineStr">
+      <c r="Q18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q18" s="91" t="inlineStr">
+      <c r="R18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R18" s="91" t="inlineStr">
+      <c r="S18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S18" s="92" t="inlineStr">
+      <c r="T18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T18" s="93" t="inlineStr">
+      <c r="U18" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U18" s="92" t="inlineStr">
+      <c r="V18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V18" s="92" t="inlineStr">
+      <c r="W18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W18" s="92" t="inlineStr">
+      <c r="X18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X18" s="93" t="inlineStr">
+      <c r="Y18" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y18" s="91" t="inlineStr">
+      <c r="Z18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Z18" s="91" t="inlineStr">
+      <c r="AA18" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA18" s="92" t="inlineStr">
+      <c r="AB18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB18" s="92" t="inlineStr">
+      <c r="AC18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC18" s="92" t="inlineStr">
+      <c r="AD18" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD18" s="91" t="inlineStr">
+      <c r="AE18" s="91" t="inlineStr">
         <is>
           <t>red</t>
-        </is>
-      </c>
-      <c r="AE18" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -8459,61 +8459,61 @@
         <v>-4.43</v>
       </c>
       <c r="C19" s="94" t="n">
-        <v>-6.48</v>
+        <v>-4.43</v>
       </c>
       <c r="D19" s="94" t="n">
         <v>-6.48</v>
       </c>
       <c r="E19" s="94" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="F19" s="94" t="n">
         <v>-6.67</v>
       </c>
-      <c r="F19" s="94" t="n">
+      <c r="G19" s="94" t="n">
         <v>-7.17</v>
       </c>
-      <c r="G19" s="94" t="n">
+      <c r="H19" s="94" t="n">
         <v>-6.95</v>
       </c>
-      <c r="H19" s="94" t="n">
+      <c r="I19" s="94" t="n">
         <v>-7.12</v>
-      </c>
-      <c r="I19" s="94" t="n">
-        <v>-6.18</v>
       </c>
       <c r="J19" s="94" t="n">
         <v>-6.18</v>
       </c>
       <c r="K19" s="94" t="n">
+        <v>-6.18</v>
+      </c>
+      <c r="L19" s="94" t="n">
         <v>-7.18</v>
       </c>
-      <c r="L19" s="94" t="n">
+      <c r="M19" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="M19" s="94" t="n">
+      <c r="N19" s="94" t="n">
         <v>-7.94</v>
       </c>
-      <c r="N19" s="94" t="n">
+      <c r="O19" s="94" t="n">
         <v>-8.93</v>
-      </c>
-      <c r="O19" s="94" t="n">
-        <v>-8.51</v>
       </c>
       <c r="P19" s="94" t="n">
         <v>-8.51</v>
       </c>
       <c r="Q19" s="94" t="n">
+        <v>-8.51</v>
+      </c>
+      <c r="R19" s="94" t="n">
         <v>-9.609999999999999</v>
       </c>
-      <c r="R19" s="94" t="n">
+      <c r="S19" s="94" t="n">
         <v>-10.59</v>
       </c>
-      <c r="S19" s="94" t="n">
+      <c r="T19" s="94" t="n">
         <v>-13.33</v>
       </c>
-      <c r="T19" s="94" t="n">
+      <c r="U19" s="94" t="n">
         <v>-15.7</v>
-      </c>
-      <c r="U19" s="94" t="n">
-        <v>-13.2</v>
       </c>
       <c r="V19" s="94" t="n">
         <v>-13.2</v>
@@ -8522,28 +8522,28 @@
         <v>-13.2</v>
       </c>
       <c r="X19" s="94" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="Y19" s="94" t="n">
         <v>-12.79</v>
       </c>
-      <c r="Y19" s="94" t="n">
+      <c r="Z19" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="Z19" s="94" t="n">
+      <c r="AA19" s="94" t="n">
         <v>-8.949999999999999</v>
-      </c>
-      <c r="AA19" s="94" t="n">
-        <v>-9.859999999999999</v>
       </c>
       <c r="AB19" s="94" t="n">
         <v>-9.859999999999999</v>
       </c>
       <c r="AC19" s="94" t="n">
+        <v>-9.859999999999999</v>
+      </c>
+      <c r="AD19" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="AD19" s="94" t="n">
+      <c r="AE19" s="94" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="AE19" s="94" t="n">
-        <v>-14.49</v>
       </c>
     </row>
     <row r="20">
@@ -8556,61 +8556,61 @@
         <v>-1.76</v>
       </c>
       <c r="C20" s="94" t="n">
-        <v>-5.44</v>
+        <v>-1.76</v>
       </c>
       <c r="D20" s="94" t="n">
         <v>-5.44</v>
       </c>
       <c r="E20" s="94" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="F20" s="94" t="n">
         <v>-5.35</v>
       </c>
-      <c r="F20" s="94" t="n">
+      <c r="G20" s="94" t="n">
         <v>-6.17</v>
       </c>
-      <c r="G20" s="94" t="n">
+      <c r="H20" s="94" t="n">
         <v>-6.48</v>
       </c>
-      <c r="H20" s="94" t="n">
+      <c r="I20" s="94" t="n">
         <v>-5.4</v>
-      </c>
-      <c r="I20" s="94" t="n">
-        <v>-4.09</v>
       </c>
       <c r="J20" s="94" t="n">
         <v>-4.09</v>
       </c>
       <c r="K20" s="94" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="L20" s="94" t="n">
         <v>-3.09</v>
       </c>
-      <c r="L20" s="94" t="n">
+      <c r="M20" s="94" t="n">
         <v>-2.51</v>
       </c>
-      <c r="M20" s="94" t="n">
+      <c r="N20" s="94" t="n">
         <v>-2.93</v>
       </c>
-      <c r="N20" s="94" t="n">
+      <c r="O20" s="94" t="n">
         <v>-3.1</v>
-      </c>
-      <c r="O20" s="94" t="n">
-        <v>-4.96</v>
       </c>
       <c r="P20" s="94" t="n">
         <v>-4.96</v>
       </c>
       <c r="Q20" s="94" t="n">
+        <v>-4.96</v>
+      </c>
+      <c r="R20" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="R20" s="94" t="n">
+      <c r="S20" s="94" t="n">
         <v>-7.69</v>
       </c>
-      <c r="S20" s="94" t="n">
+      <c r="T20" s="94" t="n">
         <v>-8.960000000000001</v>
       </c>
-      <c r="T20" s="94" t="n">
+      <c r="U20" s="94" t="n">
         <v>-11.22</v>
-      </c>
-      <c r="U20" s="94" t="n">
-        <v>-8.880000000000001</v>
       </c>
       <c r="V20" s="94" t="n">
         <v>-8.880000000000001</v>
@@ -8619,28 +8619,28 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="X20" s="94" t="n">
+        <v>-8.880000000000001</v>
+      </c>
+      <c r="Y20" s="94" t="n">
         <v>-9.84</v>
       </c>
-      <c r="Y20" s="94" t="n">
+      <c r="Z20" s="94" t="n">
         <v>-7.81</v>
       </c>
-      <c r="Z20" s="94" t="n">
+      <c r="AA20" s="94" t="n">
         <v>-7.82</v>
-      </c>
-      <c r="AA20" s="94" t="n">
-        <v>-8.18</v>
       </c>
       <c r="AB20" s="94" t="n">
         <v>-8.18</v>
       </c>
       <c r="AC20" s="94" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="AD20" s="94" t="n">
         <v>-9.83</v>
       </c>
-      <c r="AD20" s="94" t="n">
+      <c r="AE20" s="94" t="n">
         <v>-6.16</v>
-      </c>
-      <c r="AE20" s="94" t="n">
-        <v>-14.97</v>
       </c>
     </row>
     <row r="21">
@@ -8653,61 +8653,61 @@
         <v>97.11</v>
       </c>
       <c r="C21" s="94" t="n">
-        <v>68.79000000000001</v>
+        <v>97.11</v>
       </c>
       <c r="D21" s="94" t="n">
         <v>68.79000000000001</v>
       </c>
       <c r="E21" s="94" t="n">
+        <v>68.79000000000001</v>
+      </c>
+      <c r="F21" s="94" t="n">
         <v>77.04000000000001</v>
       </c>
-      <c r="F21" s="94" t="n">
+      <c r="G21" s="94" t="n">
         <v>55.32</v>
       </c>
-      <c r="G21" s="94" t="n">
+      <c r="H21" s="94" t="n">
         <v>30.94</v>
       </c>
-      <c r="H21" s="94" t="n">
+      <c r="I21" s="94" t="n">
         <v>60.26</v>
-      </c>
-      <c r="I21" s="94" t="n">
-        <v>99.72</v>
       </c>
       <c r="J21" s="94" t="n">
         <v>99.72</v>
       </c>
       <c r="K21" s="94" t="n">
+        <v>99.72</v>
+      </c>
+      <c r="L21" s="94" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="L21" s="94" t="n">
+      <c r="M21" s="94" t="n">
         <v>97.11</v>
       </c>
-      <c r="M21" s="94" t="n">
+      <c r="N21" s="94" t="n">
         <v>96.43000000000001</v>
       </c>
-      <c r="N21" s="94" t="n">
+      <c r="O21" s="94" t="n">
         <v>93.39</v>
-      </c>
-      <c r="O21" s="94" t="n">
-        <v>93.06999999999999</v>
       </c>
       <c r="P21" s="94" t="n">
         <v>93.06999999999999</v>
       </c>
       <c r="Q21" s="94" t="n">
+        <v>93.06999999999999</v>
+      </c>
+      <c r="R21" s="94" t="n">
         <v>90.36</v>
       </c>
-      <c r="R21" s="94" t="n">
+      <c r="S21" s="94" t="n">
         <v>79.64</v>
       </c>
-      <c r="S21" s="94" t="n">
+      <c r="T21" s="94" t="n">
         <v>63.01</v>
       </c>
-      <c r="T21" s="94" t="n">
+      <c r="U21" s="94" t="n">
         <v>7.46</v>
-      </c>
-      <c r="U21" s="94" t="n">
-        <v>26.79</v>
       </c>
       <c r="V21" s="94" t="n">
         <v>26.79</v>
@@ -8716,28 +8716,28 @@
         <v>26.79</v>
       </c>
       <c r="X21" s="94" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="Y21" s="94" t="n">
         <v>21.03</v>
       </c>
-      <c r="Y21" s="94" t="n">
+      <c r="Z21" s="94" t="n">
         <v>65.61</v>
       </c>
-      <c r="Z21" s="94" t="n">
+      <c r="AA21" s="94" t="n">
         <v>71.45999999999999</v>
-      </c>
-      <c r="AA21" s="94" t="n">
-        <v>64.18000000000001</v>
       </c>
       <c r="AB21" s="94" t="n">
         <v>64.18000000000001</v>
       </c>
       <c r="AC21" s="94" t="n">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="AD21" s="94" t="n">
         <v>49.87</v>
       </c>
-      <c r="AD21" s="94" t="n">
+      <c r="AE21" s="94" t="n">
         <v>82.54000000000001</v>
-      </c>
-      <c r="AE21" s="94" t="n">
-        <v>1.75</v>
       </c>
     </row>
     <row r="22">
@@ -8751,149 +8751,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C22" s="92" t="inlineStr">
+      <c r="C22" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D22" s="92" t="inlineStr">
+      <c r="E22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E22" s="92" t="inlineStr">
+      <c r="F22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F22" s="92" t="inlineStr">
+      <c r="G22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G22" s="92" t="inlineStr">
+      <c r="H22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H22" s="91" t="inlineStr">
+      <c r="I22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I22" s="91" t="inlineStr">
+      <c r="J22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J22" s="91" t="inlineStr">
+      <c r="K22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K22" s="91" t="inlineStr">
+      <c r="L22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L22" s="91" t="inlineStr">
+      <c r="M22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M22" s="91" t="inlineStr">
+      <c r="N22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N22" s="91" t="inlineStr">
+      <c r="O22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O22" s="91" t="inlineStr">
+      <c r="P22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P22" s="91" t="inlineStr">
+      <c r="Q22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q22" s="91" t="inlineStr">
+      <c r="R22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R22" s="92" t="inlineStr">
+      <c r="S22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S22" s="92" t="inlineStr">
+      <c r="T22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T22" s="93" t="inlineStr">
+      <c r="U22" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U22" s="93" t="inlineStr">
+      <c r="V22" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V22" s="93" t="inlineStr">
+      <c r="W22" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W22" s="93" t="inlineStr">
+      <c r="X22" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X22" s="93" t="inlineStr">
+      <c r="Y22" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y22" s="91" t="inlineStr">
+      <c r="Z22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Z22" s="91" t="inlineStr">
+      <c r="AA22" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA22" s="92" t="inlineStr">
+      <c r="AB22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB22" s="92" t="inlineStr">
+      <c r="AC22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC22" s="92" t="inlineStr">
+      <c r="AD22" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD22" s="91" t="inlineStr">
+      <c r="AE22" s="91" t="inlineStr">
         <is>
           <t>red</t>
-        </is>
-      </c>
-      <c r="AE22" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -8907,61 +8907,61 @@
         <v>-5.15</v>
       </c>
       <c r="C23" s="94" t="n">
-        <v>-7.03</v>
+        <v>-5.15</v>
       </c>
       <c r="D23" s="94" t="n">
         <v>-7.03</v>
       </c>
       <c r="E23" s="94" t="n">
+        <v>-7.03</v>
+      </c>
+      <c r="F23" s="94" t="n">
         <v>-7.23</v>
       </c>
-      <c r="F23" s="94" t="n">
+      <c r="G23" s="94" t="n">
         <v>-7.55</v>
       </c>
-      <c r="G23" s="94" t="n">
+      <c r="H23" s="94" t="n">
         <v>-7.84</v>
       </c>
-      <c r="H23" s="94" t="n">
+      <c r="I23" s="94" t="n">
         <v>-7.89</v>
-      </c>
-      <c r="I23" s="94" t="n">
-        <v>-7.92</v>
       </c>
       <c r="J23" s="94" t="n">
         <v>-7.92</v>
       </c>
       <c r="K23" s="94" t="n">
+        <v>-7.92</v>
+      </c>
+      <c r="L23" s="94" t="n">
         <v>-8.539999999999999</v>
       </c>
-      <c r="L23" s="94" t="n">
+      <c r="M23" s="94" t="n">
         <v>-8.449999999999999</v>
       </c>
-      <c r="M23" s="94" t="n">
+      <c r="N23" s="94" t="n">
         <v>-9.02</v>
       </c>
-      <c r="N23" s="94" t="n">
+      <c r="O23" s="94" t="n">
         <v>-10.37</v>
-      </c>
-      <c r="O23" s="94" t="n">
-        <v>-10.29</v>
       </c>
       <c r="P23" s="94" t="n">
         <v>-10.29</v>
       </c>
       <c r="Q23" s="94" t="n">
+        <v>-10.29</v>
+      </c>
+      <c r="R23" s="94" t="n">
         <v>-10.61</v>
       </c>
-      <c r="R23" s="94" t="n">
+      <c r="S23" s="94" t="n">
         <v>-11.42</v>
       </c>
-      <c r="S23" s="94" t="n">
+      <c r="T23" s="94" t="n">
         <v>-11.79</v>
       </c>
-      <c r="T23" s="94" t="n">
+      <c r="U23" s="94" t="n">
         <v>-14.35</v>
-      </c>
-      <c r="U23" s="94" t="n">
-        <v>-11.36</v>
       </c>
       <c r="V23" s="94" t="n">
         <v>-11.36</v>
@@ -8970,28 +8970,28 @@
         <v>-11.36</v>
       </c>
       <c r="X23" s="94" t="n">
+        <v>-11.36</v>
+      </c>
+      <c r="Y23" s="94" t="n">
         <v>-9.9</v>
       </c>
-      <c r="Y23" s="94" t="n">
+      <c r="Z23" s="94" t="n">
         <v>-7.17</v>
       </c>
-      <c r="Z23" s="94" t="n">
+      <c r="AA23" s="94" t="n">
         <v>-6.09</v>
-      </c>
-      <c r="AA23" s="94" t="n">
-        <v>-6.96</v>
       </c>
       <c r="AB23" s="94" t="n">
         <v>-6.96</v>
       </c>
       <c r="AC23" s="94" t="n">
+        <v>-6.96</v>
+      </c>
+      <c r="AD23" s="94" t="n">
         <v>-6.88</v>
       </c>
-      <c r="AD23" s="94" t="n">
+      <c r="AE23" s="94" t="n">
         <v>-3.99</v>
-      </c>
-      <c r="AE23" s="94" t="n">
-        <v>-10.24</v>
       </c>
     </row>
     <row r="24">
@@ -9004,61 +9004,61 @@
         <v>-3.06</v>
       </c>
       <c r="C24" s="94" t="n">
-        <v>-6.16</v>
+        <v>-3.06</v>
       </c>
       <c r="D24" s="94" t="n">
         <v>-6.16</v>
       </c>
       <c r="E24" s="94" t="n">
+        <v>-6.16</v>
+      </c>
+      <c r="F24" s="94" t="n">
         <v>-5.79</v>
-      </c>
-      <c r="F24" s="94" t="n">
-        <v>-7.18</v>
       </c>
       <c r="G24" s="94" t="n">
         <v>-7.18</v>
       </c>
       <c r="H24" s="94" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="I24" s="94" t="n">
         <v>-5.74</v>
-      </c>
-      <c r="I24" s="94" t="n">
-        <v>-5.52</v>
       </c>
       <c r="J24" s="94" t="n">
         <v>-5.52</v>
       </c>
       <c r="K24" s="94" t="n">
+        <v>-5.52</v>
+      </c>
+      <c r="L24" s="94" t="n">
         <v>-3.48</v>
       </c>
-      <c r="L24" s="94" t="n">
+      <c r="M24" s="94" t="n">
         <v>-2.69</v>
       </c>
-      <c r="M24" s="94" t="n">
+      <c r="N24" s="94" t="n">
         <v>-3.63</v>
       </c>
-      <c r="N24" s="94" t="n">
+      <c r="O24" s="94" t="n">
         <v>-3.68</v>
-      </c>
-      <c r="O24" s="94" t="n">
-        <v>-4.81</v>
       </c>
       <c r="P24" s="94" t="n">
         <v>-4.81</v>
       </c>
       <c r="Q24" s="94" t="n">
+        <v>-4.81</v>
+      </c>
+      <c r="R24" s="94" t="n">
         <v>-5.07</v>
       </c>
-      <c r="R24" s="94" t="n">
+      <c r="S24" s="94" t="n">
         <v>-6.56</v>
       </c>
-      <c r="S24" s="94" t="n">
+      <c r="T24" s="94" t="n">
         <v>-6.95</v>
       </c>
-      <c r="T24" s="94" t="n">
+      <c r="U24" s="94" t="n">
         <v>-9.92</v>
-      </c>
-      <c r="U24" s="94" t="n">
-        <v>-7.93</v>
       </c>
       <c r="V24" s="94" t="n">
         <v>-7.93</v>
@@ -9067,28 +9067,28 @@
         <v>-7.93</v>
       </c>
       <c r="X24" s="94" t="n">
+        <v>-7.93</v>
+      </c>
+      <c r="Y24" s="94" t="n">
         <v>-7.58</v>
       </c>
-      <c r="Y24" s="94" t="n">
+      <c r="Z24" s="94" t="n">
         <v>-5.97</v>
       </c>
-      <c r="Z24" s="94" t="n">
+      <c r="AA24" s="94" t="n">
         <v>-6.36</v>
-      </c>
-      <c r="AA24" s="94" t="n">
-        <v>-7</v>
       </c>
       <c r="AB24" s="94" t="n">
         <v>-7</v>
       </c>
       <c r="AC24" s="94" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AD24" s="94" t="n">
         <v>-8.09</v>
       </c>
-      <c r="AD24" s="94" t="n">
+      <c r="AE24" s="94" t="n">
         <v>-4.99</v>
-      </c>
-      <c r="AE24" s="94" t="n">
-        <v>-12.58</v>
       </c>
     </row>
     <row r="25">
@@ -9101,61 +9101,61 @@
         <v>89.23</v>
       </c>
       <c r="C25" s="94" t="n">
-        <v>61.53</v>
+        <v>89.23</v>
       </c>
       <c r="D25" s="94" t="n">
         <v>61.53</v>
       </c>
       <c r="E25" s="94" t="n">
+        <v>61.53</v>
+      </c>
+      <c r="F25" s="94" t="n">
         <v>74.66</v>
       </c>
-      <c r="F25" s="94" t="n">
+      <c r="G25" s="94" t="n">
         <v>63.59</v>
       </c>
-      <c r="G25" s="94" t="n">
+      <c r="H25" s="94" t="n">
         <v>45.96</v>
       </c>
-      <c r="H25" s="94" t="n">
+      <c r="I25" s="94" t="n">
         <v>82.31999999999999</v>
-      </c>
-      <c r="I25" s="94" t="n">
-        <v>94.98999999999999</v>
       </c>
       <c r="J25" s="94" t="n">
         <v>94.98999999999999</v>
       </c>
       <c r="K25" s="94" t="n">
+        <v>94.98999999999999</v>
+      </c>
+      <c r="L25" s="94" t="n">
         <v>87.84999999999999</v>
       </c>
-      <c r="L25" s="94" t="n">
+      <c r="M25" s="94" t="n">
         <v>85.86</v>
       </c>
-      <c r="M25" s="94" t="n">
+      <c r="N25" s="94" t="n">
         <v>82.65000000000001</v>
       </c>
-      <c r="N25" s="94" t="n">
+      <c r="O25" s="94" t="n">
         <v>74.47</v>
-      </c>
-      <c r="O25" s="94" t="n">
-        <v>71.01000000000001</v>
       </c>
       <c r="P25" s="94" t="n">
         <v>71.01000000000001</v>
       </c>
       <c r="Q25" s="94" t="n">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="R25" s="94" t="n">
         <v>70.54000000000001</v>
       </c>
-      <c r="R25" s="94" t="n">
+      <c r="S25" s="94" t="n">
         <v>60.11</v>
       </c>
-      <c r="S25" s="94" t="n">
+      <c r="T25" s="94" t="n">
         <v>49.92</v>
       </c>
-      <c r="T25" s="94" t="n">
+      <c r="U25" s="94" t="n">
         <v>14.75</v>
-      </c>
-      <c r="U25" s="94" t="n">
-        <v>26.69</v>
       </c>
       <c r="V25" s="94" t="n">
         <v>26.69</v>
@@ -9164,28 +9164,28 @@
         <v>26.69</v>
       </c>
       <c r="X25" s="94" t="n">
+        <v>26.69</v>
+      </c>
+      <c r="Y25" s="94" t="n">
         <v>37.75</v>
       </c>
-      <c r="Y25" s="94" t="n">
+      <c r="Z25" s="94" t="n">
         <v>59.6</v>
       </c>
-      <c r="Z25" s="94" t="n">
+      <c r="AA25" s="94" t="n">
         <v>65.2</v>
-      </c>
-      <c r="AA25" s="94" t="n">
-        <v>60.21</v>
       </c>
       <c r="AB25" s="94" t="n">
         <v>60.21</v>
       </c>
       <c r="AC25" s="94" t="n">
+        <v>60.21</v>
+      </c>
+      <c r="AD25" s="94" t="n">
         <v>50.88</v>
       </c>
-      <c r="AD25" s="94" t="n">
+      <c r="AE25" s="94" t="n">
         <v>68.40000000000001</v>
-      </c>
-      <c r="AE25" s="94" t="n">
-        <v>4.25</v>
       </c>
     </row>
     <row r="26">
@@ -9199,149 +9199,149 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C26" s="92" t="inlineStr">
+      <c r="C26" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D26" s="92" t="inlineStr">
+      <c r="E26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E26" s="92" t="inlineStr">
+      <c r="F26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F26" s="92" t="inlineStr">
+      <c r="G26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G26" s="92" t="inlineStr">
+      <c r="H26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H26" s="92" t="inlineStr">
+      <c r="I26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I26" s="91" t="inlineStr">
+      <c r="J26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J26" s="91" t="inlineStr">
+      <c r="K26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K26" s="91" t="inlineStr">
+      <c r="L26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L26" s="91" t="inlineStr">
+      <c r="M26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M26" s="91" t="inlineStr">
+      <c r="N26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N26" s="91" t="inlineStr">
+      <c r="O26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O26" s="91" t="inlineStr">
+      <c r="P26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P26" s="91" t="inlineStr">
+      <c r="Q26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q26" s="91" t="inlineStr">
+      <c r="R26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R26" s="91" t="inlineStr">
+      <c r="S26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S26" s="92" t="inlineStr">
+      <c r="T26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T26" s="93" t="inlineStr">
+      <c r="U26" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="U26" s="93" t="inlineStr">
+      <c r="V26" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="V26" s="93" t="inlineStr">
+      <c r="W26" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="W26" s="93" t="inlineStr">
+      <c r="X26" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X26" s="93" t="inlineStr">
+      <c r="Y26" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y26" s="91" t="inlineStr">
+      <c r="Z26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Z26" s="91" t="inlineStr">
+      <c r="AA26" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA26" s="92" t="inlineStr">
+      <c r="AB26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB26" s="92" t="inlineStr">
+      <c r="AC26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC26" s="92" t="inlineStr">
+      <c r="AD26" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD26" s="91" t="inlineStr">
+      <c r="AE26" s="91" t="inlineStr">
         <is>
           <t>red</t>
-        </is>
-      </c>
-      <c r="AE26" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
     </row>
@@ -9355,61 +9355,61 @@
         <v>-6.2</v>
       </c>
       <c r="C27" s="94" t="n">
-        <v>-8.76</v>
+        <v>-6.2</v>
       </c>
       <c r="D27" s="94" t="n">
         <v>-8.76</v>
       </c>
       <c r="E27" s="94" t="n">
+        <v>-8.76</v>
+      </c>
+      <c r="F27" s="94" t="n">
         <v>-8.73</v>
       </c>
-      <c r="F27" s="94" t="n">
+      <c r="G27" s="94" t="n">
         <v>-10.02</v>
       </c>
-      <c r="G27" s="94" t="n">
+      <c r="H27" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
-      <c r="H27" s="94" t="n">
+      <c r="I27" s="94" t="n">
         <v>-9.84</v>
-      </c>
-      <c r="I27" s="94" t="n">
-        <v>-8.710000000000001</v>
       </c>
       <c r="J27" s="94" t="n">
         <v>-8.710000000000001</v>
       </c>
       <c r="K27" s="94" t="n">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="L27" s="94" t="n">
         <v>-9.890000000000001</v>
       </c>
-      <c r="L27" s="94" t="n">
+      <c r="M27" s="94" t="n">
         <v>-10.03</v>
       </c>
-      <c r="M27" s="94" t="n">
+      <c r="N27" s="94" t="n">
         <v>-11.04</v>
       </c>
-      <c r="N27" s="94" t="n">
+      <c r="O27" s="94" t="n">
         <v>-11.77</v>
-      </c>
-      <c r="O27" s="94" t="n">
-        <v>-11.46</v>
       </c>
       <c r="P27" s="94" t="n">
         <v>-11.46</v>
       </c>
       <c r="Q27" s="94" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="R27" s="94" t="n">
         <v>-13.01</v>
       </c>
-      <c r="R27" s="94" t="n">
+      <c r="S27" s="94" t="n">
         <v>-13.62</v>
       </c>
-      <c r="S27" s="94" t="n">
+      <c r="T27" s="94" t="n">
         <v>-18.31</v>
       </c>
-      <c r="T27" s="94" t="n">
+      <c r="U27" s="94" t="n">
         <v>-20.86</v>
-      </c>
-      <c r="U27" s="94" t="n">
-        <v>-18.61</v>
       </c>
       <c r="V27" s="94" t="n">
         <v>-18.61</v>
@@ -9418,28 +9418,28 @@
         <v>-18.61</v>
       </c>
       <c r="X27" s="94" t="n">
+        <v>-18.61</v>
+      </c>
+      <c r="Y27" s="94" t="n">
         <v>-17.46</v>
       </c>
-      <c r="Y27" s="94" t="n">
+      <c r="Z27" s="94" t="n">
         <v>-14.3</v>
       </c>
-      <c r="Z27" s="94" t="n">
+      <c r="AA27" s="94" t="n">
         <v>-12.96</v>
-      </c>
-      <c r="AA27" s="94" t="n">
-        <v>-14.28</v>
       </c>
       <c r="AB27" s="94" t="n">
         <v>-14.28</v>
       </c>
       <c r="AC27" s="94" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="AD27" s="94" t="n">
         <v>-13.95</v>
       </c>
-      <c r="AD27" s="94" t="n">
+      <c r="AE27" s="94" t="n">
         <v>-10.28</v>
-      </c>
-      <c r="AE27" s="94" t="n">
-        <v>-20.32</v>
       </c>
     </row>
     <row r="28">
@@ -9452,61 +9452,61 @@
         <v>-2.09</v>
       </c>
       <c r="C28" s="94" t="n">
-        <v>-6.77</v>
+        <v>-2.09</v>
       </c>
       <c r="D28" s="94" t="n">
         <v>-6.77</v>
       </c>
       <c r="E28" s="94" t="n">
+        <v>-6.77</v>
+      </c>
+      <c r="F28" s="94" t="n">
         <v>-7.02</v>
       </c>
-      <c r="F28" s="94" t="n">
+      <c r="G28" s="94" t="n">
         <v>-8.09</v>
       </c>
-      <c r="G28" s="94" t="n">
+      <c r="H28" s="94" t="n">
         <v>-8.279999999999999</v>
       </c>
-      <c r="H28" s="94" t="n">
+      <c r="I28" s="94" t="n">
         <v>-7.4</v>
-      </c>
-      <c r="I28" s="94" t="n">
-        <v>-5.3</v>
       </c>
       <c r="J28" s="94" t="n">
         <v>-5.3</v>
       </c>
       <c r="K28" s="94" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="L28" s="94" t="n">
         <v>-3.95</v>
       </c>
-      <c r="L28" s="94" t="n">
+      <c r="M28" s="94" t="n">
         <v>-4.04</v>
       </c>
-      <c r="M28" s="94" t="n">
+      <c r="N28" s="94" t="n">
         <v>-4.27</v>
       </c>
-      <c r="N28" s="94" t="n">
+      <c r="O28" s="94" t="n">
         <v>-4.03</v>
-      </c>
-      <c r="O28" s="94" t="n">
-        <v>-6.58</v>
       </c>
       <c r="P28" s="94" t="n">
         <v>-6.58</v>
       </c>
       <c r="Q28" s="94" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="R28" s="94" t="n">
         <v>-8.27</v>
       </c>
-      <c r="R28" s="94" t="n">
+      <c r="S28" s="94" t="n">
         <v>-10.01</v>
       </c>
-      <c r="S28" s="94" t="n">
+      <c r="T28" s="94" t="n">
         <v>-11.98</v>
       </c>
-      <c r="T28" s="94" t="n">
+      <c r="U28" s="94" t="n">
         <v>-13.82</v>
-      </c>
-      <c r="U28" s="94" t="n">
-        <v>-10.89</v>
       </c>
       <c r="V28" s="94" t="n">
         <v>-10.89</v>
@@ -9515,28 +9515,28 @@
         <v>-10.89</v>
       </c>
       <c r="X28" s="94" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="Y28" s="94" t="n">
         <v>-12.2</v>
       </c>
-      <c r="Y28" s="94" t="n">
+      <c r="Z28" s="94" t="n">
         <v>-9.26</v>
       </c>
-      <c r="Z28" s="94" t="n">
+      <c r="AA28" s="94" t="n">
         <v>-8.970000000000001</v>
-      </c>
-      <c r="AA28" s="94" t="n">
-        <v>-8.98</v>
       </c>
       <c r="AB28" s="94" t="n">
         <v>-8.98</v>
       </c>
       <c r="AC28" s="94" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="AD28" s="94" t="n">
         <v>-10.78</v>
       </c>
-      <c r="AD28" s="94" t="n">
+      <c r="AE28" s="94" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="AE28" s="94" t="n">
-        <v>-17.48</v>
       </c>
     </row>
     <row r="29">
@@ -9549,61 +9549,61 @@
         <v>98.37</v>
       </c>
       <c r="C29" s="94" t="n">
-        <v>81.33</v>
+        <v>98.37</v>
       </c>
       <c r="D29" s="94" t="n">
         <v>81.33</v>
       </c>
       <c r="E29" s="94" t="n">
+        <v>81.33</v>
+      </c>
+      <c r="F29" s="94" t="n">
         <v>81.23</v>
       </c>
-      <c r="F29" s="94" t="n">
+      <c r="G29" s="94" t="n">
         <v>47.86</v>
       </c>
-      <c r="G29" s="94" t="n">
+      <c r="H29" s="94" t="n">
         <v>32.54</v>
       </c>
-      <c r="H29" s="94" t="n">
+      <c r="I29" s="94" t="n">
         <v>61.17</v>
-      </c>
-      <c r="I29" s="94" t="n">
-        <v>98.64</v>
       </c>
       <c r="J29" s="94" t="n">
         <v>98.64</v>
       </c>
       <c r="K29" s="94" t="n">
+        <v>98.64</v>
+      </c>
+      <c r="L29" s="94" t="n">
         <v>96.5</v>
       </c>
-      <c r="L29" s="94" t="n">
+      <c r="M29" s="94" t="n">
         <v>83.88</v>
       </c>
-      <c r="M29" s="94" t="n">
+      <c r="N29" s="94" t="n">
         <v>93.43000000000001</v>
       </c>
-      <c r="N29" s="94" t="n">
+      <c r="O29" s="94" t="n">
         <v>89.7</v>
-      </c>
-      <c r="O29" s="94" t="n">
-        <v>94.42</v>
       </c>
       <c r="P29" s="94" t="n">
         <v>94.42</v>
       </c>
       <c r="Q29" s="94" t="n">
+        <v>94.42</v>
+      </c>
+      <c r="R29" s="94" t="n">
         <v>91.56</v>
       </c>
-      <c r="R29" s="94" t="n">
+      <c r="S29" s="94" t="n">
         <v>81.56</v>
       </c>
-      <c r="S29" s="94" t="n">
+      <c r="T29" s="94" t="n">
         <v>60.97</v>
       </c>
-      <c r="T29" s="94" t="n">
+      <c r="U29" s="94" t="n">
         <v>5.28</v>
-      </c>
-      <c r="U29" s="94" t="n">
-        <v>17.06</v>
       </c>
       <c r="V29" s="94" t="n">
         <v>17.06</v>
@@ -9612,28 +9612,28 @@
         <v>17.06</v>
       </c>
       <c r="X29" s="94" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="Y29" s="94" t="n">
         <v>18.06</v>
       </c>
-      <c r="Y29" s="94" t="n">
+      <c r="Z29" s="94" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="Z29" s="94" t="n">
+      <c r="AA29" s="94" t="n">
         <v>68.98</v>
-      </c>
-      <c r="AA29" s="94" t="n">
-        <v>63.72</v>
       </c>
       <c r="AB29" s="94" t="n">
         <v>63.72</v>
       </c>
       <c r="AC29" s="94" t="n">
+        <v>63.72</v>
+      </c>
+      <c r="AD29" s="94" t="n">
         <v>50.49</v>
       </c>
-      <c r="AD29" s="94" t="n">
+      <c r="AE29" s="94" t="n">
         <v>83.98</v>
-      </c>
-      <c r="AE29" s="94" t="n">
-        <v>3.02</v>
       </c>
     </row>
     <row r="30">
@@ -9642,154 +9642,154 @@
           <t>jp225:EIDE</t>
         </is>
       </c>
-      <c r="B30" s="92" t="inlineStr">
+      <c r="B30" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="C30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="C30" s="91" t="inlineStr">
+      <c r="D30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="D30" s="91" t="inlineStr">
+      <c r="E30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="E30" s="92" t="inlineStr">
+      <c r="F30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F30" s="92" t="inlineStr">
+      <c r="G30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G30" s="92" t="inlineStr">
+      <c r="H30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H30" s="91" t="inlineStr">
+      <c r="I30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I30" s="91" t="inlineStr">
+      <c r="J30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J30" s="91" t="inlineStr">
+      <c r="K30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K30" s="91" t="inlineStr">
+      <c r="L30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L30" s="91" t="inlineStr">
+      <c r="M30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M30" s="91" t="inlineStr">
+      <c r="N30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N30" s="91" t="inlineStr">
+      <c r="O30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O30" s="91" t="inlineStr">
+      <c r="P30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P30" s="91" t="inlineStr">
+      <c r="Q30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q30" s="91" t="inlineStr">
+      <c r="R30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R30" s="91" t="inlineStr">
+      <c r="S30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S30" s="92" t="inlineStr">
+      <c r="T30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T30" s="92" t="inlineStr">
+      <c r="U30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U30" s="91" t="inlineStr">
+      <c r="V30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V30" s="91" t="inlineStr">
+      <c r="W30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W30" s="91" t="inlineStr">
+      <c r="X30" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="X30" s="92" t="inlineStr">
+      <c r="Y30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y30" s="92" t="inlineStr">
+      <c r="Z30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z30" s="92" t="inlineStr">
+      <c r="AA30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA30" s="92" t="inlineStr">
+      <c r="AB30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB30" s="92" t="inlineStr">
+      <c r="AC30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC30" s="92" t="inlineStr">
+      <c r="AD30" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AD30" s="93" t="inlineStr">
+      <c r="AE30" s="93" t="inlineStr">
         <is>
           <t>green</t>
-        </is>
-      </c>
-      <c r="AE30" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
         </is>
       </c>
     </row>
@@ -9800,25 +9800,25 @@
         </is>
       </c>
       <c r="B31" s="94" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="C31" s="94" t="n">
         <v>-4.61</v>
-      </c>
-      <c r="C31" s="94" t="n">
-        <v>-3.75</v>
       </c>
       <c r="D31" s="94" t="n">
         <v>-3.75</v>
       </c>
       <c r="E31" s="94" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="F31" s="94" t="n">
         <v>-5.46</v>
       </c>
-      <c r="F31" s="94" t="n">
+      <c r="G31" s="94" t="n">
         <v>-5.21</v>
       </c>
-      <c r="G31" s="94" t="n">
+      <c r="H31" s="94" t="n">
         <v>-4.74</v>
-      </c>
-      <c r="H31" s="94" t="n">
-        <v>-5.72</v>
       </c>
       <c r="I31" s="94" t="n">
         <v>-5.72</v>
@@ -9827,67 +9827,67 @@
         <v>-5.72</v>
       </c>
       <c r="K31" s="94" t="n">
+        <v>-5.72</v>
+      </c>
+      <c r="L31" s="94" t="n">
         <v>-6.13</v>
       </c>
-      <c r="L31" s="94" t="n">
+      <c r="M31" s="94" t="n">
         <v>-7.1</v>
       </c>
-      <c r="M31" s="94" t="n">
+      <c r="N31" s="94" t="n">
         <v>-6.73</v>
       </c>
-      <c r="N31" s="94" t="n">
+      <c r="O31" s="94" t="n">
         <v>-9.43</v>
-      </c>
-      <c r="O31" s="94" t="n">
-        <v>-9.640000000000001</v>
       </c>
       <c r="P31" s="94" t="n">
         <v>-9.640000000000001</v>
       </c>
       <c r="Q31" s="94" t="n">
+        <v>-9.640000000000001</v>
+      </c>
+      <c r="R31" s="94" t="n">
         <v>-11.1</v>
       </c>
-      <c r="R31" s="94" t="n">
+      <c r="S31" s="94" t="n">
         <v>-10.63</v>
       </c>
-      <c r="S31" s="94" t="n">
+      <c r="T31" s="94" t="n">
         <v>-13.51</v>
       </c>
-      <c r="T31" s="94" t="n">
+      <c r="U31" s="94" t="n">
         <v>-14.15</v>
-      </c>
-      <c r="U31" s="94" t="n">
-        <v>-13.08</v>
       </c>
       <c r="V31" s="94" t="n">
         <v>-13.08</v>
       </c>
       <c r="W31" s="94" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="X31" s="94" t="n">
         <v>-13.29</v>
       </c>
-      <c r="X31" s="94" t="n">
+      <c r="Y31" s="94" t="n">
         <v>-13.09</v>
       </c>
-      <c r="Y31" s="94" t="n">
+      <c r="Z31" s="94" t="n">
         <v>-11.91</v>
       </c>
-      <c r="Z31" s="94" t="n">
+      <c r="AA31" s="94" t="n">
         <v>-11.62</v>
-      </c>
-      <c r="AA31" s="94" t="n">
-        <v>-12.93</v>
       </c>
       <c r="AB31" s="94" t="n">
         <v>-12.93</v>
       </c>
       <c r="AC31" s="94" t="n">
+        <v>-12.93</v>
+      </c>
+      <c r="AD31" s="94" t="n">
         <v>-9.98</v>
       </c>
-      <c r="AD31" s="94" t="n">
+      <c r="AE31" s="94" t="n">
         <v>-17.57</v>
-      </c>
-      <c r="AE31" s="94" t="n">
-        <v>-15.76</v>
       </c>
     </row>
     <row r="32">
@@ -9897,25 +9897,25 @@
         </is>
       </c>
       <c r="B32" s="94" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="C32" s="94" t="n">
         <v>-2.31</v>
-      </c>
-      <c r="C32" s="94" t="n">
-        <v>-3.15</v>
       </c>
       <c r="D32" s="94" t="n">
         <v>-3.15</v>
       </c>
       <c r="E32" s="94" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="F32" s="94" t="n">
         <v>-6.22</v>
       </c>
-      <c r="F32" s="94" t="n">
+      <c r="G32" s="94" t="n">
         <v>-6.97</v>
       </c>
-      <c r="G32" s="94" t="n">
+      <c r="H32" s="94" t="n">
         <v>-6.46</v>
-      </c>
-      <c r="H32" s="94" t="n">
-        <v>-6.48</v>
       </c>
       <c r="I32" s="94" t="n">
         <v>-6.48</v>
@@ -9924,67 +9924,67 @@
         <v>-6.48</v>
       </c>
       <c r="K32" s="94" t="n">
+        <v>-6.48</v>
+      </c>
+      <c r="L32" s="94" t="n">
         <v>-7.67</v>
       </c>
-      <c r="L32" s="94" t="n">
+      <c r="M32" s="94" t="n">
         <v>-6.31</v>
       </c>
-      <c r="M32" s="94" t="n">
+      <c r="N32" s="94" t="n">
         <v>-5.59</v>
       </c>
-      <c r="N32" s="94" t="n">
+      <c r="O32" s="94" t="n">
         <v>-5.82</v>
-      </c>
-      <c r="O32" s="94" t="n">
-        <v>-8.640000000000001</v>
       </c>
       <c r="P32" s="94" t="n">
         <v>-8.640000000000001</v>
       </c>
       <c r="Q32" s="94" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="R32" s="94" t="n">
         <v>-10.79</v>
       </c>
-      <c r="R32" s="94" t="n">
+      <c r="S32" s="94" t="n">
         <v>-10.37</v>
       </c>
-      <c r="S32" s="94" t="n">
+      <c r="T32" s="94" t="n">
         <v>-11.36</v>
       </c>
-      <c r="T32" s="94" t="n">
+      <c r="U32" s="94" t="n">
         <v>-9.58</v>
-      </c>
-      <c r="U32" s="94" t="n">
-        <v>-8.949999999999999</v>
       </c>
       <c r="V32" s="94" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="W32" s="94" t="n">
+        <v>-8.949999999999999</v>
+      </c>
+      <c r="X32" s="94" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="X32" s="94" t="n">
+      <c r="Y32" s="94" t="n">
         <v>-11.69</v>
       </c>
-      <c r="Y32" s="94" t="n">
+      <c r="Z32" s="94" t="n">
         <v>-12.03</v>
       </c>
-      <c r="Z32" s="94" t="n">
+      <c r="AA32" s="94" t="n">
         <v>-12.82</v>
-      </c>
-      <c r="AA32" s="94" t="n">
-        <v>-13.69</v>
       </c>
       <c r="AB32" s="94" t="n">
         <v>-13.69</v>
       </c>
       <c r="AC32" s="94" t="n">
+        <v>-13.69</v>
+      </c>
+      <c r="AD32" s="94" t="n">
         <v>-11.67</v>
       </c>
-      <c r="AD32" s="94" t="n">
+      <c r="AE32" s="94" t="n">
         <v>-20.54</v>
-      </c>
-      <c r="AE32" s="94" t="n">
-        <v>-16.65</v>
       </c>
     </row>
     <row r="33">
@@ -9994,25 +9994,25 @@
         </is>
       </c>
       <c r="B33" s="94" t="n">
+        <v>79.31999999999999</v>
+      </c>
+      <c r="C33" s="94" t="n">
         <v>74.86</v>
-      </c>
-      <c r="C33" s="94" t="n">
-        <v>73.7</v>
       </c>
       <c r="D33" s="94" t="n">
         <v>73.7</v>
       </c>
       <c r="E33" s="94" t="n">
+        <v>73.7</v>
+      </c>
+      <c r="F33" s="94" t="n">
         <v>68.45999999999999</v>
       </c>
-      <c r="F33" s="94" t="n">
+      <c r="G33" s="94" t="n">
         <v>66.94</v>
       </c>
-      <c r="G33" s="94" t="n">
+      <c r="H33" s="94" t="n">
         <v>70.37</v>
-      </c>
-      <c r="H33" s="94" t="n">
-        <v>69.40000000000001</v>
       </c>
       <c r="I33" s="94" t="n">
         <v>69.40000000000001</v>
@@ -10021,67 +10021,67 @@
         <v>69.40000000000001</v>
       </c>
       <c r="K33" s="94" t="n">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="L33" s="94" t="n">
         <v>66.23999999999999</v>
       </c>
-      <c r="L33" s="94" t="n">
+      <c r="M33" s="94" t="n">
         <v>62.56</v>
       </c>
-      <c r="M33" s="94" t="n">
+      <c r="N33" s="94" t="n">
         <v>61.46</v>
       </c>
-      <c r="N33" s="94" t="n">
+      <c r="O33" s="94" t="n">
         <v>60.72</v>
-      </c>
-      <c r="O33" s="94" t="n">
-        <v>59.65</v>
       </c>
       <c r="P33" s="94" t="n">
         <v>59.65</v>
       </c>
       <c r="Q33" s="94" t="n">
+        <v>59.65</v>
+      </c>
+      <c r="R33" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="R33" s="94" t="n">
+      <c r="S33" s="94" t="n">
         <v>52.66</v>
       </c>
-      <c r="S33" s="94" t="n">
+      <c r="T33" s="94" t="n">
         <v>46.9</v>
       </c>
-      <c r="T33" s="94" t="n">
+      <c r="U33" s="94" t="n">
         <v>47.37</v>
-      </c>
-      <c r="U33" s="94" t="n">
-        <v>50.8</v>
       </c>
       <c r="V33" s="94" t="n">
         <v>50.8</v>
       </c>
       <c r="W33" s="94" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="X33" s="94" t="n">
         <v>48.19</v>
       </c>
-      <c r="X33" s="94" t="n">
+      <c r="Y33" s="94" t="n">
         <v>44.82</v>
       </c>
-      <c r="Y33" s="94" t="n">
+      <c r="Z33" s="94" t="n">
         <v>46.88</v>
       </c>
-      <c r="Z33" s="94" t="n">
+      <c r="AA33" s="94" t="n">
         <v>45.04</v>
-      </c>
-      <c r="AA33" s="94" t="n">
-        <v>42.57</v>
       </c>
       <c r="AB33" s="94" t="n">
         <v>42.57</v>
       </c>
       <c r="AC33" s="94" t="n">
+        <v>42.57</v>
+      </c>
+      <c r="AD33" s="94" t="n">
         <v>47.45</v>
       </c>
-      <c r="AD33" s="94" t="n">
+      <c r="AE33" s="94" t="n">
         <v>26.17</v>
-      </c>
-      <c r="AE33" s="94" t="n">
-        <v>31.21</v>
       </c>
     </row>
     <row r="34">
@@ -10170,69 +10170,69 @@
           <t>red</t>
         </is>
       </c>
-      <c r="R34" s="92" t="inlineStr">
+      <c r="R34" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="S34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S34" s="92" t="inlineStr">
+      <c r="T34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T34" s="92" t="inlineStr">
+      <c r="U34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U34" s="92" t="inlineStr">
+      <c r="V34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V34" s="92" t="inlineStr">
+      <c r="W34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W34" s="92" t="inlineStr">
+      <c r="X34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X34" s="92" t="inlineStr">
+      <c r="Y34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y34" s="92" t="inlineStr">
+      <c r="Z34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z34" s="91" t="inlineStr">
+      <c r="AA34" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="AA34" s="92" t="inlineStr">
+      <c r="AB34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB34" s="92" t="inlineStr">
+      <c r="AC34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC34" s="92" t="inlineStr">
+      <c r="AD34" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD34" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE34" s="93" t="inlineStr">
@@ -10248,28 +10248,28 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="C35" s="94" t="n">
         <v>1.17</v>
-      </c>
-      <c r="C35" s="94" t="n">
-        <v>0.32</v>
       </c>
       <c r="D35" s="94" t="n">
         <v>0.32</v>
       </c>
       <c r="E35" s="94" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F35" s="94" t="n">
         <v>-0.42</v>
       </c>
-      <c r="F35" s="94" t="n">
+      <c r="G35" s="94" t="n">
         <v>-1.66</v>
       </c>
-      <c r="G35" s="94" t="n">
+      <c r="H35" s="94" t="n">
         <v>-2.18</v>
       </c>
-      <c r="H35" s="94" t="n">
+      <c r="I35" s="94" t="n">
         <v>-1.95</v>
-      </c>
-      <c r="I35" s="94" t="n">
-        <v>-2.13</v>
       </c>
       <c r="J35" s="94" t="n">
         <v>-2.13</v>
@@ -10284,58 +10284,58 @@
         <v>-2.13</v>
       </c>
       <c r="N35" s="94" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="O35" s="94" t="n">
         <v>-3.02</v>
-      </c>
-      <c r="O35" s="94" t="n">
-        <v>-2.41</v>
       </c>
       <c r="P35" s="94" t="n">
         <v>-2.41</v>
       </c>
       <c r="Q35" s="94" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="R35" s="94" t="n">
         <v>-1.54</v>
       </c>
-      <c r="R35" s="94" t="n">
+      <c r="S35" s="94" t="n">
         <v>-2.82</v>
       </c>
-      <c r="S35" s="94" t="n">
+      <c r="T35" s="94" t="n">
         <v>-4.2</v>
       </c>
-      <c r="T35" s="94" t="n">
+      <c r="U35" s="94" t="n">
         <v>-3.37</v>
-      </c>
-      <c r="U35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="V35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="W35" s="94" t="n">
-        <v>-1.53</v>
+        <v>-1.87</v>
       </c>
       <c r="X35" s="94" t="n">
         <v>-1.53</v>
       </c>
       <c r="Y35" s="94" t="n">
+        <v>-1.53</v>
+      </c>
+      <c r="Z35" s="94" t="n">
         <v>-0.64</v>
       </c>
-      <c r="Z35" s="94" t="n">
+      <c r="AA35" s="94" t="n">
         <v>0.89</v>
-      </c>
-      <c r="AA35" s="94" t="n">
-        <v>-1.87</v>
       </c>
       <c r="AB35" s="94" t="n">
         <v>-1.87</v>
       </c>
       <c r="AC35" s="94" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="AD35" s="94" t="n">
         <v>-6.61</v>
       </c>
-      <c r="AD35" s="94" t="n">
+      <c r="AE35" s="94" t="n">
         <v>-12.24</v>
-      </c>
-      <c r="AE35" s="94" t="n">
-        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -10345,28 +10345,28 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="C36" s="94" t="n">
         <v>2.63</v>
-      </c>
-      <c r="C36" s="94" t="n">
-        <v>1.18</v>
       </c>
       <c r="D36" s="94" t="n">
         <v>1.18</v>
       </c>
       <c r="E36" s="94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F36" s="94" t="n">
         <v>0.8</v>
       </c>
-      <c r="F36" s="94" t="n">
+      <c r="G36" s="94" t="n">
         <v>-0.86</v>
       </c>
-      <c r="G36" s="94" t="n">
+      <c r="H36" s="94" t="n">
         <v>-0.31</v>
       </c>
-      <c r="H36" s="94" t="n">
+      <c r="I36" s="94" t="n">
         <v>-0.37</v>
-      </c>
-      <c r="I36" s="94" t="n">
-        <v>-2.28</v>
       </c>
       <c r="J36" s="94" t="n">
         <v>-2.28</v>
@@ -10381,58 +10381,58 @@
         <v>-2.28</v>
       </c>
       <c r="N36" s="94" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="O36" s="94" t="n">
         <v>-2.98</v>
-      </c>
-      <c r="O36" s="94" t="n">
-        <v>-2.34</v>
       </c>
       <c r="P36" s="94" t="n">
         <v>-2.34</v>
       </c>
       <c r="Q36" s="94" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="R36" s="94" t="n">
         <v>-3.05</v>
       </c>
-      <c r="R36" s="94" t="n">
+      <c r="S36" s="94" t="n">
         <v>-3.49</v>
       </c>
-      <c r="S36" s="94" t="n">
+      <c r="T36" s="94" t="n">
         <v>-4.44</v>
       </c>
-      <c r="T36" s="94" t="n">
+      <c r="U36" s="94" t="n">
         <v>-4</v>
-      </c>
-      <c r="U36" s="94" t="n">
-        <v>-4.07</v>
       </c>
       <c r="V36" s="94" t="n">
         <v>-4.07</v>
       </c>
       <c r="W36" s="94" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="X36" s="94" t="n">
         <v>-4.15</v>
       </c>
-      <c r="X36" s="94" t="n">
+      <c r="Y36" s="94" t="n">
         <v>-5.43</v>
       </c>
-      <c r="Y36" s="94" t="n">
+      <c r="Z36" s="94" t="n">
         <v>-4.49</v>
       </c>
-      <c r="Z36" s="94" t="n">
+      <c r="AA36" s="94" t="n">
         <v>-3.5</v>
-      </c>
-      <c r="AA36" s="94" t="n">
-        <v>-4.46</v>
       </c>
       <c r="AB36" s="94" t="n">
         <v>-4.46</v>
       </c>
       <c r="AC36" s="94" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="AD36" s="94" t="n">
         <v>-8.800000000000001</v>
       </c>
-      <c r="AD36" s="94" t="n">
+      <c r="AE36" s="94" t="n">
         <v>-14.93</v>
-      </c>
-      <c r="AE36" s="94" t="n">
-        <v>-12.08</v>
       </c>
     </row>
     <row r="37">
@@ -10442,28 +10442,28 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
+        <v>95.44</v>
+      </c>
+      <c r="C37" s="94" t="n">
         <v>93.31999999999999</v>
-      </c>
-      <c r="C37" s="94" t="n">
-        <v>86.81999999999999</v>
       </c>
       <c r="D37" s="94" t="n">
         <v>86.81999999999999</v>
       </c>
       <c r="E37" s="94" t="n">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="F37" s="94" t="n">
         <v>96.65000000000001</v>
       </c>
-      <c r="F37" s="94" t="n">
+      <c r="G37" s="94" t="n">
         <v>91.91</v>
       </c>
-      <c r="G37" s="94" t="n">
+      <c r="H37" s="94" t="n">
         <v>86.29000000000001</v>
       </c>
-      <c r="H37" s="94" t="n">
+      <c r="I37" s="94" t="n">
         <v>84.69</v>
-      </c>
-      <c r="I37" s="94" t="n">
-        <v>64.98</v>
       </c>
       <c r="J37" s="94" t="n">
         <v>64.98</v>
@@ -10478,58 +10478,58 @@
         <v>64.98</v>
       </c>
       <c r="N37" s="94" t="n">
+        <v>64.98</v>
+      </c>
+      <c r="O37" s="94" t="n">
         <v>67.08</v>
-      </c>
-      <c r="O37" s="94" t="n">
-        <v>74.89</v>
       </c>
       <c r="P37" s="94" t="n">
         <v>74.89</v>
       </c>
       <c r="Q37" s="94" t="n">
+        <v>74.89</v>
+      </c>
+      <c r="R37" s="94" t="n">
         <v>69.08</v>
       </c>
-      <c r="R37" s="94" t="n">
+      <c r="S37" s="94" t="n">
         <v>54.26</v>
       </c>
-      <c r="S37" s="94" t="n">
+      <c r="T37" s="94" t="n">
         <v>28.66</v>
       </c>
-      <c r="T37" s="94" t="n">
+      <c r="U37" s="94" t="n">
         <v>39.12</v>
-      </c>
-      <c r="U37" s="94" t="n">
-        <v>55.49</v>
       </c>
       <c r="V37" s="94" t="n">
         <v>55.49</v>
       </c>
       <c r="W37" s="94" t="n">
+        <v>55.49</v>
+      </c>
+      <c r="X37" s="94" t="n">
         <v>53.48</v>
       </c>
-      <c r="X37" s="94" t="n">
+      <c r="Y37" s="94" t="n">
         <v>47.61</v>
       </c>
-      <c r="Y37" s="94" t="n">
+      <c r="Z37" s="94" t="n">
         <v>60.4</v>
       </c>
-      <c r="Z37" s="94" t="n">
+      <c r="AA37" s="94" t="n">
         <v>70.22</v>
-      </c>
-      <c r="AA37" s="94" t="n">
-        <v>64.94</v>
       </c>
       <c r="AB37" s="94" t="n">
         <v>64.94</v>
       </c>
       <c r="AC37" s="94" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="AD37" s="94" t="n">
         <v>47.09</v>
       </c>
-      <c r="AD37" s="94" t="n">
+      <c r="AE37" s="94" t="n">
         <v>1.27</v>
-      </c>
-      <c r="AE37" s="94" t="n">
-        <v>1.81</v>
       </c>
     </row>
     <row r="38">
@@ -10543,139 +10543,139 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C38" s="93" t="inlineStr">
+      <c r="C38" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D38" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="D38" s="93" t="inlineStr">
+      <c r="E38" s="93" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="E38" s="92" t="inlineStr">
+      <c r="F38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F38" s="92" t="inlineStr">
+      <c r="G38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G38" s="92" t="inlineStr">
+      <c r="H38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H38" s="92" t="inlineStr">
+      <c r="I38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I38" s="92" t="inlineStr">
+      <c r="J38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J38" s="92" t="inlineStr">
+      <c r="K38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K38" s="92" t="inlineStr">
+      <c r="L38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="L38" s="92" t="inlineStr">
+      <c r="M38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="M38" s="92" t="inlineStr">
+      <c r="N38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="N38" s="92" t="inlineStr">
+      <c r="O38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="O38" s="92" t="inlineStr">
+      <c r="P38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="P38" s="92" t="inlineStr">
+      <c r="Q38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Q38" s="92" t="inlineStr">
+      <c r="R38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="R38" s="91" t="inlineStr">
+      <c r="S38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S38" s="91" t="inlineStr">
+      <c r="T38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T38" s="91" t="inlineStr">
+      <c r="U38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U38" s="91" t="inlineStr">
+      <c r="V38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V38" s="91" t="inlineStr">
+      <c r="W38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W38" s="91" t="inlineStr">
+      <c r="X38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="X38" s="91" t="inlineStr">
+      <c r="Y38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Y38" s="91" t="inlineStr">
+      <c r="Z38" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Z38" s="92" t="inlineStr">
+      <c r="AA38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA38" s="92" t="inlineStr">
+      <c r="AB38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB38" s="92" t="inlineStr">
+      <c r="AC38" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AC38" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AD38" s="93" t="inlineStr">
@@ -10699,61 +10699,61 @@
         <v>5.6</v>
       </c>
       <c r="C39" s="94" t="n">
-        <v>1.51</v>
+        <v>5.6</v>
       </c>
       <c r="D39" s="94" t="n">
         <v>1.51</v>
       </c>
       <c r="E39" s="94" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F39" s="94" t="n">
         <v>2.23</v>
       </c>
-      <c r="F39" s="94" t="n">
+      <c r="G39" s="94" t="n">
         <v>4.61</v>
       </c>
-      <c r="G39" s="94" t="n">
+      <c r="H39" s="94" t="n">
         <v>4.04</v>
       </c>
-      <c r="H39" s="94" t="n">
+      <c r="I39" s="94" t="n">
         <v>4.25</v>
-      </c>
-      <c r="I39" s="94" t="n">
-        <v>4.88</v>
       </c>
       <c r="J39" s="94" t="n">
         <v>4.88</v>
       </c>
       <c r="K39" s="94" t="n">
-        <v>4.85</v>
+        <v>4.88</v>
       </c>
       <c r="L39" s="94" t="n">
         <v>4.85</v>
       </c>
       <c r="M39" s="94" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N39" s="94" t="n">
         <v>5.78</v>
       </c>
-      <c r="N39" s="94" t="n">
+      <c r="O39" s="94" t="n">
         <v>6.44</v>
-      </c>
-      <c r="O39" s="94" t="n">
-        <v>3.97</v>
       </c>
       <c r="P39" s="94" t="n">
         <v>3.97</v>
       </c>
       <c r="Q39" s="94" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="R39" s="94" t="n">
         <v>4.29</v>
       </c>
-      <c r="R39" s="94" t="n">
+      <c r="S39" s="94" t="n">
         <v>4.86</v>
       </c>
-      <c r="S39" s="94" t="n">
+      <c r="T39" s="94" t="n">
         <v>4.95</v>
       </c>
-      <c r="T39" s="94" t="n">
+      <c r="U39" s="94" t="n">
         <v>3.03</v>
-      </c>
-      <c r="U39" s="94" t="n">
-        <v>2.52</v>
       </c>
       <c r="V39" s="94" t="n">
         <v>2.52</v>
@@ -10762,13 +10762,13 @@
         <v>2.52</v>
       </c>
       <c r="X39" s="94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y39" s="94" t="n">
         <v>0</v>
       </c>
-      <c r="Y39" s="94" t="n">
+      <c r="Z39" s="94" t="n">
         <v>0.01</v>
-      </c>
-      <c r="Z39" s="94" t="n">
-        <v>-1.75</v>
       </c>
       <c r="AA39" s="94" t="n">
         <v>-1.75</v>
@@ -10777,13 +10777,13 @@
         <v>-1.75</v>
       </c>
       <c r="AC39" s="94" t="n">
-        <v>-3.25</v>
+        <v>-1.75</v>
       </c>
       <c r="AD39" s="94" t="n">
         <v>-3.25</v>
       </c>
       <c r="AE39" s="94" t="n">
-        <v>-4.07</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="40">
@@ -10796,61 +10796,61 @@
         <v>4.77</v>
       </c>
       <c r="C40" s="94" t="n">
-        <v>-0.05</v>
+        <v>4.77</v>
       </c>
       <c r="D40" s="94" t="n">
         <v>-0.05</v>
       </c>
       <c r="E40" s="94" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F40" s="94" t="n">
         <v>1.07</v>
       </c>
-      <c r="F40" s="94" t="n">
+      <c r="G40" s="94" t="n">
         <v>1.51</v>
       </c>
-      <c r="G40" s="94" t="n">
+      <c r="H40" s="94" t="n">
         <v>0.33</v>
       </c>
-      <c r="H40" s="94" t="n">
+      <c r="I40" s="94" t="n">
         <v>1.66</v>
-      </c>
-      <c r="I40" s="94" t="n">
-        <v>2.18</v>
       </c>
       <c r="J40" s="94" t="n">
         <v>2.18</v>
       </c>
       <c r="K40" s="94" t="n">
-        <v>0.65</v>
+        <v>2.18</v>
       </c>
       <c r="L40" s="94" t="n">
         <v>0.65</v>
       </c>
       <c r="M40" s="94" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N40" s="94" t="n">
         <v>1.13</v>
       </c>
-      <c r="N40" s="94" t="n">
+      <c r="O40" s="94" t="n">
         <v>0.35</v>
-      </c>
-      <c r="O40" s="94" t="n">
-        <v>-1.44</v>
       </c>
       <c r="P40" s="94" t="n">
         <v>-1.44</v>
       </c>
       <c r="Q40" s="94" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="R40" s="94" t="n">
         <v>-0.25</v>
       </c>
-      <c r="R40" s="94" t="n">
+      <c r="S40" s="94" t="n">
         <v>0.9</v>
       </c>
-      <c r="S40" s="94" t="n">
+      <c r="T40" s="94" t="n">
         <v>-0.59</v>
       </c>
-      <c r="T40" s="94" t="n">
+      <c r="U40" s="94" t="n">
         <v>-0.84</v>
-      </c>
-      <c r="U40" s="94" t="n">
-        <v>-2.08</v>
       </c>
       <c r="V40" s="94" t="n">
         <v>-2.08</v>
@@ -10859,13 +10859,13 @@
         <v>-2.08</v>
       </c>
       <c r="X40" s="94" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="Y40" s="94" t="n">
         <v>-5.06</v>
       </c>
-      <c r="Y40" s="94" t="n">
+      <c r="Z40" s="94" t="n">
         <v>-5.53</v>
-      </c>
-      <c r="Z40" s="94" t="n">
-        <v>-7.22</v>
       </c>
       <c r="AA40" s="94" t="n">
         <v>-7.22</v>
@@ -10874,13 +10874,13 @@
         <v>-7.22</v>
       </c>
       <c r="AC40" s="94" t="n">
-        <v>-9.390000000000001</v>
+        <v>-7.22</v>
       </c>
       <c r="AD40" s="94" t="n">
         <v>-9.390000000000001</v>
       </c>
       <c r="AE40" s="94" t="n">
-        <v>-9.279999999999999</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -10893,61 +10893,61 @@
         <v>71.28</v>
       </c>
       <c r="C41" s="94" t="n">
-        <v>52.53</v>
+        <v>71.28</v>
       </c>
       <c r="D41" s="94" t="n">
         <v>52.53</v>
       </c>
       <c r="E41" s="94" t="n">
+        <v>52.53</v>
+      </c>
+      <c r="F41" s="94" t="n">
         <v>63.59</v>
       </c>
-      <c r="F41" s="94" t="n">
+      <c r="G41" s="94" t="n">
         <v>69.77</v>
       </c>
-      <c r="G41" s="94" t="n">
+      <c r="H41" s="94" t="n">
         <v>69.08</v>
       </c>
-      <c r="H41" s="94" t="n">
+      <c r="I41" s="94" t="n">
         <v>71.25</v>
-      </c>
-      <c r="I41" s="94" t="n">
-        <v>69.62</v>
       </c>
       <c r="J41" s="94" t="n">
         <v>69.62</v>
       </c>
       <c r="K41" s="94" t="n">
-        <v>68.2</v>
+        <v>69.62</v>
       </c>
       <c r="L41" s="94" t="n">
         <v>68.2</v>
       </c>
       <c r="M41" s="94" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="N41" s="94" t="n">
         <v>68.70999999999999</v>
       </c>
-      <c r="N41" s="94" t="n">
+      <c r="O41" s="94" t="n">
         <v>68.39</v>
-      </c>
-      <c r="O41" s="94" t="n">
-        <v>63.45</v>
       </c>
       <c r="P41" s="94" t="n">
         <v>63.45</v>
       </c>
       <c r="Q41" s="94" t="n">
+        <v>63.45</v>
+      </c>
+      <c r="R41" s="94" t="n">
         <v>69.14</v>
       </c>
-      <c r="R41" s="94" t="n">
+      <c r="S41" s="94" t="n">
         <v>72.26000000000001</v>
       </c>
-      <c r="S41" s="94" t="n">
+      <c r="T41" s="94" t="n">
         <v>70.26000000000001</v>
       </c>
-      <c r="T41" s="94" t="n">
+      <c r="U41" s="94" t="n">
         <v>69.55</v>
-      </c>
-      <c r="U41" s="94" t="n">
-        <v>66.25</v>
       </c>
       <c r="V41" s="94" t="n">
         <v>66.25</v>
@@ -10956,13 +10956,13 @@
         <v>66.25</v>
       </c>
       <c r="X41" s="94" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="Y41" s="94" t="n">
         <v>59.21</v>
       </c>
-      <c r="Y41" s="94" t="n">
+      <c r="Z41" s="94" t="n">
         <v>57.58</v>
-      </c>
-      <c r="Z41" s="94" t="n">
-        <v>48.04</v>
       </c>
       <c r="AA41" s="94" t="n">
         <v>48.04</v>
@@ -10971,13 +10971,13 @@
         <v>48.04</v>
       </c>
       <c r="AC41" s="94" t="n">
-        <v>37.55</v>
+        <v>48.04</v>
       </c>
       <c r="AD41" s="94" t="n">
         <v>37.55</v>
       </c>
       <c r="AE41" s="94" t="n">
-        <v>39.64</v>
+        <v>37.55</v>
       </c>
     </row>
     <row r="42">
@@ -10991,144 +10991,144 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C42" s="92" t="inlineStr">
+      <c r="C42" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D42" s="92" t="inlineStr">
+      <c r="E42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="E42" s="92" t="inlineStr">
+      <c r="F42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="F42" s="92" t="inlineStr">
+      <c r="G42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="G42" s="92" t="inlineStr">
+      <c r="H42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="H42" s="91" t="inlineStr">
+      <c r="I42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I42" s="91" t="inlineStr">
+      <c r="J42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J42" s="91" t="inlineStr">
+      <c r="K42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K42" s="91" t="inlineStr">
+      <c r="L42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L42" s="91" t="inlineStr">
+      <c r="M42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M42" s="91" t="inlineStr">
+      <c r="N42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N42" s="91" t="inlineStr">
+      <c r="O42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O42" s="91" t="inlineStr">
+      <c r="P42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P42" s="91" t="inlineStr">
+      <c r="Q42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q42" s="91" t="inlineStr">
+      <c r="R42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R42" s="91" t="inlineStr">
+      <c r="S42" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S42" s="92" t="inlineStr">
+      <c r="T42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T42" s="92" t="inlineStr">
+      <c r="U42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U42" s="92" t="inlineStr">
+      <c r="V42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V42" s="92" t="inlineStr">
+      <c r="W42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W42" s="92" t="inlineStr">
+      <c r="X42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="X42" s="92" t="inlineStr">
+      <c r="Y42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Y42" s="92" t="inlineStr">
+      <c r="Z42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z42" s="92" t="inlineStr">
+      <c r="AA42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA42" s="92" t="inlineStr">
+      <c r="AB42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB42" s="92" t="inlineStr">
+      <c r="AC42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC42" s="92" t="inlineStr">
+      <c r="AD42" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD42" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE42" s="93" t="inlineStr">
@@ -11147,58 +11147,58 @@
         <v>-2.39</v>
       </c>
       <c r="C43" s="94" t="n">
-        <v>-3.55</v>
+        <v>-2.39</v>
       </c>
       <c r="D43" s="94" t="n">
         <v>-3.55</v>
       </c>
       <c r="E43" s="94" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="F43" s="94" t="n">
         <v>-3.89</v>
       </c>
-      <c r="F43" s="94" t="n">
+      <c r="G43" s="94" t="n">
         <v>-4.34</v>
       </c>
-      <c r="G43" s="94" t="n">
+      <c r="H43" s="94" t="n">
         <v>-3.88</v>
       </c>
-      <c r="H43" s="94" t="n">
+      <c r="I43" s="94" t="n">
         <v>-2.07</v>
-      </c>
-      <c r="I43" s="94" t="n">
-        <v>-1.72</v>
       </c>
       <c r="J43" s="94" t="n">
         <v>-1.72</v>
       </c>
       <c r="K43" s="94" t="n">
-        <v>-3.32</v>
+        <v>-1.72</v>
       </c>
       <c r="L43" s="94" t="n">
         <v>-3.32</v>
       </c>
       <c r="M43" s="94" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="N43" s="94" t="n">
         <v>-4.96</v>
       </c>
-      <c r="N43" s="94" t="n">
+      <c r="O43" s="94" t="n">
         <v>-4.63</v>
-      </c>
-      <c r="O43" s="94" t="n">
-        <v>-4.27</v>
       </c>
       <c r="P43" s="94" t="n">
         <v>-4.27</v>
       </c>
       <c r="Q43" s="94" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="R43" s="94" t="n">
         <v>-5</v>
       </c>
-      <c r="R43" s="94" t="n">
+      <c r="S43" s="94" t="n">
         <v>-5.37</v>
       </c>
-      <c r="S43" s="94" t="n">
+      <c r="T43" s="94" t="n">
         <v>-7.58</v>
-      </c>
-      <c r="T43" s="94" t="n">
-        <v>-7.69</v>
       </c>
       <c r="U43" s="94" t="n">
         <v>-7.69</v>
@@ -11210,28 +11210,28 @@
         <v>-7.69</v>
       </c>
       <c r="X43" s="94" t="n">
+        <v>-7.69</v>
+      </c>
+      <c r="Y43" s="94" t="n">
         <v>-6.47</v>
       </c>
-      <c r="Y43" s="94" t="n">
+      <c r="Z43" s="94" t="n">
         <v>-5.6</v>
       </c>
-      <c r="Z43" s="94" t="n">
+      <c r="AA43" s="94" t="n">
         <v>-5.95</v>
-      </c>
-      <c r="AA43" s="94" t="n">
-        <v>-7.85</v>
       </c>
       <c r="AB43" s="94" t="n">
         <v>-7.85</v>
       </c>
       <c r="AC43" s="94" t="n">
+        <v>-7.85</v>
+      </c>
+      <c r="AD43" s="94" t="n">
         <v>-6.66</v>
       </c>
-      <c r="AD43" s="94" t="n">
+      <c r="AE43" s="94" t="n">
         <v>-8.18</v>
-      </c>
-      <c r="AE43" s="94" t="n">
-        <v>-4.35</v>
       </c>
     </row>
     <row r="44">
@@ -11244,58 +11244,58 @@
         <v>7.98</v>
       </c>
       <c r="C44" s="94" t="n">
-        <v>5.91</v>
+        <v>7.98</v>
       </c>
       <c r="D44" s="94" t="n">
         <v>5.91</v>
       </c>
       <c r="E44" s="94" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F44" s="94" t="n">
         <v>6.62</v>
       </c>
-      <c r="F44" s="94" t="n">
+      <c r="G44" s="94" t="n">
         <v>5.53</v>
       </c>
-      <c r="G44" s="94" t="n">
+      <c r="H44" s="94" t="n">
         <v>3.64</v>
       </c>
-      <c r="H44" s="94" t="n">
+      <c r="I44" s="94" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I44" s="94" t="n">
-        <v>4.64</v>
       </c>
       <c r="J44" s="94" t="n">
         <v>4.64</v>
       </c>
       <c r="K44" s="94" t="n">
-        <v>3.04</v>
+        <v>4.64</v>
       </c>
       <c r="L44" s="94" t="n">
         <v>3.04</v>
       </c>
       <c r="M44" s="94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="N44" s="94" t="n">
         <v>2.01</v>
       </c>
-      <c r="N44" s="94" t="n">
+      <c r="O44" s="94" t="n">
         <v>2.74</v>
-      </c>
-      <c r="O44" s="94" t="n">
-        <v>1.72</v>
       </c>
       <c r="P44" s="94" t="n">
         <v>1.72</v>
       </c>
       <c r="Q44" s="94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R44" s="94" t="n">
         <v>2.07</v>
       </c>
-      <c r="R44" s="94" t="n">
+      <c r="S44" s="94" t="n">
         <v>0.73</v>
       </c>
-      <c r="S44" s="94" t="n">
+      <c r="T44" s="94" t="n">
         <v>-2.46</v>
-      </c>
-      <c r="T44" s="94" t="n">
-        <v>-3.59</v>
       </c>
       <c r="U44" s="94" t="n">
         <v>-3.59</v>
@@ -11307,28 +11307,28 @@
         <v>-3.59</v>
       </c>
       <c r="X44" s="94" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="Y44" s="94" t="n">
         <v>-2.23</v>
       </c>
-      <c r="Y44" s="94" t="n">
+      <c r="Z44" s="94" t="n">
         <v>-2.24</v>
       </c>
-      <c r="Z44" s="94" t="n">
+      <c r="AA44" s="94" t="n">
         <v>-2.99</v>
-      </c>
-      <c r="AA44" s="94" t="n">
-        <v>-5.71</v>
       </c>
       <c r="AB44" s="94" t="n">
         <v>-5.71</v>
       </c>
       <c r="AC44" s="94" t="n">
+        <v>-5.71</v>
+      </c>
+      <c r="AD44" s="94" t="n">
         <v>-5.44</v>
       </c>
-      <c r="AD44" s="94" t="n">
+      <c r="AE44" s="94" t="n">
         <v>-9.85</v>
-      </c>
-      <c r="AE44" s="94" t="n">
-        <v>-6.37</v>
       </c>
     </row>
     <row r="45">
@@ -11341,58 +11341,58 @@
         <v>78.25</v>
       </c>
       <c r="C45" s="94" t="n">
-        <v>68.95999999999999</v>
+        <v>78.25</v>
       </c>
       <c r="D45" s="94" t="n">
         <v>68.95999999999999</v>
       </c>
       <c r="E45" s="94" t="n">
+        <v>68.95999999999999</v>
+      </c>
+      <c r="F45" s="94" t="n">
         <v>63.11</v>
       </c>
-      <c r="F45" s="94" t="n">
+      <c r="G45" s="94" t="n">
         <v>53.51</v>
       </c>
-      <c r="G45" s="94" t="n">
+      <c r="H45" s="94" t="n">
         <v>68.23999999999999</v>
       </c>
-      <c r="H45" s="94" t="n">
+      <c r="I45" s="94" t="n">
         <v>75.61</v>
-      </c>
-      <c r="I45" s="94" t="n">
-        <v>85.77</v>
       </c>
       <c r="J45" s="94" t="n">
         <v>85.77</v>
       </c>
       <c r="K45" s="94" t="n">
-        <v>74.3</v>
+        <v>85.77</v>
       </c>
       <c r="L45" s="94" t="n">
         <v>74.3</v>
       </c>
       <c r="M45" s="94" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="N45" s="94" t="n">
         <v>70.16</v>
       </c>
-      <c r="N45" s="94" t="n">
+      <c r="O45" s="94" t="n">
         <v>74.69</v>
-      </c>
-      <c r="O45" s="94" t="n">
-        <v>71.61</v>
       </c>
       <c r="P45" s="94" t="n">
         <v>71.61</v>
       </c>
       <c r="Q45" s="94" t="n">
+        <v>71.61</v>
+      </c>
+      <c r="R45" s="94" t="n">
         <v>68.91</v>
       </c>
-      <c r="R45" s="94" t="n">
+      <c r="S45" s="94" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="S45" s="94" t="n">
+      <c r="T45" s="94" t="n">
         <v>53.63</v>
-      </c>
-      <c r="T45" s="94" t="n">
-        <v>49.15</v>
       </c>
       <c r="U45" s="94" t="n">
         <v>49.15</v>
@@ -11404,28 +11404,28 @@
         <v>49.15</v>
       </c>
       <c r="X45" s="94" t="n">
+        <v>49.15</v>
+      </c>
+      <c r="Y45" s="94" t="n">
         <v>53.65</v>
       </c>
-      <c r="Y45" s="94" t="n">
+      <c r="Z45" s="94" t="n">
         <v>54.14</v>
       </c>
-      <c r="Z45" s="94" t="n">
+      <c r="AA45" s="94" t="n">
         <v>49.96</v>
-      </c>
-      <c r="AA45" s="94" t="n">
-        <v>37.67</v>
       </c>
       <c r="AB45" s="94" t="n">
         <v>37.67</v>
       </c>
       <c r="AC45" s="94" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="AD45" s="94" t="n">
         <v>38.63</v>
       </c>
-      <c r="AD45" s="94" t="n">
+      <c r="AE45" s="94" t="n">
         <v>17.99</v>
-      </c>
-      <c r="AE45" s="94" t="n">
-        <v>23.76</v>
       </c>
     </row>
     <row r="46">
@@ -11464,119 +11464,119 @@
           <t>blue</t>
         </is>
       </c>
-      <c r="H46" s="91" t="inlineStr">
+      <c r="H46" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="I46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="I46" s="91" t="inlineStr">
+      <c r="J46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="J46" s="91" t="inlineStr">
+      <c r="K46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="K46" s="91" t="inlineStr">
+      <c r="L46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L46" s="91" t="inlineStr">
+      <c r="M46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M46" s="91" t="inlineStr">
+      <c r="N46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N46" s="91" t="inlineStr">
+      <c r="O46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O46" s="91" t="inlineStr">
+      <c r="P46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P46" s="91" t="inlineStr">
+      <c r="Q46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q46" s="91" t="inlineStr">
+      <c r="R46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R46" s="91" t="inlineStr">
+      <c r="S46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="S46" s="91" t="inlineStr">
+      <c r="T46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="T46" s="91" t="inlineStr">
+      <c r="U46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="U46" s="91" t="inlineStr">
+      <c r="V46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="V46" s="91" t="inlineStr">
+      <c r="W46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="W46" s="91" t="inlineStr">
+      <c r="X46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="X46" s="91" t="inlineStr">
+      <c r="Y46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Y46" s="91" t="inlineStr">
+      <c r="Z46" s="91" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Z46" s="92" t="inlineStr">
+      <c r="AA46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA46" s="92" t="inlineStr">
+      <c r="AB46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AB46" s="92" t="inlineStr">
+      <c r="AC46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AC46" s="92" t="inlineStr">
+      <c r="AD46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AD46" s="93" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AE46" s="93" t="inlineStr">
@@ -11595,58 +11595,58 @@
         <v>6.4</v>
       </c>
       <c r="C47" s="94" t="n">
-        <v>6.63</v>
+        <v>6.4</v>
       </c>
       <c r="D47" s="94" t="n">
         <v>6.63</v>
       </c>
       <c r="E47" s="94" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F47" s="94" t="n">
         <v>6.58</v>
       </c>
-      <c r="F47" s="94" t="n">
+      <c r="G47" s="94" t="n">
         <v>6.1</v>
       </c>
-      <c r="G47" s="94" t="n">
+      <c r="H47" s="94" t="n">
         <v>6.15</v>
       </c>
-      <c r="H47" s="94" t="n">
+      <c r="I47" s="94" t="n">
         <v>8.15</v>
-      </c>
-      <c r="I47" s="94" t="n">
-        <v>7.35</v>
       </c>
       <c r="J47" s="94" t="n">
         <v>7.35</v>
       </c>
       <c r="K47" s="94" t="n">
-        <v>4.99</v>
+        <v>7.35</v>
       </c>
       <c r="L47" s="94" t="n">
         <v>4.99</v>
       </c>
       <c r="M47" s="94" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="N47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="N47" s="94" t="n">
+      <c r="O47" s="94" t="n">
         <v>2.51</v>
-      </c>
-      <c r="O47" s="94" t="n">
-        <v>2.8</v>
       </c>
       <c r="P47" s="94" t="n">
         <v>2.8</v>
       </c>
       <c r="Q47" s="94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R47" s="94" t="n">
         <v>2.96</v>
       </c>
-      <c r="R47" s="94" t="n">
+      <c r="S47" s="94" t="n">
         <v>3.19</v>
       </c>
-      <c r="S47" s="94" t="n">
+      <c r="T47" s="94" t="n">
         <v>-0.47</v>
-      </c>
-      <c r="T47" s="94" t="n">
-        <v>-0.96</v>
       </c>
       <c r="U47" s="94" t="n">
         <v>-0.96</v>
@@ -11658,28 +11658,28 @@
         <v>-0.96</v>
       </c>
       <c r="X47" s="94" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="Y47" s="94" t="n">
         <v>0.27</v>
       </c>
-      <c r="Y47" s="94" t="n">
+      <c r="Z47" s="94" t="n">
         <v>1.01</v>
       </c>
-      <c r="Z47" s="94" t="n">
+      <c r="AA47" s="94" t="n">
         <v>-0.17</v>
-      </c>
-      <c r="AA47" s="94" t="n">
-        <v>-2.53</v>
       </c>
       <c r="AB47" s="94" t="n">
         <v>-2.53</v>
       </c>
       <c r="AC47" s="94" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="AD47" s="94" t="n">
         <v>-0.45</v>
       </c>
-      <c r="AD47" s="94" t="n">
+      <c r="AE47" s="94" t="n">
         <v>-4.39</v>
-      </c>
-      <c r="AE47" s="94" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="48">
@@ -11692,58 +11692,58 @@
         <v>24.01</v>
       </c>
       <c r="C48" s="94" t="n">
-        <v>23.46</v>
+        <v>24.01</v>
       </c>
       <c r="D48" s="94" t="n">
         <v>23.46</v>
       </c>
       <c r="E48" s="94" t="n">
+        <v>23.46</v>
+      </c>
+      <c r="F48" s="94" t="n">
         <v>20.07</v>
       </c>
-      <c r="F48" s="94" t="n">
+      <c r="G48" s="94" t="n">
         <v>20.3</v>
       </c>
-      <c r="G48" s="94" t="n">
+      <c r="H48" s="94" t="n">
         <v>20.08</v>
       </c>
-      <c r="H48" s="94" t="n">
+      <c r="I48" s="94" t="n">
         <v>22.61</v>
-      </c>
-      <c r="I48" s="94" t="n">
-        <v>19.89</v>
       </c>
       <c r="J48" s="94" t="n">
         <v>19.89</v>
       </c>
       <c r="K48" s="94" t="n">
-        <v>17.49</v>
+        <v>19.89</v>
       </c>
       <c r="L48" s="94" t="n">
         <v>17.49</v>
       </c>
       <c r="M48" s="94" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="N48" s="94" t="n">
         <v>16.47</v>
       </c>
-      <c r="N48" s="94" t="n">
+      <c r="O48" s="94" t="n">
         <v>16.74</v>
-      </c>
-      <c r="O48" s="94" t="n">
-        <v>15.5</v>
       </c>
       <c r="P48" s="94" t="n">
         <v>15.5</v>
       </c>
       <c r="Q48" s="94" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="R48" s="94" t="n">
         <v>13.28</v>
       </c>
-      <c r="R48" s="94" t="n">
+      <c r="S48" s="94" t="n">
         <v>12.44</v>
       </c>
-      <c r="S48" s="94" t="n">
+      <c r="T48" s="94" t="n">
         <v>9.4</v>
-      </c>
-      <c r="T48" s="94" t="n">
-        <v>9.07</v>
       </c>
       <c r="U48" s="94" t="n">
         <v>9.07</v>
@@ -11755,28 +11755,28 @@
         <v>9.07</v>
       </c>
       <c r="X48" s="94" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="Y48" s="94" t="n">
         <v>9.98</v>
       </c>
-      <c r="Y48" s="94" t="n">
+      <c r="Z48" s="94" t="n">
         <v>9.43</v>
       </c>
-      <c r="Z48" s="94" t="n">
+      <c r="AA48" s="94" t="n">
         <v>7.67</v>
-      </c>
-      <c r="AA48" s="94" t="n">
-        <v>3.65</v>
       </c>
       <c r="AB48" s="94" t="n">
         <v>3.65</v>
       </c>
       <c r="AC48" s="94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AD48" s="94" t="n">
         <v>5</v>
       </c>
-      <c r="AD48" s="94" t="n">
+      <c r="AE48" s="94" t="n">
         <v>1.23</v>
-      </c>
-      <c r="AE48" s="94" t="n">
-        <v>4.08</v>
       </c>
     </row>
     <row r="49">
@@ -11789,58 +11789,58 @@
         <v>82.09</v>
       </c>
       <c r="C49" s="94" t="n">
-        <v>80.97</v>
+        <v>82.09</v>
       </c>
       <c r="D49" s="94" t="n">
         <v>80.97</v>
       </c>
       <c r="E49" s="94" t="n">
+        <v>80.97</v>
+      </c>
+      <c r="F49" s="94" t="n">
         <v>78.51000000000001</v>
       </c>
-      <c r="F49" s="94" t="n">
+      <c r="G49" s="94" t="n">
         <v>73.98999999999999</v>
       </c>
-      <c r="G49" s="94" t="n">
+      <c r="H49" s="94" t="n">
         <v>82.12</v>
       </c>
-      <c r="H49" s="94" t="n">
+      <c r="I49" s="94" t="n">
         <v>87.81999999999999</v>
-      </c>
-      <c r="I49" s="94" t="n">
-        <v>85.54000000000001</v>
       </c>
       <c r="J49" s="94" t="n">
         <v>85.54000000000001</v>
       </c>
       <c r="K49" s="94" t="n">
-        <v>77.56</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="L49" s="94" t="n">
         <v>77.56</v>
       </c>
       <c r="M49" s="94" t="n">
+        <v>77.56</v>
+      </c>
+      <c r="N49" s="94" t="n">
         <v>76.25</v>
       </c>
-      <c r="N49" s="94" t="n">
+      <c r="O49" s="94" t="n">
         <v>73.43000000000001</v>
-      </c>
-      <c r="O49" s="94" t="n">
-        <v>72.92</v>
       </c>
       <c r="P49" s="94" t="n">
         <v>72.92</v>
       </c>
       <c r="Q49" s="94" t="n">
+        <v>72.92</v>
+      </c>
+      <c r="R49" s="94" t="n">
         <v>70.02</v>
       </c>
-      <c r="R49" s="94" t="n">
+      <c r="S49" s="94" t="n">
         <v>68.39</v>
       </c>
-      <c r="S49" s="94" t="n">
+      <c r="T49" s="94" t="n">
         <v>55.14</v>
-      </c>
-      <c r="T49" s="94" t="n">
-        <v>52.99</v>
       </c>
       <c r="U49" s="94" t="n">
         <v>52.99</v>
@@ -11852,28 +11852,28 @@
         <v>52.99</v>
       </c>
       <c r="X49" s="94" t="n">
+        <v>52.99</v>
+      </c>
+      <c r="Y49" s="94" t="n">
         <v>55.66</v>
       </c>
-      <c r="Y49" s="94" t="n">
+      <c r="Z49" s="94" t="n">
         <v>54.62</v>
       </c>
-      <c r="Z49" s="94" t="n">
+      <c r="AA49" s="94" t="n">
         <v>49.48</v>
-      </c>
-      <c r="AA49" s="94" t="n">
-        <v>38.14</v>
       </c>
       <c r="AB49" s="94" t="n">
         <v>38.14</v>
       </c>
       <c r="AC49" s="94" t="n">
+        <v>38.14</v>
+      </c>
+      <c r="AD49" s="94" t="n">
         <v>40.61</v>
       </c>
-      <c r="AD49" s="94" t="n">
+      <c r="AE49" s="94" t="n">
         <v>20.28</v>
-      </c>
-      <c r="AE49" s="94" t="n">
-        <v>25.19</v>
       </c>
     </row>
     <row r="51">
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:84.8&gt;=66;hk50:RS4:97.56&gt;=73;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:93.32&gt;=85;dax30:RNG120:24.01&gt;=20</t>
+          <t>今日卖报：sh:RS3:85.66&gt;=66;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:95.44&gt;=85;dax30:RNG120:24.01&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -1448,152 +1448,152 @@
       </c>
       <c r="B1" s="77" t="inlineStr">
         <is>
+          <t>250513</t>
+        </is>
+      </c>
+      <c r="C1" s="77" t="inlineStr">
+        <is>
           <t>250512</t>
         </is>
       </c>
-      <c r="C1" s="77" t="inlineStr">
+      <c r="D1" s="77" t="inlineStr">
         <is>
           <t>250509</t>
         </is>
       </c>
-      <c r="D1" s="77" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>250508</t>
         </is>
       </c>
-      <c r="E1" s="77" t="inlineStr">
+      <c r="F1" s="77" t="inlineStr">
         <is>
           <t>250507</t>
         </is>
       </c>
-      <c r="F1" s="77" t="inlineStr">
+      <c r="G1" s="77" t="inlineStr">
         <is>
           <t>250506</t>
         </is>
       </c>
-      <c r="G1" s="77" t="inlineStr">
+      <c r="H1" s="77" t="inlineStr">
         <is>
           <t>250430</t>
         </is>
       </c>
-      <c r="H1" s="77" t="inlineStr">
+      <c r="I1" s="77" t="inlineStr">
         <is>
           <t>250429</t>
         </is>
       </c>
-      <c r="I1" s="77" t="inlineStr">
+      <c r="J1" s="77" t="inlineStr">
         <is>
           <t>250428</t>
         </is>
       </c>
-      <c r="J1" s="77" t="inlineStr">
+      <c r="K1" s="77" t="inlineStr">
         <is>
           <t>250425</t>
         </is>
       </c>
-      <c r="K1" s="77" t="inlineStr">
+      <c r="L1" s="77" t="inlineStr">
         <is>
           <t>250424</t>
         </is>
       </c>
-      <c r="L1" s="77" t="inlineStr">
+      <c r="M1" s="77" t="inlineStr">
         <is>
           <t>250423</t>
         </is>
       </c>
-      <c r="M1" s="77" t="inlineStr">
+      <c r="N1" s="77" t="inlineStr">
         <is>
           <t>250422</t>
         </is>
       </c>
-      <c r="N1" s="77" t="inlineStr">
+      <c r="O1" s="77" t="inlineStr">
         <is>
           <t>250421</t>
         </is>
       </c>
-      <c r="O1" s="77" t="inlineStr">
+      <c r="P1" s="77" t="inlineStr">
         <is>
           <t>250418</t>
         </is>
       </c>
-      <c r="P1" s="77" t="inlineStr">
+      <c r="Q1" s="77" t="inlineStr">
         <is>
           <t>250417</t>
         </is>
       </c>
-      <c r="Q1" s="77" t="inlineStr">
+      <c r="R1" s="77" t="inlineStr">
         <is>
           <t>250416</t>
         </is>
       </c>
-      <c r="R1" s="77" t="inlineStr">
+      <c r="S1" s="77" t="inlineStr">
         <is>
           <t>250415</t>
         </is>
       </c>
-      <c r="S1" s="77" t="inlineStr">
+      <c r="T1" s="77" t="inlineStr">
         <is>
           <t>250414</t>
         </is>
       </c>
-      <c r="T1" s="77" t="inlineStr">
+      <c r="U1" s="77" t="inlineStr">
         <is>
           <t>250411</t>
         </is>
       </c>
-      <c r="U1" s="77" t="inlineStr">
+      <c r="V1" s="77" t="inlineStr">
         <is>
           <t>250410</t>
         </is>
       </c>
-      <c r="V1" s="77" t="inlineStr">
+      <c r="W1" s="77" t="inlineStr">
         <is>
           <t>250409</t>
         </is>
       </c>
-      <c r="W1" s="77" t="inlineStr">
+      <c r="X1" s="77" t="inlineStr">
         <is>
           <t>250408</t>
         </is>
       </c>
-      <c r="X1" s="77" t="inlineStr">
+      <c r="Y1" s="77" t="inlineStr">
         <is>
           <t>250407</t>
         </is>
       </c>
-      <c r="Y1" s="77" t="inlineStr">
+      <c r="Z1" s="77" t="inlineStr">
         <is>
           <t>250403</t>
         </is>
       </c>
-      <c r="Z1" s="77" t="inlineStr">
+      <c r="AA1" s="77" t="inlineStr">
         <is>
           <t>250402</t>
         </is>
       </c>
-      <c r="AA1" s="77" t="inlineStr">
+      <c r="AB1" s="77" t="inlineStr">
         <is>
           <t>250401</t>
         </is>
       </c>
-      <c r="AB1" s="77" t="inlineStr">
+      <c r="AC1" s="77" t="inlineStr">
         <is>
           <t>250331</t>
         </is>
       </c>
-      <c r="AC1" s="77" t="inlineStr">
+      <c r="AD1" s="77" t="inlineStr">
         <is>
           <t>250328</t>
         </is>
       </c>
-      <c r="AD1" s="77" t="inlineStr">
+      <c r="AE1" s="77" t="inlineStr">
         <is>
           <t>250327</t>
-        </is>
-      </c>
-      <c r="AE1" s="77" t="inlineStr">
-        <is>
-          <t>250326</t>
         </is>
       </c>
     </row>
@@ -1604,94 +1604,94 @@
         </is>
       </c>
       <c r="B2" s="78" t="n">
+        <v>3374.87</v>
+      </c>
+      <c r="C2" s="78" t="n">
         <v>3369.24</v>
       </c>
-      <c r="C2" s="78" t="n">
+      <c r="D2" s="78" t="n">
         <v>3342</v>
       </c>
-      <c r="D2" s="78" t="n">
+      <c r="E2" s="78" t="n">
         <v>3352</v>
       </c>
-      <c r="E2" s="78" t="n">
+      <c r="F2" s="78" t="n">
         <v>3342.67</v>
       </c>
-      <c r="F2" s="78" t="n">
+      <c r="G2" s="78" t="n">
         <v>3316.11</v>
       </c>
-      <c r="G2" s="78" t="n">
+      <c r="H2" s="78" t="n">
         <v>3279.03</v>
       </c>
-      <c r="H2" s="78" t="n">
+      <c r="I2" s="78" t="n">
         <v>3286.65</v>
       </c>
-      <c r="I2" s="78" t="n">
+      <c r="J2" s="78" t="n">
         <v>3288.41</v>
       </c>
-      <c r="J2" s="78" t="n">
+      <c r="K2" s="78" t="n">
         <v>3295.06</v>
       </c>
-      <c r="K2" s="78" t="n">
+      <c r="L2" s="78" t="n">
         <v>3297.29</v>
       </c>
-      <c r="L2" s="78" t="n">
+      <c r="M2" s="78" t="n">
         <v>3296.36</v>
       </c>
-      <c r="M2" s="78" t="n">
+      <c r="N2" s="78" t="n">
         <v>3299.76</v>
       </c>
-      <c r="N2" s="78" t="n">
+      <c r="O2" s="78" t="n">
         <v>3291.43</v>
       </c>
-      <c r="O2" s="78" t="n">
+      <c r="P2" s="78" t="n">
         <v>3276.73</v>
       </c>
-      <c r="P2" s="78" t="n">
+      <c r="Q2" s="78" t="n">
         <v>3280.34</v>
       </c>
-      <c r="Q2" s="78" t="n">
+      <c r="R2" s="78" t="n">
         <v>3276</v>
       </c>
-      <c r="R2" s="78" t="n">
+      <c r="S2" s="78" t="n">
         <v>3267.66</v>
       </c>
-      <c r="S2" s="78" t="n">
+      <c r="T2" s="78" t="n">
         <v>3262.81</v>
       </c>
-      <c r="T2" s="78" t="n">
+      <c r="U2" s="78" t="n">
         <v>3238.23</v>
       </c>
-      <c r="U2" s="78" t="n">
+      <c r="V2" s="78" t="n">
         <v>3223.64</v>
       </c>
-      <c r="V2" s="78" t="n">
+      <c r="W2" s="78" t="n">
         <v>3186.81</v>
       </c>
-      <c r="W2" s="78" t="n">
+      <c r="X2" s="78" t="n">
         <v>3145.55</v>
       </c>
-      <c r="X2" s="78" t="n">
+      <c r="Y2" s="78" t="n">
         <v>3096.58</v>
       </c>
-      <c r="Y2" s="78" t="n">
+      <c r="Z2" s="78" t="n">
         <v>3342.01</v>
       </c>
-      <c r="Z2" s="78" t="n">
+      <c r="AA2" s="78" t="n">
         <v>3350.13</v>
       </c>
-      <c r="AA2" s="78" t="n">
+      <c r="AB2" s="78" t="n">
         <v>3348.44</v>
       </c>
-      <c r="AB2" s="78" t="n">
+      <c r="AC2" s="78" t="n">
         <v>3335.75</v>
       </c>
-      <c r="AC2" s="78" t="n">
+      <c r="AD2" s="78" t="n">
         <v>3351.31</v>
       </c>
-      <c r="AD2" s="78" t="n">
+      <c r="AE2" s="78" t="n">
         <v>3373.75</v>
-      </c>
-      <c r="AE2" s="78" t="n">
-        <v>3368.7</v>
       </c>
     </row>
     <row r="3">
@@ -1705,134 +1705,134 @@
           <t>red</t>
         </is>
       </c>
-      <c r="C3" s="80" t="inlineStr">
+      <c r="C3" s="79" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="D3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="D3" s="79" t="inlineStr">
+      <c r="E3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="E3" s="79" t="inlineStr">
+      <c r="F3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F3" s="79" t="inlineStr">
+      <c r="G3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="G3" s="81" t="inlineStr">
+      <c r="H3" s="81" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="H3" s="80" t="inlineStr">
+      <c r="I3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="I3" s="80" t="inlineStr">
+      <c r="J3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="J3" s="80" t="inlineStr">
+      <c r="K3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="K3" s="79" t="inlineStr">
+      <c r="L3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="L3" s="79" t="inlineStr">
+      <c r="M3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="M3" s="79" t="inlineStr">
+      <c r="N3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="N3" s="79" t="inlineStr">
+      <c r="O3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="O3" s="79" t="inlineStr">
+      <c r="P3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="P3" s="79" t="inlineStr">
+      <c r="Q3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="Q3" s="79" t="inlineStr">
+      <c r="R3" s="79" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="R3" s="80" t="inlineStr">
+      <c r="S3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="S3" s="80" t="inlineStr">
+      <c r="T3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="T3" s="80" t="inlineStr">
+      <c r="U3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="U3" s="80" t="inlineStr">
+      <c r="V3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="V3" s="80" t="inlineStr">
+      <c r="W3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="W3" s="81" t="inlineStr">
+      <c r="X3" s="81" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="X3" s="81" t="inlineStr">
+      <c r="Y3" s="81" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="Y3" s="80" t="inlineStr">
+      <c r="Z3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="Z3" s="80" t="inlineStr">
+      <c r="AA3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="AA3" s="80" t="inlineStr">
+      <c r="AB3" s="80" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="AB3" s="81" t="inlineStr">
-        <is>
-          <t>green</t>
         </is>
       </c>
       <c r="AC3" s="81" t="inlineStr">
@@ -1858,94 +1858,94 @@
         </is>
       </c>
       <c r="B4" s="78" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C4" s="78" t="n">
         <v>0.82</v>
       </c>
-      <c r="C4" s="78" t="n">
+      <c r="D4" s="78" t="n">
         <v>-0.3</v>
       </c>
-      <c r="D4" s="78" t="n">
+      <c r="E4" s="78" t="n">
         <v>0.28</v>
       </c>
-      <c r="E4" s="78" t="n">
+      <c r="F4" s="78" t="n">
         <v>0.8</v>
       </c>
-      <c r="F4" s="78" t="n">
+      <c r="G4" s="78" t="n">
         <v>1.13</v>
       </c>
-      <c r="G4" s="78" t="n">
+      <c r="H4" s="78" t="n">
         <v>-0.23</v>
       </c>
-      <c r="H4" s="78" t="n">
+      <c r="I4" s="78" t="n">
         <v>-0.05</v>
       </c>
-      <c r="I4" s="78" t="n">
+      <c r="J4" s="78" t="n">
         <v>-0.2</v>
       </c>
-      <c r="J4" s="78" t="n">
+      <c r="K4" s="78" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="K4" s="78" t="n">
+      <c r="L4" s="78" t="n">
         <v>0.03</v>
       </c>
-      <c r="L4" s="78" t="n">
+      <c r="M4" s="78" t="n">
         <v>-0.1</v>
       </c>
-      <c r="M4" s="78" t="n">
+      <c r="N4" s="78" t="n">
         <v>0.25</v>
       </c>
-      <c r="N4" s="78" t="n">
+      <c r="O4" s="78" t="n">
         <v>0.45</v>
       </c>
-      <c r="O4" s="78" t="n">
+      <c r="P4" s="78" t="n">
         <v>-0.11</v>
       </c>
-      <c r="P4" s="78" t="n">
+      <c r="Q4" s="78" t="n">
         <v>0.13</v>
       </c>
-      <c r="Q4" s="78" t="n">
+      <c r="R4" s="78" t="n">
         <v>0.26</v>
       </c>
-      <c r="R4" s="78" t="n">
+      <c r="S4" s="78" t="n">
         <v>0.15</v>
       </c>
-      <c r="S4" s="78" t="n">
+      <c r="T4" s="78" t="n">
         <v>0.76</v>
       </c>
-      <c r="T4" s="78" t="n">
+      <c r="U4" s="78" t="n">
         <v>0.45</v>
       </c>
-      <c r="U4" s="78" t="n">
+      <c r="V4" s="78" t="n">
         <v>1.16</v>
       </c>
-      <c r="V4" s="78" t="n">
+      <c r="W4" s="78" t="n">
         <v>1.31</v>
       </c>
-      <c r="W4" s="78" t="n">
+      <c r="X4" s="78" t="n">
         <v>1.58</v>
       </c>
-      <c r="X4" s="78" t="n">
+      <c r="Y4" s="78" t="n">
         <v>-7.34</v>
       </c>
-      <c r="Y4" s="78" t="n">
+      <c r="Z4" s="78" t="n">
         <v>-0.24</v>
       </c>
-      <c r="Z4" s="78" t="n">
+      <c r="AA4" s="78" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA4" s="78" t="n">
+      <c r="AB4" s="78" t="n">
         <v>0.38</v>
       </c>
-      <c r="AB4" s="78" t="n">
+      <c r="AC4" s="78" t="n">
         <v>-0.46</v>
       </c>
-      <c r="AC4" s="78" t="n">
+      <c r="AD4" s="78" t="n">
         <v>-0.67</v>
       </c>
-      <c r="AD4" s="78" t="n">
+      <c r="AE4" s="78" t="n">
         <v>0.15</v>
-      </c>
-      <c r="AE4" s="78" t="n">
-        <v>-0.04</v>
       </c>
     </row>
     <row r="5">
@@ -1955,94 +1955,94 @@
         </is>
       </c>
       <c r="B5" s="78" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="78" t="n">
         <v>1.54</v>
       </c>
-      <c r="C5" s="78" t="n">
+      <c r="D5" s="78" t="n">
         <v>0.6</v>
       </c>
-      <c r="D5" s="78" t="n">
+      <c r="E5" s="78" t="n">
         <v>1.46</v>
       </c>
-      <c r="E5" s="78" t="n">
+      <c r="F5" s="78" t="n">
         <v>2.2</v>
       </c>
-      <c r="F5" s="78" t="n">
+      <c r="G5" s="78" t="n">
         <v>2.68</v>
       </c>
-      <c r="G5" s="78" t="n">
+      <c r="H5" s="78" t="n">
         <v>0.87</v>
       </c>
-      <c r="H5" s="78" t="n">
+      <c r="I5" s="78" t="n">
         <v>1.05</v>
       </c>
-      <c r="I5" s="78" t="n">
+      <c r="J5" s="78" t="n">
         <v>1.8</v>
       </c>
-      <c r="J5" s="78" t="n">
+      <c r="K5" s="78" t="n">
         <v>2.53</v>
       </c>
-      <c r="K5" s="78" t="n">
+      <c r="L5" s="78" t="n">
         <v>1.69</v>
       </c>
-      <c r="L5" s="78" t="n">
+      <c r="M5" s="78" t="n">
         <v>1.6</v>
       </c>
-      <c r="M5" s="78" t="n">
+      <c r="N5" s="78" t="n">
         <v>1.79</v>
       </c>
-      <c r="N5" s="78" t="n">
+      <c r="O5" s="78" t="n">
         <v>1.71</v>
       </c>
-      <c r="O5" s="78" t="n">
+      <c r="P5" s="78" t="n">
         <v>1.54</v>
       </c>
-      <c r="P5" s="78" t="n">
+      <c r="Q5" s="78" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q5" s="78" t="n">
+      <c r="R5" s="78" t="n">
         <v>3.65</v>
       </c>
-      <c r="R5" s="78" t="n">
+      <c r="S5" s="78" t="n">
         <v>3.13</v>
       </c>
-      <c r="S5" s="78" t="n">
+      <c r="T5" s="78" t="n">
         <v>1.6</v>
       </c>
-      <c r="T5" s="78" t="n">
+      <c r="U5" s="78" t="n">
         <v>0.25</v>
       </c>
-      <c r="U5" s="78" t="n">
+      <c r="V5" s="78" t="n">
         <v>-0.19</v>
       </c>
-      <c r="V5" s="78" t="n">
+      <c r="W5" s="78" t="n">
         <v>-0.63</v>
       </c>
-      <c r="W5" s="78" t="n">
+      <c r="X5" s="78" t="n">
         <v>-2.05</v>
       </c>
-      <c r="X5" s="78" t="n">
+      <c r="Y5" s="78" t="n">
         <v>-5.09</v>
       </c>
-      <c r="Y5" s="78" t="n">
+      <c r="Z5" s="78" t="n">
         <v>-0.29</v>
       </c>
-      <c r="Z5" s="78" t="n">
+      <c r="AA5" s="78" t="n">
         <v>-1.68</v>
       </c>
-      <c r="AA5" s="78" t="n">
+      <c r="AB5" s="78" t="n">
         <v>-1.52</v>
       </c>
-      <c r="AB5" s="78" t="n">
+      <c r="AC5" s="78" t="n">
         <v>-1.83</v>
       </c>
-      <c r="AC5" s="78" t="n">
+      <c r="AD5" s="78" t="n">
         <v>-1.24</v>
       </c>
-      <c r="AD5" s="78" t="n">
+      <c r="AE5" s="78" t="n">
         <v>-0.58</v>
-      </c>
-      <c r="AE5" s="78" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="6">
@@ -2052,94 +2052,94 @@
         </is>
       </c>
       <c r="B6" s="78" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="C6" s="78" t="n">
         <v>-2.41</v>
       </c>
-      <c r="C6" s="78" t="n">
+      <c r="D6" s="78" t="n">
         <v>-3.71</v>
       </c>
-      <c r="D6" s="78" t="n">
+      <c r="E6" s="78" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="E6" s="78" t="n">
+      <c r="F6" s="78" t="n">
         <v>-1.31</v>
       </c>
-      <c r="F6" s="78" t="n">
+      <c r="G6" s="78" t="n">
         <v>0.18</v>
-      </c>
-      <c r="G6" s="78" t="n">
-        <v>0.21</v>
       </c>
       <c r="H6" s="78" t="n">
         <v>0.21</v>
       </c>
       <c r="I6" s="78" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J6" s="78" t="n">
         <v>0.68</v>
       </c>
-      <c r="J6" s="78" t="n">
+      <c r="K6" s="78" t="n">
         <v>0.26</v>
       </c>
-      <c r="K6" s="78" t="n">
+      <c r="L6" s="78" t="n">
         <v>-0.75</v>
       </c>
-      <c r="L6" s="78" t="n">
+      <c r="M6" s="78" t="n">
         <v>-0.1</v>
       </c>
-      <c r="M6" s="78" t="n">
+      <c r="N6" s="78" t="n">
         <v>0.59</v>
       </c>
-      <c r="N6" s="78" t="n">
+      <c r="O6" s="78" t="n">
         <v>-0.34</v>
       </c>
-      <c r="O6" s="78" t="n">
+      <c r="P6" s="78" t="n">
         <v>-0.28</v>
       </c>
-      <c r="P6" s="78" t="n">
+      <c r="Q6" s="78" t="n">
         <v>0.37</v>
       </c>
-      <c r="Q6" s="78" t="n">
+      <c r="R6" s="78" t="n">
         <v>0.44</v>
       </c>
-      <c r="R6" s="78" t="n">
+      <c r="S6" s="78" t="n">
         <v>3.1</v>
       </c>
-      <c r="S6" s="78" t="n">
+      <c r="T6" s="78" t="n">
         <v>1.87</v>
       </c>
-      <c r="T6" s="78" t="n">
+      <c r="U6" s="78" t="n">
         <v>1.15</v>
       </c>
-      <c r="U6" s="78" t="n">
+      <c r="V6" s="78" t="n">
         <v>-1.85</v>
       </c>
-      <c r="V6" s="78" t="n">
+      <c r="W6" s="78" t="n">
         <v>-0.96</v>
       </c>
-      <c r="W6" s="78" t="n">
+      <c r="X6" s="78" t="n">
         <v>-4.74</v>
       </c>
-      <c r="X6" s="78" t="n">
+      <c r="Y6" s="78" t="n">
         <v>-4.98</v>
       </c>
-      <c r="Y6" s="78" t="n">
+      <c r="Z6" s="78" t="n">
         <v>-4.23</v>
       </c>
-      <c r="Z6" s="78" t="n">
+      <c r="AA6" s="78" t="n">
         <v>0.41</v>
       </c>
-      <c r="AA6" s="78" t="n">
+      <c r="AB6" s="78" t="n">
         <v>8.449999999999999</v>
       </c>
-      <c r="AB6" s="78" t="n">
+      <c r="AC6" s="78" t="n">
         <v>11.16</v>
       </c>
-      <c r="AC6" s="78" t="n">
+      <c r="AD6" s="78" t="n">
         <v>15.71</v>
       </c>
-      <c r="AD6" s="78" t="n">
+      <c r="AE6" s="78" t="n">
         <v>17.83</v>
-      </c>
-      <c r="AE6" s="78" t="n">
-        <v>22.55</v>
       </c>
     </row>
     <row r="7">
@@ -2149,94 +2149,94 @@
         </is>
       </c>
       <c r="B7" s="78" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C7" s="78" t="n">
         <v>1.68</v>
       </c>
-      <c r="C7" s="78" t="n">
+      <c r="D7" s="78" t="n">
         <v>1.54</v>
       </c>
-      <c r="D7" s="78" t="n">
+      <c r="E7" s="78" t="n">
         <v>1.67</v>
       </c>
-      <c r="E7" s="78" t="n">
+      <c r="F7" s="78" t="n">
         <v>1.9</v>
       </c>
-      <c r="F7" s="78" t="n">
+      <c r="G7" s="78" t="n">
         <v>1.74</v>
       </c>
-      <c r="G7" s="78" t="n">
+      <c r="H7" s="78" t="n">
         <v>1.55</v>
       </c>
-      <c r="H7" s="78" t="n">
+      <c r="I7" s="78" t="n">
         <v>1.35</v>
       </c>
-      <c r="I7" s="78" t="n">
+      <c r="J7" s="78" t="n">
         <v>1.4</v>
-      </c>
-      <c r="J7" s="78" t="n">
-        <v>1.47</v>
       </c>
       <c r="K7" s="78" t="n">
         <v>1.47</v>
       </c>
       <c r="L7" s="78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M7" s="78" t="n">
         <v>1.62</v>
       </c>
-      <c r="M7" s="78" t="n">
+      <c r="N7" s="78" t="n">
         <v>1.44</v>
       </c>
-      <c r="N7" s="78" t="n">
+      <c r="O7" s="78" t="n">
         <v>1.38</v>
       </c>
-      <c r="O7" s="78" t="n">
+      <c r="P7" s="78" t="n">
         <v>1.22</v>
       </c>
-      <c r="P7" s="78" t="n">
+      <c r="Q7" s="78" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q7" s="78" t="n">
+      <c r="R7" s="78" t="n">
         <v>1.48</v>
       </c>
-      <c r="R7" s="78" t="n">
+      <c r="S7" s="78" t="n">
         <v>1.44</v>
       </c>
-      <c r="S7" s="78" t="n">
+      <c r="T7" s="78" t="n">
         <v>1.7</v>
       </c>
-      <c r="T7" s="78" t="n">
+      <c r="U7" s="78" t="n">
         <v>1.81</v>
       </c>
-      <c r="U7" s="78" t="n">
-        <v>2.17</v>
-      </c>
       <c r="V7" s="78" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W7" s="78" t="n">
         <v>2.33</v>
       </c>
-      <c r="W7" s="78" t="n">
+      <c r="X7" s="78" t="n">
         <v>2.26</v>
       </c>
-      <c r="X7" s="78" t="n">
+      <c r="Y7" s="78" t="n">
         <v>2.24</v>
       </c>
-      <c r="Y7" s="78" t="n">
+      <c r="Z7" s="78" t="n">
         <v>1.47</v>
       </c>
-      <c r="Z7" s="78" t="n">
+      <c r="AA7" s="78" t="n">
         <v>1.25</v>
       </c>
-      <c r="AA7" s="78" t="n">
+      <c r="AB7" s="78" t="n">
         <v>1.45</v>
       </c>
-      <c r="AB7" s="78" t="n">
+      <c r="AC7" s="78" t="n">
         <v>1.57</v>
       </c>
-      <c r="AC7" s="78" t="n">
+      <c r="AD7" s="78" t="n">
         <v>1.43</v>
       </c>
-      <c r="AD7" s="78" t="n">
+      <c r="AE7" s="78" t="n">
         <v>1.51</v>
-      </c>
-      <c r="AE7" s="78" t="n">
-        <v>1.47</v>
       </c>
     </row>
     <row r="8">
@@ -2246,94 +2246,94 @@
         </is>
       </c>
       <c r="B8" s="78" t="n">
+        <v>12915.5</v>
+      </c>
+      <c r="C8" s="78" t="n">
         <v>13084.21</v>
       </c>
-      <c r="C8" s="78" t="n">
+      <c r="D8" s="78" t="n">
         <v>11920.22</v>
       </c>
-      <c r="D8" s="78" t="n">
+      <c r="E8" s="78" t="n">
         <v>12934.02</v>
       </c>
-      <c r="E8" s="78" t="n">
+      <c r="F8" s="78" t="n">
         <v>14683.33</v>
       </c>
-      <c r="F8" s="78" t="n">
+      <c r="G8" s="78" t="n">
         <v>13361.91</v>
       </c>
-      <c r="G8" s="78" t="n">
+      <c r="H8" s="78" t="n">
         <v>11693.42</v>
       </c>
-      <c r="H8" s="78" t="n">
+      <c r="I8" s="78" t="n">
         <v>10221.2</v>
       </c>
-      <c r="I8" s="78" t="n">
+      <c r="J8" s="78" t="n">
         <v>10564.07</v>
       </c>
-      <c r="J8" s="78" t="n">
+      <c r="K8" s="78" t="n">
         <v>11135.67</v>
       </c>
-      <c r="K8" s="78" t="n">
+      <c r="L8" s="78" t="n">
         <v>11090.19</v>
       </c>
-      <c r="L8" s="78" t="n">
+      <c r="M8" s="78" t="n">
         <v>12297.14</v>
       </c>
-      <c r="M8" s="78" t="n">
+      <c r="N8" s="78" t="n">
         <v>10900.02</v>
       </c>
-      <c r="N8" s="78" t="n">
+      <c r="O8" s="78" t="n">
         <v>10414.04</v>
       </c>
-      <c r="O8" s="78" t="n">
+      <c r="P8" s="78" t="n">
         <v>9146.559999999999</v>
       </c>
-      <c r="P8" s="78" t="n">
+      <c r="Q8" s="78" t="n">
         <v>9994.549999999999</v>
       </c>
-      <c r="Q8" s="78" t="n">
+      <c r="R8" s="78" t="n">
         <v>11119.04</v>
       </c>
-      <c r="R8" s="78" t="n">
+      <c r="S8" s="78" t="n">
         <v>10771.94</v>
       </c>
-      <c r="S8" s="78" t="n">
+      <c r="T8" s="78" t="n">
         <v>12774.74</v>
       </c>
-      <c r="T8" s="78" t="n">
+      <c r="U8" s="78" t="n">
         <v>13486.65</v>
       </c>
-      <c r="U8" s="78" t="n">
+      <c r="V8" s="78" t="n">
         <v>16094.68</v>
       </c>
-      <c r="V8" s="78" t="n">
+      <c r="W8" s="78" t="n">
         <v>16996.05</v>
       </c>
-      <c r="W8" s="78" t="n">
+      <c r="X8" s="78" t="n">
         <v>16256.43</v>
       </c>
-      <c r="X8" s="78" t="n">
+      <c r="Y8" s="78" t="n">
         <v>15877.99</v>
       </c>
-      <c r="Y8" s="78" t="n">
+      <c r="Z8" s="78" t="n">
         <v>11376.2</v>
       </c>
-      <c r="Z8" s="78" t="n">
+      <c r="AA8" s="78" t="n">
         <v>9744.93</v>
       </c>
-      <c r="AA8" s="78" t="n">
+      <c r="AB8" s="78" t="n">
         <v>11322.67</v>
       </c>
-      <c r="AB8" s="78" t="n">
+      <c r="AC8" s="78" t="n">
         <v>12215.3</v>
       </c>
-      <c r="AC8" s="78" t="n">
+      <c r="AD8" s="78" t="n">
         <v>11189.74</v>
       </c>
-      <c r="AD8" s="78" t="n">
+      <c r="AE8" s="78" t="n">
         <v>11906.9</v>
-      </c>
-      <c r="AE8" s="78" t="n">
-        <v>11543.05</v>
       </c>
     </row>
     <row r="9">
@@ -2343,94 +2343,94 @@
         </is>
       </c>
       <c r="B9" s="82" t="n">
+        <v>0.5148</v>
+      </c>
+      <c r="C9" s="82" t="n">
         <v>0.5223</v>
       </c>
-      <c r="C9" s="82" t="n">
+      <c r="D9" s="82" t="n">
         <v>0.4833</v>
       </c>
-      <c r="D9" s="82" t="n">
-        <v>0.5016</v>
-      </c>
       <c r="E9" s="82" t="n">
+        <v>0.5017</v>
+      </c>
+      <c r="F9" s="82" t="n">
         <v>0.4887</v>
       </c>
-      <c r="F9" s="82" t="n">
+      <c r="G9" s="82" t="n">
         <v>0.4681</v>
       </c>
-      <c r="G9" s="82" t="n">
+      <c r="H9" s="82" t="n">
         <v>0.4218</v>
       </c>
-      <c r="H9" s="82" t="n">
-        <v>0.42</v>
-      </c>
       <c r="I9" s="82" t="n">
+        <v>0.4201</v>
+      </c>
+      <c r="J9" s="82" t="n">
         <v>0.4171</v>
       </c>
-      <c r="J9" s="82" t="n">
+      <c r="K9" s="82" t="n">
         <v>0.4302</v>
       </c>
-      <c r="K9" s="82" t="n">
-        <v>0.4272</v>
-      </c>
       <c r="L9" s="82" t="n">
-        <v>0.4329</v>
+        <v>0.4273</v>
       </c>
       <c r="M9" s="82" t="n">
-        <v>0.4337</v>
+        <v>0.433</v>
       </c>
       <c r="N9" s="82" t="n">
+        <v>0.4338</v>
+      </c>
+      <c r="O9" s="82" t="n">
         <v>0.432</v>
       </c>
-      <c r="O9" s="82" t="n">
+      <c r="P9" s="82" t="n">
         <v>0.4075</v>
       </c>
-      <c r="P9" s="82" t="n">
+      <c r="Q9" s="82" t="n">
         <v>0.4134</v>
       </c>
-      <c r="Q9" s="82" t="n">
+      <c r="R9" s="82" t="n">
         <v>0.4119</v>
       </c>
-      <c r="R9" s="82" t="n">
+      <c r="S9" s="82" t="n">
         <v>0.4103</v>
       </c>
-      <c r="S9" s="82" t="n">
+      <c r="T9" s="82" t="n">
         <v>0.4087</v>
       </c>
-      <c r="T9" s="82" t="n">
+      <c r="U9" s="82" t="n">
         <v>0.3838</v>
       </c>
-      <c r="U9" s="82" t="n">
-        <v>0.376</v>
-      </c>
       <c r="V9" s="82" t="n">
+        <v>0.3761</v>
+      </c>
+      <c r="W9" s="82" t="n">
         <v>0.3509</v>
       </c>
-      <c r="W9" s="82" t="n">
-        <v>0.3106</v>
-      </c>
       <c r="X9" s="82" t="n">
+        <v>0.3105</v>
+      </c>
+      <c r="Y9" s="82" t="n">
         <v>0.2411</v>
       </c>
-      <c r="Y9" s="82" t="n">
+      <c r="Z9" s="82" t="n">
         <v>0.4036</v>
       </c>
-      <c r="Z9" s="82" t="n">
+      <c r="AA9" s="82" t="n">
         <v>0.419</v>
       </c>
-      <c r="AA9" s="82" t="n">
-        <v>0.4186</v>
-      </c>
       <c r="AB9" s="82" t="n">
-        <v>0.399</v>
+        <v>0.4185</v>
       </c>
       <c r="AC9" s="82" t="n">
+        <v>0.3991</v>
+      </c>
+      <c r="AD9" s="82" t="n">
         <v>0.4202</v>
       </c>
-      <c r="AD9" s="82" t="n">
+      <c r="AE9" s="82" t="n">
         <v>0.4505</v>
-      </c>
-      <c r="AE9" s="82" t="n">
-        <v>0.4491</v>
       </c>
     </row>
     <row r="10">
@@ -2440,94 +2440,94 @@
         </is>
       </c>
       <c r="B10" s="82" t="n">
+        <v>0.824234</v>
+      </c>
+      <c r="C10" s="82" t="n">
         <v>0.785181</v>
       </c>
-      <c r="C10" s="82" t="n">
+      <c r="D10" s="82" t="n">
         <v>0.587917</v>
       </c>
-      <c r="D10" s="82" t="n">
+      <c r="E10" s="82" t="n">
         <v>0.627611</v>
       </c>
-      <c r="E10" s="82" t="n">
+      <c r="F10" s="82" t="n">
         <v>0.563703</v>
       </c>
-      <c r="F10" s="82" t="n">
+      <c r="G10" s="82" t="n">
         <v>0.450801</v>
       </c>
-      <c r="G10" s="82" t="n">
+      <c r="H10" s="82" t="n">
         <v>0.355136</v>
       </c>
-      <c r="H10" s="82" t="n">
+      <c r="I10" s="82" t="n">
         <v>0.374752</v>
       </c>
-      <c r="I10" s="82" t="n">
+      <c r="J10" s="82" t="n">
         <v>0.38209</v>
       </c>
-      <c r="J10" s="82" t="n">
+      <c r="K10" s="82" t="n">
         <v>0.400155</v>
       </c>
-      <c r="K10" s="82" t="n">
+      <c r="L10" s="82" t="n">
         <v>0.405107</v>
       </c>
-      <c r="L10" s="82" t="n">
+      <c r="M10" s="82" t="n">
         <v>0.403128</v>
       </c>
-      <c r="M10" s="82" t="n">
+      <c r="N10" s="82" t="n">
         <v>0.412532</v>
       </c>
-      <c r="N10" s="82" t="n">
+      <c r="O10" s="82" t="n">
         <v>0.3954</v>
       </c>
-      <c r="O10" s="82" t="n">
+      <c r="P10" s="82" t="n">
         <v>0.360358</v>
       </c>
-      <c r="P10" s="82" t="n">
+      <c r="Q10" s="82" t="n">
         <v>0.368933</v>
       </c>
-      <c r="Q10" s="82" t="n">
+      <c r="R10" s="82" t="n">
         <v>0.360351</v>
       </c>
-      <c r="R10" s="82" t="n">
+      <c r="S10" s="82" t="n">
         <v>0.347046</v>
       </c>
-      <c r="S10" s="82" t="n">
+      <c r="T10" s="82" t="n">
         <v>0.334914</v>
       </c>
-      <c r="T10" s="82" t="n">
+      <c r="U10" s="82" t="n">
         <v>0.280438</v>
       </c>
-      <c r="U10" s="82" t="n">
+      <c r="V10" s="82" t="n">
         <v>0.245661</v>
       </c>
-      <c r="V10" s="82" t="n">
+      <c r="W10" s="82" t="n">
         <v>0.188123</v>
       </c>
-      <c r="W10" s="82" t="n">
+      <c r="X10" s="82" t="n">
         <v>0.0985</v>
       </c>
-      <c r="X10" s="82" t="n">
+      <c r="Y10" s="82" t="n">
         <v>0.043815</v>
       </c>
-      <c r="Y10" s="82" t="n">
+      <c r="Z10" s="82" t="n">
         <v>0.517835</v>
       </c>
-      <c r="Z10" s="82" t="n">
+      <c r="AA10" s="82" t="n">
         <v>0.509166</v>
       </c>
-      <c r="AA10" s="82" t="n">
+      <c r="AB10" s="82" t="n">
         <v>0.523496</v>
       </c>
-      <c r="AB10" s="82" t="n">
+      <c r="AC10" s="82" t="n">
         <v>0.463485</v>
       </c>
-      <c r="AC10" s="82" t="n">
+      <c r="AD10" s="82" t="n">
         <v>0.541198</v>
       </c>
-      <c r="AD10" s="82" t="n">
+      <c r="AE10" s="82" t="n">
         <v>0.686418</v>
-      </c>
-      <c r="AE10" s="82" t="n">
-        <v>0.65756</v>
       </c>
     </row>
     <row r="11" ht="19" customFormat="1" customHeight="1" s="31">
@@ -2537,94 +2537,94 @@
         </is>
       </c>
       <c r="B11" s="84" t="n">
+        <v>0.07879999999999998</v>
+      </c>
+      <c r="C11" s="84" t="n">
         <v>0.07910000000000003</v>
       </c>
-      <c r="C11" s="84" t="n">
-        <v>0.08119999999999999</v>
-      </c>
       <c r="D11" s="84" t="n">
-        <v>0.08240000000000003</v>
+        <v>0.08129999999999998</v>
       </c>
       <c r="E11" s="84" t="n">
+        <v>0.08230000000000001</v>
+      </c>
+      <c r="F11" s="84" t="n">
         <v>0.08379999999999999</v>
       </c>
-      <c r="F11" s="84" t="n">
+      <c r="G11" s="84" t="n">
         <v>0.0844</v>
       </c>
-      <c r="G11" s="84" t="n">
-        <v>0.0867</v>
-      </c>
       <c r="H11" s="84" t="n">
-        <v>0.08770000000000003</v>
+        <v>0.08679999999999999</v>
       </c>
       <c r="I11" s="84" t="n">
+        <v>0.08780000000000002</v>
+      </c>
+      <c r="J11" s="84" t="n">
         <v>0.09</v>
       </c>
-      <c r="J11" s="84" t="n">
+      <c r="K11" s="84" t="n">
         <v>0.09239999999999998</v>
       </c>
-      <c r="K11" s="84" t="n">
+      <c r="L11" s="84" t="n">
         <v>0.09749999999999998</v>
       </c>
-      <c r="L11" s="84" t="n">
+      <c r="M11" s="84" t="n">
         <v>0.1022</v>
       </c>
-      <c r="M11" s="84" t="n">
+      <c r="N11" s="84" t="n">
         <v>0.1032</v>
       </c>
-      <c r="N11" s="84" t="n">
+      <c r="O11" s="84" t="n">
         <v>0.1049</v>
       </c>
-      <c r="O11" s="84" t="n">
+      <c r="P11" s="84" t="n">
         <v>0.1094</v>
       </c>
-      <c r="P11" s="84" t="n">
-        <v>0.1122</v>
-      </c>
       <c r="Q11" s="84" t="n">
-        <v>0.1142</v>
+        <v>0.1123</v>
       </c>
       <c r="R11" s="84" t="n">
-        <v>0.1166</v>
+        <v>0.1141</v>
       </c>
       <c r="S11" s="84" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="T11" s="84" t="n">
         <v>0.1175</v>
       </c>
-      <c r="T11" s="84" t="n">
+      <c r="U11" s="84" t="n">
         <v>0.122</v>
       </c>
-      <c r="U11" s="84" t="n">
+      <c r="V11" s="84" t="n">
         <v>0.1251</v>
       </c>
-      <c r="V11" s="84" t="n">
+      <c r="W11" s="84" t="n">
         <v>0.1337</v>
       </c>
-      <c r="W11" s="84" t="n">
-        <v>0.1404</v>
-      </c>
       <c r="X11" s="84" t="n">
+        <v>0.1405</v>
+      </c>
+      <c r="Y11" s="84" t="n">
         <v>0.1495</v>
       </c>
-      <c r="Y11" s="84" t="n">
+      <c r="Z11" s="84" t="n">
         <v>0.1424</v>
       </c>
-      <c r="Z11" s="84" t="n">
-        <v>0.1452</v>
-      </c>
       <c r="AA11" s="84" t="n">
-        <v>0.1472</v>
+        <v>0.1453</v>
       </c>
       <c r="AB11" s="84" t="n">
+        <v>0.1473</v>
+      </c>
+      <c r="AC11" s="84" t="n">
         <v>0.1489</v>
       </c>
-      <c r="AC11" s="84" t="n">
+      <c r="AD11" s="84" t="n">
         <v>0.1501</v>
       </c>
-      <c r="AD11" s="84" t="n">
+      <c r="AE11" s="84" t="n">
         <v>0.1509</v>
-      </c>
-      <c r="AE11" s="84" t="n">
-        <v>0.1514</v>
       </c>
     </row>
     <row r="12">
@@ -2634,94 +2634,94 @@
         </is>
       </c>
       <c r="B12" s="78" t="n">
+        <v>26.84</v>
+      </c>
+      <c r="C12" s="78" t="n">
         <v>29.36</v>
       </c>
-      <c r="C12" s="78" t="n">
+      <c r="D12" s="78" t="n">
         <v>31.94</v>
       </c>
-      <c r="D12" s="78" t="n">
+      <c r="E12" s="78" t="n">
         <v>33.71</v>
       </c>
-      <c r="E12" s="78" t="n">
+      <c r="F12" s="78" t="n">
         <v>36.07</v>
       </c>
-      <c r="F12" s="78" t="n">
+      <c r="G12" s="78" t="n">
         <v>38.31</v>
       </c>
-      <c r="G12" s="78" t="n">
+      <c r="H12" s="78" t="n">
         <v>39.73</v>
       </c>
-      <c r="H12" s="78" t="n">
+      <c r="I12" s="78" t="n">
         <v>39.82</v>
       </c>
-      <c r="I12" s="78" t="n">
+      <c r="J12" s="78" t="n">
         <v>40.23</v>
       </c>
-      <c r="J12" s="78" t="n">
+      <c r="K12" s="78" t="n">
         <v>40.76</v>
       </c>
-      <c r="K12" s="78" t="n">
+      <c r="L12" s="78" t="n">
         <v>41.61</v>
       </c>
-      <c r="L12" s="78" t="n">
+      <c r="M12" s="78" t="n">
         <v>42.63</v>
       </c>
-      <c r="M12" s="78" t="n">
+      <c r="N12" s="78" t="n">
         <v>43.72</v>
       </c>
-      <c r="N12" s="78" t="n">
+      <c r="O12" s="78" t="n">
         <v>45.05</v>
       </c>
-      <c r="O12" s="78" t="n">
+      <c r="P12" s="78" t="n">
         <v>46.19</v>
       </c>
-      <c r="P12" s="78" t="n">
+      <c r="Q12" s="78" t="n">
         <v>46.86</v>
       </c>
-      <c r="Q12" s="78" t="n">
+      <c r="R12" s="78" t="n">
         <v>47.73</v>
       </c>
-      <c r="R12" s="78" t="n">
+      <c r="S12" s="78" t="n">
         <v>48.51</v>
       </c>
-      <c r="S12" s="78" t="n">
+      <c r="T12" s="78" t="n">
         <v>49.03</v>
       </c>
-      <c r="T12" s="78" t="n">
+      <c r="U12" s="78" t="n">
         <v>49.4</v>
       </c>
-      <c r="U12" s="78" t="n">
+      <c r="V12" s="78" t="n">
         <v>48.82</v>
       </c>
-      <c r="V12" s="78" t="n">
+      <c r="W12" s="78" t="n">
         <v>47.6</v>
       </c>
-      <c r="W12" s="78" t="n">
+      <c r="X12" s="78" t="n">
         <v>44.79</v>
       </c>
-      <c r="X12" s="78" t="n">
+      <c r="Y12" s="78" t="n">
         <v>40.02</v>
       </c>
-      <c r="Y12" s="78" t="n">
+      <c r="Z12" s="78" t="n">
         <v>32.73</v>
       </c>
-      <c r="Z12" s="78" t="n">
+      <c r="AA12" s="78" t="n">
         <v>32.44</v>
       </c>
-      <c r="AA12" s="78" t="n">
+      <c r="AB12" s="78" t="n">
         <v>31.66</v>
       </c>
-      <c r="AB12" s="78" t="n">
+      <c r="AC12" s="78" t="n">
         <v>30.73</v>
       </c>
-      <c r="AC12" s="78" t="n">
+      <c r="AD12" s="78" t="n">
         <v>29.15</v>
       </c>
-      <c r="AD12" s="78" t="n">
+      <c r="AE12" s="78" t="n">
         <v>28.13</v>
-      </c>
-      <c r="AE12" s="78" t="n">
-        <v>28.03</v>
       </c>
     </row>
     <row r="13">
@@ -2746,79 +2746,79 @@
         <v>0</v>
       </c>
       <c r="G13" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="85" t="n">
+      <c r="I13" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="I13" s="85" t="n">
+      <c r="J13" s="85" t="n">
         <v>0</v>
-      </c>
-      <c r="J13" s="85" t="n">
-        <v>1</v>
       </c>
       <c r="K13" s="85" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="85" t="n">
+      <c r="N13" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="N13" s="85" t="n">
+      <c r="O13" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="O13" s="85" t="n">
+      <c r="P13" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="85" t="n">
+      <c r="Q13" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="Q13" s="85" t="n">
+      <c r="R13" s="85" t="n">
         <v>1</v>
-      </c>
-      <c r="R13" s="85" t="n">
-        <v>0</v>
       </c>
       <c r="S13" s="85" t="n">
         <v>0</v>
       </c>
       <c r="T13" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="U13" s="85" t="n">
+      <c r="V13" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="V13" s="85" t="n">
-        <v>629</v>
-      </c>
       <c r="W13" s="85" t="n">
-        <v>243</v>
+        <v>641</v>
       </c>
       <c r="X13" s="85" t="n">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="Y13" s="85" t="n">
+        <v>271</v>
+      </c>
+      <c r="Z13" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="Z13" s="85" t="n">
+      <c r="AA13" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="AA13" s="85" t="n">
+      <c r="AB13" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="AB13" s="85" t="n">
-        <v>7</v>
-      </c>
       <c r="AC13" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="AD13" s="85" t="n">
+      <c r="AE13" s="85" t="n">
         <v>1</v>
-      </c>
-      <c r="AE13" s="85" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2888,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="W14" s="85" t="n">
-        <v>23</v>
-      </c>
       <c r="X14" s="85" t="n">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="Y14" s="85" t="n">
+        <v>163</v>
+      </c>
+      <c r="Z14" s="85" t="n">
         <v>6</v>
-      </c>
-      <c r="Z14" s="85" t="n">
-        <v>0</v>
       </c>
       <c r="AA14" s="85" t="n">
         <v>0</v>
@@ -2985,22 +2985,22 @@
         <v>0</v>
       </c>
       <c r="V15" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="W15" s="85" t="n">
+      <c r="X15" s="85" t="n">
         <v>59</v>
       </c>
-      <c r="X15" s="85" t="n">
+      <c r="Y15" s="85" t="n">
         <v>317</v>
       </c>
-      <c r="Y15" s="85" t="n">
+      <c r="Z15" s="85" t="n">
         <v>13</v>
       </c>
-      <c r="Z15" s="85" t="n">
+      <c r="AA15" s="85" t="n">
         <v>1</v>
-      </c>
-      <c r="AA15" s="85" t="n">
-        <v>0</v>
       </c>
       <c r="AB15" s="85" t="n">
         <v>0</v>
@@ -3031,85 +3031,85 @@
         <v>0</v>
       </c>
       <c r="E16" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="85" t="n">
+      <c r="G16" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="85" t="n">
+      <c r="H16" s="85" t="n">
         <v>19</v>
       </c>
-      <c r="H16" s="85" t="n">
+      <c r="I16" s="85" t="n">
         <v>54</v>
       </c>
-      <c r="I16" s="85" t="n">
+      <c r="J16" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="J16" s="85" t="n">
+      <c r="K16" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="85" t="n">
+      <c r="L16" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="L16" s="85" t="n">
+      <c r="M16" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="M16" s="85" t="n">
+      <c r="N16" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="85" t="n">
+      <c r="O16" s="85" t="n">
         <v>12</v>
       </c>
-      <c r="O16" s="85" t="n">
+      <c r="P16" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="P16" s="85" t="n">
+      <c r="Q16" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="85" t="n">
+      <c r="R16" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="R16" s="85" t="n">
+      <c r="S16" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="85" t="n">
+      <c r="T16" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="T16" s="85" t="n">
+      <c r="U16" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="U16" s="85" t="n">
+      <c r="V16" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="V16" s="85" t="n">
+      <c r="W16" s="85" t="n">
         <v>6121</v>
       </c>
-      <c r="W16" s="85" t="n">
+      <c r="X16" s="85" t="n">
         <v>1584</v>
       </c>
-      <c r="X16" s="85" t="n">
-        <v>3693</v>
-      </c>
       <c r="Y16" s="85" t="n">
+        <v>3692</v>
+      </c>
+      <c r="Z16" s="85" t="n">
         <v>62</v>
       </c>
-      <c r="Z16" s="85" t="n">
+      <c r="AA16" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="AA16" s="85" t="n">
+      <c r="AB16" s="85" t="n">
         <v>17</v>
       </c>
-      <c r="AB16" s="85" t="n">
+      <c r="AC16" s="85" t="n">
         <v>53</v>
       </c>
-      <c r="AC16" s="85" t="n">
+      <c r="AD16" s="85" t="n">
         <v>19</v>
       </c>
-      <c r="AD16" s="85" t="n">
+      <c r="AE16" s="85" t="n">
         <v>5</v>
-      </c>
-      <c r="AE16" s="85" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -3119,94 +3119,94 @@
         </is>
       </c>
       <c r="B17" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="85" t="n">
+      <c r="D17" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="85" t="n">
+      <c r="E17" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="85" t="n">
+      <c r="F17" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="85" t="n">
+      <c r="G17" s="85" t="n">
         <v>23</v>
       </c>
-      <c r="G17" s="85" t="n">
+      <c r="H17" s="85" t="n">
         <v>43</v>
       </c>
-      <c r="H17" s="85" t="n">
+      <c r="I17" s="85" t="n">
         <v>82</v>
       </c>
-      <c r="I17" s="85" t="n">
+      <c r="J17" s="85" t="n">
         <v>53</v>
       </c>
-      <c r="J17" s="85" t="n">
+      <c r="K17" s="85" t="n">
         <v>20</v>
       </c>
-      <c r="K17" s="85" t="n">
+      <c r="L17" s="85" t="n">
         <v>17</v>
       </c>
-      <c r="L17" s="85" t="n">
+      <c r="M17" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="M17" s="85" t="n">
+      <c r="N17" s="85" t="n">
         <v>19</v>
       </c>
-      <c r="N17" s="85" t="n">
+      <c r="O17" s="85" t="n">
         <v>23</v>
       </c>
-      <c r="O17" s="85" t="n">
+      <c r="P17" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="P17" s="85" t="n">
+      <c r="Q17" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="Q17" s="85" t="n">
+      <c r="R17" s="85" t="n">
         <v>24</v>
       </c>
-      <c r="R17" s="85" t="n">
+      <c r="S17" s="85" t="n">
         <v>17</v>
       </c>
-      <c r="S17" s="85" t="n">
+      <c r="T17" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="85" t="n">
+      <c r="U17" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="U17" s="85" t="n">
+      <c r="V17" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="85" t="n">
+      <c r="W17" s="85" t="n">
         <v>1351</v>
       </c>
-      <c r="W17" s="85" t="n">
+      <c r="X17" s="85" t="n">
         <v>1168</v>
       </c>
-      <c r="X17" s="85" t="n">
-        <v>2454</v>
-      </c>
       <c r="Y17" s="85" t="n">
+        <v>2453</v>
+      </c>
+      <c r="Z17" s="85" t="n">
         <v>325</v>
       </c>
-      <c r="Z17" s="85" t="n">
+      <c r="AA17" s="85" t="n">
         <v>89</v>
       </c>
-      <c r="AA17" s="85" t="n">
+      <c r="AB17" s="85" t="n">
         <v>106</v>
       </c>
-      <c r="AB17" s="85" t="n">
-        <v>234</v>
-      </c>
       <c r="AC17" s="85" t="n">
+        <v>233</v>
+      </c>
+      <c r="AD17" s="85" t="n">
         <v>92</v>
       </c>
-      <c r="AD17" s="85" t="n">
+      <c r="AE17" s="85" t="n">
         <v>33</v>
-      </c>
-      <c r="AE17" s="85" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -3216,94 +3216,94 @@
         </is>
       </c>
       <c r="B18" s="85" t="n">
+        <v>21</v>
+      </c>
+      <c r="C18" s="85" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="85" t="n">
+      <c r="D18" s="85" t="n">
         <v>28</v>
       </c>
-      <c r="D18" s="85" t="n">
+      <c r="E18" s="85" t="n">
         <v>18</v>
       </c>
-      <c r="E18" s="85" t="n">
+      <c r="F18" s="85" t="n">
         <v>22</v>
       </c>
-      <c r="F18" s="85" t="n">
+      <c r="G18" s="85" t="n">
         <v>35</v>
       </c>
-      <c r="G18" s="85" t="n">
+      <c r="H18" s="85" t="n">
         <v>122</v>
       </c>
-      <c r="H18" s="85" t="n">
+      <c r="I18" s="85" t="n">
         <v>147</v>
       </c>
-      <c r="I18" s="85" t="n">
+      <c r="J18" s="85" t="n">
         <v>222</v>
       </c>
-      <c r="J18" s="85" t="n">
+      <c r="K18" s="85" t="n">
         <v>79</v>
       </c>
-      <c r="K18" s="85" t="n">
+      <c r="L18" s="85" t="n">
         <v>94</v>
       </c>
-      <c r="L18" s="85" t="n">
+      <c r="M18" s="85" t="n">
         <v>32</v>
       </c>
-      <c r="M18" s="85" t="n">
+      <c r="N18" s="85" t="n">
         <v>52</v>
       </c>
-      <c r="N18" s="85" t="n">
+      <c r="O18" s="85" t="n">
         <v>27</v>
       </c>
-      <c r="O18" s="85" t="n">
+      <c r="P18" s="85" t="n">
         <v>49</v>
       </c>
-      <c r="P18" s="85" t="n">
+      <c r="Q18" s="85" t="n">
         <v>56</v>
       </c>
-      <c r="Q18" s="85" t="n">
+      <c r="R18" s="85" t="n">
         <v>65</v>
       </c>
-      <c r="R18" s="85" t="n">
+      <c r="S18" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="S18" s="85" t="n">
+      <c r="T18" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="T18" s="85" t="n">
+      <c r="U18" s="85" t="n">
         <v>16</v>
       </c>
-      <c r="U18" s="85" t="n">
+      <c r="V18" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="V18" s="85" t="n">
+      <c r="W18" s="85" t="n">
         <v>252</v>
       </c>
-      <c r="W18" s="85" t="n">
+      <c r="X18" s="85" t="n">
         <v>1239</v>
       </c>
-      <c r="X18" s="85" t="n">
+      <c r="Y18" s="85" t="n">
         <v>2637</v>
       </c>
-      <c r="Y18" s="85" t="n">
+      <c r="Z18" s="85" t="n">
         <v>182</v>
       </c>
-      <c r="Z18" s="85" t="n">
+      <c r="AA18" s="85" t="n">
         <v>87</v>
       </c>
-      <c r="AA18" s="85" t="n">
+      <c r="AB18" s="85" t="n">
         <v>99</v>
       </c>
-      <c r="AB18" s="85" t="n">
+      <c r="AC18" s="85" t="n">
         <v>311</v>
       </c>
-      <c r="AC18" s="85" t="n">
+      <c r="AD18" s="85" t="n">
         <v>168</v>
       </c>
-      <c r="AD18" s="85" t="n">
+      <c r="AE18" s="85" t="n">
         <v>76</v>
-      </c>
-      <c r="AE18" s="85" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -3316,91 +3316,91 @@
         <v>3</v>
       </c>
       <c r="C19" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="D19" s="85" t="n">
+      <c r="E19" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="85" t="n">
+      <c r="F19" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="85" t="n">
+      <c r="G19" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="85" t="n">
+      <c r="H19" s="85" t="n">
         <v>23</v>
       </c>
-      <c r="H19" s="85" t="n">
+      <c r="I19" s="85" t="n">
         <v>22</v>
       </c>
-      <c r="I19" s="85" t="n">
+      <c r="J19" s="85" t="n">
         <v>24</v>
       </c>
-      <c r="J19" s="85" t="n">
+      <c r="K19" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="K19" s="85" t="n">
+      <c r="L19" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="L19" s="85" t="n">
+      <c r="M19" s="85" t="n">
         <v>3</v>
       </c>
-      <c r="M19" s="85" t="n">
+      <c r="N19" s="85" t="n">
         <v>6</v>
-      </c>
-      <c r="N19" s="85" t="n">
-        <v>3</v>
       </c>
       <c r="O19" s="85" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="85" t="n">
         <v>11</v>
       </c>
-      <c r="Q19" s="85" t="n">
+      <c r="R19" s="85" t="n">
         <v>13</v>
       </c>
-      <c r="R19" s="85" t="n">
+      <c r="S19" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="S19" s="85" t="n">
+      <c r="T19" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="T19" s="85" t="n">
+      <c r="U19" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="U19" s="85" t="n">
+      <c r="V19" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="V19" s="85" t="n">
+      <c r="W19" s="85" t="n">
         <v>32</v>
       </c>
-      <c r="W19" s="85" t="n">
+      <c r="X19" s="85" t="n">
         <v>83</v>
       </c>
-      <c r="X19" s="85" t="n">
+      <c r="Y19" s="85" t="n">
         <v>288</v>
       </c>
-      <c r="Y19" s="85" t="n">
+      <c r="Z19" s="85" t="n">
         <v>25</v>
       </c>
-      <c r="Z19" s="85" t="n">
+      <c r="AA19" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="AA19" s="85" t="n">
+      <c r="AB19" s="85" t="n">
         <v>10</v>
       </c>
-      <c r="AB19" s="85" t="n">
+      <c r="AC19" s="85" t="n">
         <v>33</v>
       </c>
-      <c r="AC19" s="85" t="n">
+      <c r="AD19" s="85" t="n">
         <v>14</v>
       </c>
-      <c r="AD19" s="85" t="n">
+      <c r="AE19" s="85" t="n">
         <v>8</v>
-      </c>
-      <c r="AE19" s="85" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -3410,94 +3410,94 @@
         </is>
       </c>
       <c r="B20" s="85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C20" s="85" t="n">
         <v>42</v>
       </c>
       <c r="D20" s="85" t="n">
+        <v>43</v>
+      </c>
+      <c r="E20" s="85" t="n">
         <v>21</v>
       </c>
-      <c r="E20" s="85" t="n">
+      <c r="F20" s="85" t="n">
+        <v>31</v>
+      </c>
+      <c r="G20" s="85" t="n">
+        <v>22</v>
+      </c>
+      <c r="H20" s="85" t="n">
+        <v>23</v>
+      </c>
+      <c r="I20" s="85" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" s="85" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" s="85" t="n">
+        <v>30</v>
+      </c>
+      <c r="L20" s="85" t="n">
+        <v>24</v>
+      </c>
+      <c r="M20" s="85" t="n">
+        <v>15</v>
+      </c>
+      <c r="N20" s="85" t="n">
+        <v>36</v>
+      </c>
+      <c r="O20" s="85" t="n">
+        <v>36</v>
+      </c>
+      <c r="P20" s="85" t="n">
         <v>29</v>
       </c>
-      <c r="F20" s="85" t="n">
-        <v>20</v>
-      </c>
-      <c r="G20" s="85" t="n">
-        <v>24</v>
-      </c>
-      <c r="H20" s="85" t="n">
-        <v>26</v>
-      </c>
-      <c r="I20" s="85" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" s="85" t="n">
-        <v>30</v>
-      </c>
-      <c r="K20" s="85" t="n">
-        <v>25</v>
-      </c>
-      <c r="L20" s="85" t="n">
-        <v>16</v>
-      </c>
-      <c r="M20" s="85" t="n">
-        <v>35</v>
-      </c>
-      <c r="N20" s="85" t="n">
-        <v>35</v>
-      </c>
-      <c r="O20" s="85" t="n">
-        <v>28</v>
-      </c>
-      <c r="P20" s="85" t="n">
+      <c r="Q20" s="85" t="n">
         <v>43</v>
-      </c>
-      <c r="Q20" s="85" t="n">
-        <v>40</v>
       </c>
       <c r="R20" s="85" t="n">
         <v>40</v>
       </c>
       <c r="S20" s="85" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="T20" s="85" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="U20" s="85" t="n">
+        <v>38</v>
+      </c>
+      <c r="V20" s="85" t="n">
         <v>46</v>
       </c>
-      <c r="V20" s="85" t="n">
-        <v>50</v>
-      </c>
       <c r="W20" s="85" t="n">
+        <v>49</v>
+      </c>
+      <c r="X20" s="85" t="n">
         <v>25</v>
       </c>
-      <c r="X20" s="85" t="n">
+      <c r="Y20" s="85" t="n">
         <v>27</v>
       </c>
-      <c r="Y20" s="85" t="n">
-        <v>82</v>
-      </c>
       <c r="Z20" s="85" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AA20" s="85" t="n">
+        <v>79</v>
+      </c>
+      <c r="AB20" s="85" t="n">
         <v>73</v>
       </c>
-      <c r="AB20" s="85" t="n">
-        <v>50</v>
-      </c>
       <c r="AC20" s="85" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD20" s="85" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE20" s="85" t="n">
         <v>67</v>
-      </c>
-      <c r="AE20" s="85" t="n">
-        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -3507,94 +3507,94 @@
         </is>
       </c>
       <c r="B21" s="85" t="n">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="C21" s="85" t="n">
+        <v>282</v>
+      </c>
+      <c r="D21" s="85" t="n">
         <v>258</v>
       </c>
-      <c r="D21" s="85" t="n">
+      <c r="E21" s="85" t="n">
         <v>161</v>
       </c>
-      <c r="E21" s="85" t="n">
+      <c r="F21" s="85" t="n">
         <v>195</v>
       </c>
-      <c r="F21" s="85" t="n">
+      <c r="G21" s="85" t="n">
         <v>130</v>
       </c>
-      <c r="G21" s="85" t="n">
+      <c r="H21" s="85" t="n">
         <v>128</v>
       </c>
-      <c r="H21" s="85" t="n">
+      <c r="I21" s="85" t="n">
         <v>115</v>
       </c>
-      <c r="I21" s="85" t="n">
+      <c r="J21" s="85" t="n">
         <v>357</v>
       </c>
-      <c r="J21" s="85" t="n">
+      <c r="K21" s="85" t="n">
         <v>444</v>
       </c>
-      <c r="K21" s="85" t="n">
+      <c r="L21" s="85" t="n">
         <v>442</v>
       </c>
-      <c r="L21" s="85" t="n">
+      <c r="M21" s="85" t="n">
         <v>204</v>
       </c>
-      <c r="M21" s="85" t="n">
+      <c r="N21" s="85" t="n">
         <v>362</v>
       </c>
-      <c r="N21" s="85" t="n">
-        <v>574</v>
-      </c>
       <c r="O21" s="85" t="n">
+        <v>575</v>
+      </c>
+      <c r="P21" s="85" t="n">
         <v>509</v>
       </c>
-      <c r="P21" s="85" t="n">
+      <c r="Q21" s="85" t="n">
         <v>406</v>
       </c>
-      <c r="Q21" s="85" t="n">
+      <c r="R21" s="85" t="n">
         <v>400</v>
       </c>
-      <c r="R21" s="85" t="n">
+      <c r="S21" s="85" t="n">
         <v>116</v>
       </c>
-      <c r="S21" s="85" t="n">
+      <c r="T21" s="85" t="n">
         <v>105</v>
       </c>
-      <c r="T21" s="85" t="n">
+      <c r="U21" s="85" t="n">
         <v>124</v>
       </c>
-      <c r="U21" s="85" t="n">
+      <c r="V21" s="85" t="n">
         <v>177</v>
       </c>
-      <c r="V21" s="85" t="n">
+      <c r="W21" s="85" t="n">
         <v>260</v>
       </c>
-      <c r="W21" s="85" t="n">
+      <c r="X21" s="85" t="n">
         <v>142</v>
       </c>
-      <c r="X21" s="85" t="n">
+      <c r="Y21" s="85" t="n">
         <v>112</v>
       </c>
-      <c r="Y21" s="85" t="n">
+      <c r="Z21" s="85" t="n">
         <v>237</v>
       </c>
-      <c r="Z21" s="85" t="n">
+      <c r="AA21" s="85" t="n">
         <v>166</v>
       </c>
-      <c r="AA21" s="85" t="n">
+      <c r="AB21" s="85" t="n">
         <v>160</v>
       </c>
-      <c r="AB21" s="85" t="n">
+      <c r="AC21" s="85" t="n">
         <v>259</v>
       </c>
-      <c r="AC21" s="85" t="n">
+      <c r="AD21" s="85" t="n">
         <v>144</v>
       </c>
-      <c r="AD21" s="85" t="n">
+      <c r="AE21" s="85" t="n">
         <v>111</v>
-      </c>
-      <c r="AE21" s="85" t="n">
-        <v>174</v>
       </c>
     </row>
     <row r="22">
@@ -3604,94 +3604,94 @@
         </is>
       </c>
       <c r="B22" s="85" t="n">
+        <v>215</v>
+      </c>
+      <c r="C22" s="85" t="n">
         <v>253</v>
       </c>
-      <c r="C22" s="85" t="n">
+      <c r="D22" s="85" t="n">
         <v>215</v>
       </c>
-      <c r="D22" s="85" t="n">
+      <c r="E22" s="85" t="n">
         <v>276</v>
       </c>
-      <c r="E22" s="85" t="n">
+      <c r="F22" s="85" t="n">
         <v>267</v>
       </c>
-      <c r="F22" s="85" t="n">
+      <c r="G22" s="85" t="n">
         <v>230</v>
       </c>
-      <c r="G22" s="85" t="n">
+      <c r="H22" s="85" t="n">
         <v>121</v>
       </c>
-      <c r="H22" s="85" t="n">
+      <c r="I22" s="85" t="n">
         <v>137</v>
       </c>
-      <c r="I22" s="85" t="n">
+      <c r="J22" s="85" t="n">
         <v>125</v>
       </c>
-      <c r="J22" s="85" t="n">
+      <c r="K22" s="85" t="n">
         <v>147</v>
       </c>
-      <c r="K22" s="85" t="n">
+      <c r="L22" s="85" t="n">
         <v>168</v>
       </c>
-      <c r="L22" s="85" t="n">
+      <c r="M22" s="85" t="n">
         <v>118</v>
       </c>
-      <c r="M22" s="85" t="n">
+      <c r="N22" s="85" t="n">
         <v>222</v>
       </c>
-      <c r="N22" s="85" t="n">
+      <c r="O22" s="85" t="n">
         <v>161</v>
       </c>
-      <c r="O22" s="85" t="n">
+      <c r="P22" s="85" t="n">
         <v>107</v>
       </c>
-      <c r="P22" s="85" t="n">
+      <c r="Q22" s="85" t="n">
         <v>184</v>
       </c>
-      <c r="Q22" s="85" t="n">
+      <c r="R22" s="85" t="n">
         <v>136</v>
       </c>
-      <c r="R22" s="85" t="n">
+      <c r="S22" s="85" t="n">
         <v>156</v>
       </c>
-      <c r="S22" s="85" t="n">
+      <c r="T22" s="85" t="n">
         <v>173</v>
       </c>
-      <c r="T22" s="85" t="n">
+      <c r="U22" s="85" t="n">
         <v>113</v>
       </c>
-      <c r="U22" s="85" t="n">
+      <c r="V22" s="85" t="n">
         <v>166</v>
       </c>
-      <c r="V22" s="85" t="n">
+      <c r="W22" s="85" t="n">
         <v>144</v>
       </c>
-      <c r="W22" s="85" t="n">
+      <c r="X22" s="85" t="n">
         <v>126</v>
       </c>
-      <c r="X22" s="85" t="n">
+      <c r="Y22" s="85" t="n">
         <v>53</v>
       </c>
-      <c r="Y22" s="85" t="n">
+      <c r="Z22" s="85" t="n">
         <v>234</v>
       </c>
-      <c r="Z22" s="85" t="n">
+      <c r="AA22" s="85" t="n">
         <v>204</v>
       </c>
-      <c r="AA22" s="85" t="n">
+      <c r="AB22" s="85" t="n">
         <v>231</v>
       </c>
-      <c r="AB22" s="85" t="n">
+      <c r="AC22" s="85" t="n">
         <v>120</v>
       </c>
-      <c r="AC22" s="85" t="n">
+      <c r="AD22" s="85" t="n">
         <v>137</v>
       </c>
-      <c r="AD22" s="85" t="n">
+      <c r="AE22" s="85" t="n">
         <v>211</v>
-      </c>
-      <c r="AE22" s="85" t="n">
-        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -3701,94 +3701,94 @@
         </is>
       </c>
       <c r="B23" s="85" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C23" s="85" t="n">
         <v>19</v>
       </c>
       <c r="D23" s="85" t="n">
+        <v>19</v>
+      </c>
+      <c r="E23" s="85" t="n">
         <v>13</v>
-      </c>
-      <c r="E23" s="85" t="n">
-        <v>10</v>
       </c>
       <c r="F23" s="85" t="n">
         <v>10</v>
       </c>
       <c r="G23" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="85" t="n">
         <v>11</v>
       </c>
-      <c r="H23" s="85" t="n">
+      <c r="I23" s="85" t="n">
         <v>13</v>
       </c>
-      <c r="I23" s="85" t="n">
+      <c r="J23" s="85" t="n">
         <v>17</v>
       </c>
-      <c r="J23" s="85" t="n">
+      <c r="K23" s="85" t="n">
         <v>12</v>
       </c>
-      <c r="K23" s="85" t="n">
+      <c r="L23" s="85" t="n">
         <v>14</v>
       </c>
-      <c r="L23" s="85" t="n">
+      <c r="M23" s="85" t="n">
         <v>2</v>
       </c>
-      <c r="M23" s="85" t="n">
+      <c r="N23" s="85" t="n">
         <v>12</v>
       </c>
-      <c r="N23" s="85" t="n">
+      <c r="O23" s="85" t="n">
         <v>11</v>
       </c>
-      <c r="O23" s="85" t="n">
+      <c r="P23" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="P23" s="85" t="n">
+      <c r="Q23" s="85" t="n">
         <v>11</v>
       </c>
-      <c r="Q23" s="85" t="n">
+      <c r="R23" s="85" t="n">
         <v>12</v>
       </c>
-      <c r="R23" s="85" t="n">
+      <c r="S23" s="85" t="n">
         <v>14</v>
-      </c>
-      <c r="S23" s="85" t="n">
-        <v>10</v>
       </c>
       <c r="T23" s="85" t="n">
         <v>10</v>
       </c>
       <c r="U23" s="85" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" s="85" t="n">
         <v>22</v>
       </c>
-      <c r="V23" s="85" t="n">
+      <c r="W23" s="85" t="n">
         <v>21</v>
       </c>
-      <c r="W23" s="85" t="n">
+      <c r="X23" s="85" t="n">
         <v>16</v>
       </c>
-      <c r="X23" s="85" t="n">
+      <c r="Y23" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="Y23" s="85" t="n">
+      <c r="Z23" s="85" t="n">
         <v>28</v>
       </c>
-      <c r="Z23" s="85" t="n">
+      <c r="AA23" s="85" t="n">
         <v>22</v>
       </c>
-      <c r="AA23" s="85" t="n">
+      <c r="AB23" s="85" t="n">
         <v>34</v>
       </c>
-      <c r="AB23" s="85" t="n">
+      <c r="AC23" s="85" t="n">
         <v>10</v>
-      </c>
-      <c r="AC23" s="85" t="n">
-        <v>18</v>
       </c>
       <c r="AD23" s="85" t="n">
         <v>18</v>
       </c>
       <c r="AE23" s="85" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -3898,82 +3898,82 @@
         <v>7.2</v>
       </c>
       <c r="C25" s="87" t="n">
-        <v>7.24</v>
+        <v>7.2</v>
       </c>
       <c r="D25" s="87" t="n">
         <v>7.24</v>
       </c>
       <c r="E25" s="87" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F25" s="87" t="n">
         <v>7.23</v>
       </c>
-      <c r="F25" s="87" t="n">
+      <c r="G25" s="87" t="n">
         <v>7.21</v>
-      </c>
-      <c r="G25" s="87" t="n">
-        <v>7.27</v>
       </c>
       <c r="H25" s="87" t="n">
         <v>7.27</v>
       </c>
       <c r="I25" s="87" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J25" s="87" t="n">
         <v>7.28</v>
-      </c>
-      <c r="J25" s="87" t="n">
-        <v>7.29</v>
       </c>
       <c r="K25" s="87" t="n">
         <v>7.29</v>
       </c>
       <c r="L25" s="87" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="M25" s="87" t="n">
         <v>7.28</v>
       </c>
-      <c r="M25" s="87" t="n">
+      <c r="N25" s="87" t="n">
         <v>7.31</v>
       </c>
-      <c r="N25" s="87" t="n">
+      <c r="O25" s="87" t="n">
         <v>7.29</v>
       </c>
-      <c r="O25" s="87" t="n">
+      <c r="P25" s="87" t="n">
         <v>7.31</v>
-      </c>
-      <c r="P25" s="87" t="n">
-        <v>7.3</v>
       </c>
       <c r="Q25" s="87" t="n">
         <v>7.3</v>
       </c>
       <c r="R25" s="87" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="S25" s="87" t="n">
         <v>7.33</v>
       </c>
-      <c r="S25" s="87" t="n">
+      <c r="T25" s="87" t="n">
         <v>7.31</v>
       </c>
-      <c r="T25" s="87" t="n">
+      <c r="U25" s="87" t="n">
         <v>7.28</v>
       </c>
-      <c r="U25" s="87" t="n">
+      <c r="V25" s="87" t="n">
         <v>7.31</v>
       </c>
-      <c r="V25" s="87" t="n">
+      <c r="W25" s="87" t="n">
         <v>7.35</v>
       </c>
-      <c r="W25" s="87" t="n">
+      <c r="X25" s="87" t="n">
         <v>7.43</v>
       </c>
-      <c r="X25" s="87" t="n">
+      <c r="Y25" s="87" t="n">
         <v>7.35</v>
       </c>
-      <c r="Y25" s="87" t="n">
+      <c r="Z25" s="87" t="n">
         <v>7.28</v>
       </c>
-      <c r="Z25" s="87" t="n">
+      <c r="AA25" s="87" t="n">
         <v>7.3</v>
       </c>
-      <c r="AA25" s="87" t="n">
+      <c r="AB25" s="87" t="n">
         <v>7.28</v>
-      </c>
-      <c r="AB25" s="87" t="n">
-        <v>7.27</v>
       </c>
       <c r="AC25" s="87" t="n">
         <v>7.27</v>
@@ -3982,7 +3982,7 @@
         <v>7.27</v>
       </c>
       <c r="AE25" s="87" t="n">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="26">
@@ -3992,94 +3992,94 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C26" s="88" t="n">
         <v>-0.55</v>
       </c>
-      <c r="C26" s="88" t="n">
+      <c r="D26" s="87" t="n">
         <v>-0.04</v>
       </c>
-      <c r="D26" s="87" t="n">
+      <c r="E26" s="87" t="n">
         <v>0.2</v>
       </c>
-      <c r="E26" s="87" t="n">
+      <c r="F26" s="87" t="n">
         <v>0.25</v>
       </c>
-      <c r="F26" s="87" t="n">
+      <c r="G26" s="87" t="n">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="G26" s="87" t="n">
+      <c r="H26" s="87" t="n">
         <v>0.02</v>
       </c>
-      <c r="H26" s="87" t="n">
+      <c r="I26" s="87" t="n">
         <v>-0.23</v>
       </c>
-      <c r="I26" s="87" t="n">
+      <c r="J26" s="87" t="n">
         <v>-0.04</v>
       </c>
-      <c r="J26" s="87" t="n">
+      <c r="K26" s="87" t="n">
         <v>-0.02</v>
       </c>
-      <c r="K26" s="87" t="n">
+      <c r="L26" s="87" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L26" s="87" t="n">
+      <c r="M26" s="87" t="n">
         <v>-0.39</v>
       </c>
-      <c r="M26" s="87" t="n">
+      <c r="N26" s="87" t="n">
         <v>0.28</v>
       </c>
-      <c r="N26" s="87" t="n">
+      <c r="O26" s="87" t="n">
         <v>-0.18</v>
       </c>
-      <c r="O26" s="87" t="n">
+      <c r="P26" s="87" t="n">
         <v>0.06</v>
       </c>
-      <c r="P26" s="87" t="n">
+      <c r="Q26" s="87" t="n">
         <v>0.04</v>
       </c>
-      <c r="Q26" s="87" t="n">
+      <c r="R26" s="87" t="n">
         <v>-0.4</v>
       </c>
-      <c r="R26" s="87" t="n">
+      <c r="S26" s="87" t="n">
         <v>0.22</v>
       </c>
-      <c r="S26" s="87" t="n">
+      <c r="T26" s="87" t="n">
         <v>0.39</v>
       </c>
-      <c r="T26" s="87" t="n">
+      <c r="U26" s="87" t="n">
         <v>-0.35</v>
       </c>
-      <c r="U26" s="87" t="n">
+      <c r="V26" s="87" t="n">
         <v>-0.54</v>
       </c>
-      <c r="V26" s="87" t="n">
+      <c r="W26" s="87" t="n">
         <v>-1.04</v>
       </c>
-      <c r="W26" s="87" t="n">
+      <c r="X26" s="87" t="n">
         <v>1.1</v>
       </c>
-      <c r="X26" s="87" t="n">
+      <c r="Y26" s="87" t="n">
         <v>0.89</v>
       </c>
-      <c r="Y26" s="87" t="n">
+      <c r="Z26" s="87" t="n">
         <v>-0.22</v>
       </c>
-      <c r="Z26" s="87" t="n">
+      <c r="AA26" s="87" t="n">
         <v>0.22</v>
       </c>
-      <c r="AA26" s="87" t="n">
+      <c r="AB26" s="87" t="n">
         <v>0.18</v>
       </c>
-      <c r="AB26" s="87" t="n">
+      <c r="AC26" s="87" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AC26" s="87" t="n">
+      <c r="AD26" s="87" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD26" s="87" t="n">
+      <c r="AE26" s="87" t="n">
         <v>-0.15</v>
-      </c>
-      <c r="AE26" s="87" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="27">
@@ -4089,94 +4089,94 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="C27" s="88" t="n">
         <v>-2.02</v>
       </c>
-      <c r="C27" s="88" t="n">
+      <c r="D27" s="87" t="n">
         <v>-2.5</v>
       </c>
-      <c r="D27" s="87" t="n">
+      <c r="E27" s="87" t="n">
         <v>-1.39</v>
       </c>
-      <c r="E27" s="87" t="n">
+      <c r="F27" s="87" t="n">
         <v>-0.71</v>
       </c>
-      <c r="F27" s="87" t="n">
+      <c r="G27" s="87" t="n">
         <v>-1.17</v>
       </c>
-      <c r="G27" s="87" t="n">
+      <c r="H27" s="87" t="n">
         <v>-0.15</v>
       </c>
-      <c r="H27" s="87" t="n">
+      <c r="I27" s="87" t="n">
         <v>0.02</v>
       </c>
-      <c r="I27" s="87" t="n">
+      <c r="J27" s="87" t="n">
         <v>0.19</v>
       </c>
-      <c r="J27" s="87" t="n">
+      <c r="K27" s="87" t="n">
         <v>0.27</v>
       </c>
-      <c r="K27" s="87" t="n">
+      <c r="L27" s="87" t="n">
         <v>0.14</v>
       </c>
-      <c r="L27" s="87" t="n">
+      <c r="M27" s="87" t="n">
         <v>0.26</v>
       </c>
-      <c r="M27" s="87" t="n">
+      <c r="N27" s="87" t="n">
         <v>0.67</v>
       </c>
-      <c r="N27" s="87" t="n">
+      <c r="O27" s="87" t="n">
         <v>0.49</v>
       </c>
-      <c r="O27" s="87" t="n">
+      <c r="P27" s="87" t="n">
         <v>0.73</v>
       </c>
-      <c r="P27" s="87" t="n">
+      <c r="Q27" s="87" t="n">
         <v>0.97</v>
       </c>
-      <c r="Q27" s="87" t="n">
+      <c r="R27" s="87" t="n">
         <v>0.98</v>
       </c>
-      <c r="R27" s="87" t="n">
+      <c r="S27" s="87" t="n">
         <v>1.39</v>
       </c>
-      <c r="S27" s="87" t="n">
+      <c r="T27" s="87" t="n">
         <v>1.03</v>
       </c>
-      <c r="T27" s="87" t="n">
+      <c r="U27" s="87" t="n">
         <v>0.49</v>
       </c>
-      <c r="U27" s="87" t="n">
+      <c r="V27" s="87" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="V27" s="87" t="n">
+      <c r="W27" s="87" t="n">
         <v>1.69</v>
       </c>
-      <c r="W27" s="87" t="n">
+      <c r="X27" s="87" t="n">
         <v>2.24</v>
       </c>
-      <c r="X27" s="87" t="n">
+      <c r="Y27" s="87" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y27" s="87" t="n">
+      <c r="Z27" s="87" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z27" s="87" t="n">
+      <c r="AA27" s="87" t="n">
         <v>0.82</v>
       </c>
-      <c r="AA27" s="87" t="n">
+      <c r="AB27" s="87" t="n">
         <v>0.37</v>
       </c>
-      <c r="AB27" s="87" t="n">
+      <c r="AC27" s="87" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AC27" s="87" t="n">
+      <c r="AD27" s="87" t="n">
         <v>-0.32</v>
       </c>
-      <c r="AD27" s="87" t="n">
+      <c r="AE27" s="87" t="n">
         <v>-0.45</v>
-      </c>
-      <c r="AE27" s="87" t="n">
-        <v>0.19</v>
       </c>
     </row>
     <row r="28">
@@ -4186,94 +4186,94 @@
         </is>
       </c>
       <c r="B28" s="85" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C28" s="85" t="n">
         <v>3132</v>
       </c>
-      <c r="C28" s="85" t="n">
+      <c r="D28" s="85" t="n">
         <v>3091</v>
       </c>
-      <c r="D28" s="85" t="n">
+      <c r="E28" s="85" t="n">
         <v>3116</v>
       </c>
-      <c r="E28" s="85" t="n">
+      <c r="F28" s="85" t="n">
         <v>3090</v>
       </c>
-      <c r="F28" s="85" t="n">
+      <c r="G28" s="85" t="n">
         <v>3083</v>
       </c>
-      <c r="G28" s="85" t="n">
+      <c r="H28" s="85" t="n">
         <v>3023</v>
       </c>
-      <c r="H28" s="85" t="n">
+      <c r="I28" s="85" t="n">
         <v>3019</v>
       </c>
-      <c r="I28" s="85" t="n">
+      <c r="J28" s="85" t="n">
         <v>3010</v>
       </c>
-      <c r="J28" s="85" t="n">
+      <c r="K28" s="85" t="n">
         <v>3027</v>
       </c>
-      <c r="K28" s="85" t="n">
+      <c r="L28" s="85" t="n">
         <v>3021</v>
       </c>
-      <c r="L28" s="85" t="n">
+      <c r="M28" s="85" t="n">
         <v>3032</v>
       </c>
-      <c r="M28" s="85" t="n">
+      <c r="N28" s="85" t="n">
         <v>3020</v>
       </c>
-      <c r="N28" s="85" t="n">
+      <c r="O28" s="85" t="n">
         <v>3021</v>
       </c>
-      <c r="O28" s="85" t="n">
+      <c r="P28" s="85" t="n">
         <v>2977</v>
       </c>
-      <c r="P28" s="85" t="n">
+      <c r="Q28" s="85" t="n">
         <v>2981</v>
       </c>
-      <c r="Q28" s="85" t="n">
+      <c r="R28" s="85" t="n">
         <v>2961</v>
       </c>
-      <c r="R28" s="85" t="n">
+      <c r="S28" s="85" t="n">
         <v>2981</v>
       </c>
-      <c r="S28" s="85" t="n">
+      <c r="T28" s="85" t="n">
         <v>2986</v>
       </c>
-      <c r="T28" s="85" t="n">
+      <c r="U28" s="85" t="n">
         <v>2976</v>
       </c>
-      <c r="U28" s="85" t="n">
+      <c r="V28" s="85" t="n">
         <v>2946</v>
       </c>
-      <c r="V28" s="85" t="n">
+      <c r="W28" s="85" t="n">
         <v>2884</v>
       </c>
-      <c r="W28" s="85" t="n">
+      <c r="X28" s="85" t="n">
         <v>2824</v>
       </c>
-      <c r="X28" s="85" t="n">
+      <c r="Y28" s="85" t="n">
         <v>2813</v>
       </c>
-      <c r="Y28" s="85" t="n">
+      <c r="Z28" s="85" t="n">
         <v>3119</v>
       </c>
-      <c r="Z28" s="85" t="n">
+      <c r="AA28" s="85" t="n">
         <v>3144</v>
       </c>
-      <c r="AA28" s="85" t="n">
+      <c r="AB28" s="85" t="n">
         <v>3135</v>
       </c>
-      <c r="AB28" s="85" t="n">
+      <c r="AC28" s="85" t="n">
         <v>3128</v>
       </c>
-      <c r="AC28" s="85" t="n">
+      <c r="AD28" s="85" t="n">
         <v>3149</v>
       </c>
-      <c r="AD28" s="85" t="n">
+      <c r="AE28" s="85" t="n">
         <v>3174</v>
-      </c>
-      <c r="AE28" s="85" t="n">
-        <v>3164</v>
       </c>
     </row>
     <row r="29">
@@ -4283,94 +4283,94 @@
         </is>
       </c>
       <c r="B29" s="85" t="n">
+        <v>14933.27</v>
+      </c>
+      <c r="C29" s="85" t="n">
         <v>15590.5</v>
       </c>
-      <c r="C29" s="85" t="n">
+      <c r="D29" s="85" t="n">
         <v>14659.93</v>
       </c>
-      <c r="D29" s="85" t="n">
+      <c r="E29" s="85" t="n">
         <v>15085.99</v>
       </c>
-      <c r="E29" s="85" t="n">
+      <c r="F29" s="85" t="n">
         <v>15289.58</v>
       </c>
-      <c r="F29" s="85" t="n">
+      <c r="G29" s="85" t="n">
         <v>14466.56</v>
       </c>
-      <c r="G29" s="85" t="n">
+      <c r="H29" s="85" t="n">
         <v>13981.72</v>
       </c>
-      <c r="H29" s="85" t="n">
+      <c r="I29" s="85" t="n">
         <v>13951.7</v>
       </c>
-      <c r="I29" s="85" t="n">
+      <c r="J29" s="85" t="n">
         <v>13928.32</v>
       </c>
-      <c r="J29" s="85" t="n">
+      <c r="K29" s="85" t="n">
         <v>14261.54</v>
       </c>
-      <c r="K29" s="85" t="n">
+      <c r="L29" s="85" t="n">
         <v>14095.6</v>
       </c>
-      <c r="L29" s="85" t="n">
+      <c r="M29" s="85" t="n">
         <v>14316.65</v>
       </c>
-      <c r="M29" s="85" t="n">
+      <c r="N29" s="85" t="n">
         <v>13881.05</v>
       </c>
-      <c r="N29" s="85" t="n">
+      <c r="O29" s="85" t="n">
         <v>14120.28</v>
       </c>
-      <c r="O29" s="85" t="n">
+      <c r="P29" s="85" t="n">
         <v>14156.56</v>
       </c>
-      <c r="P29" s="85" t="n">
+      <c r="Q29" s="85" t="n">
         <v>15222.32</v>
       </c>
-      <c r="Q29" s="85" t="n">
+      <c r="R29" s="85" t="n">
         <v>15536.6</v>
       </c>
-      <c r="R29" s="85" t="n">
+      <c r="S29" s="85" t="n">
         <v>15111.24</v>
       </c>
-      <c r="S29" s="85" t="n">
+      <c r="T29" s="85" t="n">
         <v>15086.93</v>
       </c>
-      <c r="T29" s="85" t="n">
+      <c r="U29" s="85" t="n">
         <v>15963.12</v>
       </c>
-      <c r="U29" s="85" t="n">
+      <c r="V29" s="85" t="n">
         <v>16061.07</v>
       </c>
-      <c r="V29" s="85" t="n">
+      <c r="W29" s="85" t="n">
         <v>17202.29</v>
       </c>
-      <c r="W29" s="85" t="n">
+      <c r="X29" s="85" t="n">
         <v>17177.32</v>
       </c>
-      <c r="X29" s="85" t="n">
+      <c r="Y29" s="85" t="n">
         <v>16632.79</v>
       </c>
-      <c r="Y29" s="85" t="n">
+      <c r="Z29" s="85" t="n">
         <v>17321.4</v>
       </c>
-      <c r="Z29" s="85" t="n">
+      <c r="AA29" s="85" t="n">
         <v>15908.82</v>
       </c>
-      <c r="AA29" s="85" t="n">
+      <c r="AB29" s="85" t="n">
         <v>15711.41</v>
       </c>
-      <c r="AB29" s="85" t="n">
+      <c r="AC29" s="85" t="n">
         <v>17160.71</v>
       </c>
-      <c r="AC29" s="85" t="n">
+      <c r="AD29" s="85" t="n">
         <v>16030.7</v>
       </c>
-      <c r="AD29" s="85" t="n">
+      <c r="AE29" s="85" t="n">
         <v>16944.25</v>
-      </c>
-      <c r="AE29" s="85" t="n">
-        <v>15980.24</v>
       </c>
     </row>
     <row r="30">
@@ -4380,94 +4380,94 @@
         </is>
       </c>
       <c r="B30" s="89" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="C30" s="89" t="n">
         <v>46.86</v>
       </c>
-      <c r="C30" s="89" t="n">
+      <c r="D30" s="89" t="n">
         <v>47.16</v>
       </c>
-      <c r="D30" s="89" t="n">
+      <c r="E30" s="89" t="n">
         <v>47.1</v>
       </c>
-      <c r="E30" s="89" t="n">
+      <c r="F30" s="89" t="n">
         <v>47.09</v>
       </c>
-      <c r="F30" s="89" t="n">
+      <c r="G30" s="89" t="n">
         <v>46.96</v>
       </c>
-      <c r="G30" s="89" t="n">
+      <c r="H30" s="89" t="n">
         <v>46.81</v>
       </c>
-      <c r="H30" s="89" t="n">
+      <c r="I30" s="89" t="n">
         <v>46.87</v>
       </c>
-      <c r="I30" s="89" t="n">
+      <c r="J30" s="89" t="n">
         <v>46.96</v>
       </c>
-      <c r="J30" s="89" t="n">
+      <c r="K30" s="89" t="n">
         <v>46.92</v>
       </c>
-      <c r="K30" s="89" t="n">
+      <c r="L30" s="89" t="n">
         <v>46.97</v>
       </c>
-      <c r="L30" s="89" t="n">
+      <c r="M30" s="89" t="n">
         <v>46.86</v>
       </c>
-      <c r="M30" s="89" t="n">
+      <c r="N30" s="89" t="n">
         <v>46.77</v>
       </c>
-      <c r="N30" s="89" t="n">
+      <c r="O30" s="89" t="n">
         <v>46.66</v>
       </c>
-      <c r="O30" s="89" t="n">
+      <c r="P30" s="89" t="n">
         <v>46.67</v>
       </c>
-      <c r="P30" s="89" t="n">
+      <c r="Q30" s="89" t="n">
         <v>47.04</v>
       </c>
-      <c r="Q30" s="89" t="n">
+      <c r="R30" s="89" t="n">
         <v>47.3</v>
       </c>
-      <c r="R30" s="89" t="n">
+      <c r="S30" s="89" t="n">
         <v>47.09</v>
       </c>
-      <c r="S30" s="89" t="n">
+      <c r="T30" s="89" t="n">
         <v>46.76</v>
       </c>
-      <c r="T30" s="89" t="n">
+      <c r="U30" s="89" t="n">
         <v>46.86</v>
       </c>
-      <c r="U30" s="89" t="n">
+      <c r="V30" s="89" t="n">
         <v>47.1</v>
       </c>
-      <c r="V30" s="89" t="n">
+      <c r="W30" s="89" t="n">
         <v>47.37</v>
       </c>
-      <c r="W30" s="89" t="n">
+      <c r="X30" s="89" t="n">
         <v>47.45</v>
       </c>
-      <c r="X30" s="89" t="n">
+      <c r="Y30" s="89" t="n">
         <v>47.04</v>
       </c>
-      <c r="Y30" s="89" t="n">
+      <c r="Z30" s="89" t="n">
         <v>46.2</v>
       </c>
-      <c r="Z30" s="89" t="n">
+      <c r="AA30" s="89" t="n">
         <v>46.03</v>
       </c>
-      <c r="AA30" s="89" t="n">
+      <c r="AB30" s="89" t="n">
         <v>45.94</v>
       </c>
-      <c r="AB30" s="89" t="n">
+      <c r="AC30" s="89" t="n">
         <v>46.2</v>
       </c>
-      <c r="AC30" s="89" t="n">
+      <c r="AD30" s="89" t="n">
         <v>45.84</v>
       </c>
-      <c r="AD30" s="89" t="n">
+      <c r="AE30" s="89" t="n">
         <v>46.28</v>
-      </c>
-      <c r="AE30" s="89" t="n">
-        <v>46.08</v>
       </c>
     </row>
     <row r="31">
@@ -4477,94 +4477,94 @@
         </is>
       </c>
       <c r="B31" s="85" t="n">
+        <v>-899.7</v>
+      </c>
+      <c r="C31" s="85" t="n">
         <v>-980.05</v>
       </c>
-      <c r="C31" s="85" t="n">
+      <c r="D31" s="85" t="n">
         <v>-833.67</v>
       </c>
-      <c r="D31" s="85" t="n">
+      <c r="E31" s="85" t="n">
         <v>-874.87</v>
       </c>
-      <c r="E31" s="85" t="n">
+      <c r="F31" s="85" t="n">
         <v>-889.37</v>
       </c>
-      <c r="F31" s="85" t="n">
+      <c r="G31" s="85" t="n">
         <v>-880.1</v>
       </c>
-      <c r="G31" s="85" t="n">
+      <c r="H31" s="85" t="n">
         <v>-891.41</v>
       </c>
-      <c r="H31" s="85" t="n">
+      <c r="I31" s="85" t="n">
         <v>-874.51</v>
       </c>
-      <c r="I31" s="85" t="n">
+      <c r="J31" s="85" t="n">
         <v>-846.99</v>
       </c>
-      <c r="J31" s="85" t="n">
+      <c r="K31" s="85" t="n">
         <v>-877.14</v>
       </c>
-      <c r="K31" s="85" t="n">
+      <c r="L31" s="85" t="n">
         <v>-853.45</v>
       </c>
-      <c r="L31" s="85" t="n">
+      <c r="M31" s="85" t="n">
         <v>-899.34</v>
       </c>
-      <c r="M31" s="85" t="n">
+      <c r="N31" s="85" t="n">
         <v>-897.95</v>
       </c>
-      <c r="N31" s="85" t="n">
+      <c r="O31" s="85" t="n">
         <v>-942.62</v>
       </c>
-      <c r="O31" s="85" t="n">
+      <c r="P31" s="85" t="n">
         <v>-941.4400000000001</v>
       </c>
-      <c r="P31" s="85" t="n">
+      <c r="Q31" s="85" t="n">
         <v>-901.3200000000001</v>
       </c>
-      <c r="Q31" s="85" t="n">
+      <c r="R31" s="85" t="n">
         <v>-840.03</v>
       </c>
-      <c r="R31" s="85" t="n">
+      <c r="S31" s="85" t="n">
         <v>-878.0700000000001</v>
       </c>
-      <c r="S31" s="85" t="n">
+      <c r="T31" s="85" t="n">
         <v>-976.71</v>
       </c>
-      <c r="T31" s="85" t="n">
+      <c r="U31" s="85" t="n">
         <v>-1001.95</v>
       </c>
-      <c r="U31" s="85" t="n">
+      <c r="V31" s="85" t="n">
         <v>-931.8</v>
       </c>
-      <c r="V31" s="85" t="n">
+      <c r="W31" s="85" t="n">
         <v>-906.3099999999999</v>
       </c>
-      <c r="W31" s="85" t="n">
+      <c r="X31" s="85" t="n">
         <v>-876.92</v>
       </c>
-      <c r="X31" s="85" t="n">
+      <c r="Y31" s="85" t="n">
         <v>-985.28</v>
       </c>
-      <c r="Y31" s="85" t="n">
+      <c r="Z31" s="85" t="n">
         <v>-1316.1</v>
       </c>
-      <c r="Z31" s="85" t="n">
+      <c r="AA31" s="85" t="n">
         <v>-1264.37</v>
       </c>
-      <c r="AA31" s="85" t="n">
+      <c r="AB31" s="85" t="n">
         <v>-1275.33</v>
       </c>
-      <c r="AB31" s="85" t="n">
+      <c r="AC31" s="85" t="n">
         <v>-1303.87</v>
       </c>
-      <c r="AC31" s="85" t="n">
+      <c r="AD31" s="85" t="n">
         <v>-1332.5</v>
       </c>
-      <c r="AD31" s="85" t="n">
+      <c r="AE31" s="85" t="n">
         <v>-1259.88</v>
-      </c>
-      <c r="AE31" s="85" t="n">
-        <v>-1253.77</v>
       </c>
     </row>
     <row r="32">
@@ -4574,94 +4574,94 @@
         </is>
       </c>
       <c r="B32" s="85" t="n">
+        <v>-50216</v>
+      </c>
+      <c r="C32" s="85" t="n">
         <v>-63320</v>
       </c>
-      <c r="C32" s="85" t="n">
+      <c r="D32" s="85" t="n">
         <v>-41369</v>
       </c>
-      <c r="D32" s="85" t="n">
+      <c r="E32" s="85" t="n">
         <v>-46331</v>
       </c>
-      <c r="E32" s="85" t="n">
+      <c r="F32" s="85" t="n">
         <v>-46915</v>
       </c>
-      <c r="F32" s="85" t="n">
+      <c r="G32" s="85" t="n">
         <v>-44049</v>
       </c>
-      <c r="G32" s="85" t="n">
+      <c r="H32" s="85" t="n">
         <v>-49832</v>
       </c>
-      <c r="H32" s="85" t="n">
+      <c r="I32" s="85" t="n">
         <v>-47258</v>
       </c>
-      <c r="I32" s="85" t="n">
+      <c r="J32" s="85" t="n">
         <v>-47318</v>
       </c>
-      <c r="J32" s="85" t="n">
+      <c r="K32" s="85" t="n">
         <v>-49531</v>
       </c>
-      <c r="K32" s="85" t="n">
+      <c r="L32" s="85" t="n">
         <v>-46785</v>
       </c>
-      <c r="L32" s="85" t="n">
+      <c r="M32" s="85" t="n">
         <v>-42908</v>
       </c>
-      <c r="M32" s="85" t="n">
+      <c r="N32" s="85" t="n">
         <v>-45637</v>
       </c>
-      <c r="N32" s="85" t="n">
+      <c r="O32" s="85" t="n">
         <v>-41866</v>
       </c>
-      <c r="O32" s="85" t="n">
+      <c r="P32" s="85" t="n">
         <v>-43657</v>
       </c>
-      <c r="P32" s="85" t="n">
+      <c r="Q32" s="85" t="n">
         <v>-42566</v>
       </c>
-      <c r="Q32" s="85" t="n">
+      <c r="R32" s="85" t="n">
         <v>-44923</v>
       </c>
-      <c r="R32" s="85" t="n">
+      <c r="S32" s="85" t="n">
         <v>-47156</v>
       </c>
-      <c r="S32" s="85" t="n">
+      <c r="T32" s="85" t="n">
         <v>-60382</v>
       </c>
-      <c r="T32" s="85" t="n">
+      <c r="U32" s="85" t="n">
         <v>-52782</v>
       </c>
-      <c r="U32" s="85" t="n">
+      <c r="V32" s="85" t="n">
         <v>-43324</v>
       </c>
-      <c r="V32" s="85" t="n">
+      <c r="W32" s="85" t="n">
         <v>-44136</v>
       </c>
-      <c r="W32" s="85" t="n">
+      <c r="X32" s="85" t="n">
         <v>-34878</v>
       </c>
-      <c r="X32" s="85" t="n">
+      <c r="Y32" s="85" t="n">
         <v>-43696</v>
       </c>
-      <c r="Y32" s="85" t="n">
+      <c r="Z32" s="85" t="n">
         <v>-50413</v>
       </c>
-      <c r="Z32" s="85" t="n">
+      <c r="AA32" s="85" t="n">
         <v>-51960</v>
       </c>
-      <c r="AA32" s="85" t="n">
+      <c r="AB32" s="85" t="n">
         <v>-46137</v>
       </c>
-      <c r="AB32" s="85" t="n">
+      <c r="AC32" s="85" t="n">
         <v>-52032</v>
       </c>
-      <c r="AC32" s="85" t="n">
+      <c r="AD32" s="85" t="n">
         <v>-57161</v>
       </c>
-      <c r="AD32" s="85" t="n">
+      <c r="AE32" s="85" t="n">
         <v>-51256</v>
-      </c>
-      <c r="AE32" s="85" t="n">
-        <v>-52782</v>
       </c>
     </row>
     <row r="33">
@@ -4671,94 +4671,94 @@
         </is>
       </c>
       <c r="B33" s="85" t="n">
+        <v>11115</v>
+      </c>
+      <c r="C33" s="85" t="n">
         <v>14736</v>
       </c>
-      <c r="C33" s="85" t="n">
+      <c r="D33" s="85" t="n">
         <v>16696</v>
       </c>
-      <c r="D33" s="85" t="n">
+      <c r="E33" s="85" t="n">
         <v>16262</v>
       </c>
-      <c r="E33" s="85" t="n">
+      <c r="F33" s="85" t="n">
         <v>13159</v>
       </c>
-      <c r="F33" s="85" t="n">
+      <c r="G33" s="85" t="n">
         <v>16720</v>
       </c>
-      <c r="G33" s="85" t="n">
+      <c r="H33" s="85" t="n">
         <v>13520</v>
       </c>
-      <c r="H33" s="85" t="n">
+      <c r="I33" s="85" t="n">
         <v>17362</v>
       </c>
-      <c r="I33" s="85" t="n">
+      <c r="J33" s="85" t="n">
         <v>19266</v>
       </c>
-      <c r="J33" s="85" t="n">
+      <c r="K33" s="85" t="n">
         <v>19401</v>
       </c>
-      <c r="K33" s="85" t="n">
+      <c r="L33" s="85" t="n">
         <v>18509</v>
       </c>
-      <c r="L33" s="85" t="n">
+      <c r="M33" s="85" t="n">
         <v>17073</v>
       </c>
-      <c r="M33" s="85" t="n">
+      <c r="N33" s="85" t="n">
         <v>17860</v>
       </c>
-      <c r="N33" s="85" t="n">
+      <c r="O33" s="85" t="n">
         <v>16525</v>
       </c>
-      <c r="O33" s="85" t="n">
+      <c r="P33" s="85" t="n">
         <v>18157</v>
       </c>
-      <c r="P33" s="85" t="n">
+      <c r="Q33" s="85" t="n">
         <v>16951</v>
       </c>
-      <c r="Q33" s="85" t="n">
+      <c r="R33" s="85" t="n">
         <v>11538</v>
       </c>
-      <c r="R33" s="85" t="n">
+      <c r="S33" s="85" t="n">
         <v>8114</v>
       </c>
-      <c r="S33" s="85" t="n">
+      <c r="T33" s="85" t="n">
         <v>8670</v>
       </c>
-      <c r="T33" s="85" t="n">
+      <c r="U33" s="85" t="n">
         <v>5774</v>
       </c>
-      <c r="U33" s="85" t="n">
+      <c r="V33" s="85" t="n">
         <v>13888</v>
       </c>
-      <c r="V33" s="85" t="n">
+      <c r="W33" s="85" t="n">
         <v>11987</v>
       </c>
-      <c r="W33" s="85" t="n">
+      <c r="X33" s="85" t="n">
         <v>19865</v>
       </c>
-      <c r="X33" s="85" t="n">
+      <c r="Y33" s="85" t="n">
         <v>21053</v>
       </c>
-      <c r="Y33" s="85" t="n">
+      <c r="Z33" s="85" t="n">
         <v>14605</v>
       </c>
-      <c r="Z33" s="85" t="n">
+      <c r="AA33" s="85" t="n">
         <v>14626</v>
       </c>
-      <c r="AA33" s="85" t="n">
+      <c r="AB33" s="85" t="n">
         <v>17815</v>
       </c>
-      <c r="AB33" s="85" t="n">
+      <c r="AC33" s="85" t="n">
         <v>15756</v>
       </c>
-      <c r="AC33" s="85" t="n">
+      <c r="AD33" s="85" t="n">
         <v>14533</v>
       </c>
-      <c r="AD33" s="85" t="n">
+      <c r="AE33" s="85" t="n">
         <v>16605</v>
-      </c>
-      <c r="AE33" s="85" t="n">
-        <v>17829</v>
       </c>
     </row>
     <row r="34">
@@ -4768,94 +4768,94 @@
         </is>
       </c>
       <c r="B34" s="85" t="n">
+        <v>-24022</v>
+      </c>
+      <c r="C34" s="85" t="n">
         <v>-27820</v>
       </c>
-      <c r="C34" s="85" t="n">
+      <c r="D34" s="85" t="n">
         <v>-16020</v>
       </c>
-      <c r="D34" s="85" t="n">
+      <c r="E34" s="85" t="n">
         <v>-18748</v>
       </c>
-      <c r="E34" s="85" t="n">
+      <c r="F34" s="85" t="n">
         <v>-17227</v>
       </c>
-      <c r="F34" s="85" t="n">
+      <c r="G34" s="85" t="n">
         <v>-12594</v>
       </c>
-      <c r="G34" s="85" t="n">
+      <c r="H34" s="85" t="n">
         <v>-19061</v>
       </c>
-      <c r="H34" s="85" t="n">
+      <c r="I34" s="85" t="n">
         <v>-18338</v>
       </c>
-      <c r="I34" s="85" t="n">
+      <c r="J34" s="85" t="n">
         <v>-18656</v>
       </c>
-      <c r="J34" s="85" t="n">
+      <c r="K34" s="85" t="n">
         <v>-18851</v>
       </c>
-      <c r="K34" s="85" t="n">
+      <c r="L34" s="85" t="n">
         <v>-16902</v>
       </c>
-      <c r="L34" s="85" t="n">
+      <c r="M34" s="85" t="n">
         <v>-19005</v>
       </c>
-      <c r="M34" s="85" t="n">
+      <c r="N34" s="85" t="n">
         <v>-20865</v>
       </c>
-      <c r="N34" s="85" t="n">
+      <c r="O34" s="85" t="n">
         <v>-17879</v>
       </c>
-      <c r="O34" s="85" t="n">
+      <c r="P34" s="85" t="n">
         <v>-18076</v>
       </c>
-      <c r="P34" s="85" t="n">
+      <c r="Q34" s="85" t="n">
         <v>-16993</v>
       </c>
-      <c r="Q34" s="85" t="n">
+      <c r="R34" s="85" t="n">
         <v>-17477</v>
       </c>
-      <c r="R34" s="85" t="n">
+      <c r="S34" s="85" t="n">
         <v>-23746</v>
       </c>
-      <c r="S34" s="85" t="n">
+      <c r="T34" s="85" t="n">
         <v>-24041</v>
       </c>
-      <c r="T34" s="85" t="n">
+      <c r="U34" s="85" t="n">
         <v>-27120</v>
       </c>
-      <c r="U34" s="85" t="n">
+      <c r="V34" s="85" t="n">
         <v>-26814</v>
       </c>
-      <c r="V34" s="85" t="n">
+      <c r="W34" s="85" t="n">
         <v>-25855</v>
       </c>
-      <c r="W34" s="85" t="n">
+      <c r="X34" s="85" t="n">
         <v>-24288</v>
       </c>
-      <c r="X34" s="85" t="n">
+      <c r="Y34" s="85" t="n">
         <v>-27265</v>
       </c>
-      <c r="Y34" s="85" t="n">
+      <c r="Z34" s="85" t="n">
         <v>-29663</v>
       </c>
-      <c r="Z34" s="85" t="n">
+      <c r="AA34" s="85" t="n">
         <v>-27803</v>
       </c>
-      <c r="AA34" s="85" t="n">
+      <c r="AB34" s="85" t="n">
         <v>-28083</v>
       </c>
-      <c r="AB34" s="85" t="n">
+      <c r="AC34" s="85" t="n">
         <v>-29499</v>
       </c>
-      <c r="AC34" s="85" t="n">
+      <c r="AD34" s="85" t="n">
         <v>-31976</v>
       </c>
-      <c r="AD34" s="85" t="n">
+      <c r="AE34" s="85" t="n">
         <v>-30846</v>
-      </c>
-      <c r="AE34" s="85" t="n">
-        <v>-33227</v>
       </c>
     </row>
     <row r="35">
@@ -4865,94 +4865,94 @@
         </is>
       </c>
       <c r="B35" s="85" t="n">
+        <v>4522</v>
+      </c>
+      <c r="C35" s="85" t="n">
         <v>5322</v>
       </c>
-      <c r="C35" s="85" t="n">
+      <c r="D35" s="85" t="n">
         <v>6775</v>
       </c>
-      <c r="D35" s="85" t="n">
+      <c r="E35" s="85" t="n">
         <v>7194</v>
       </c>
-      <c r="E35" s="85" t="n">
+      <c r="F35" s="85" t="n">
         <v>5102</v>
       </c>
-      <c r="F35" s="85" t="n">
+      <c r="G35" s="85" t="n">
         <v>5726</v>
       </c>
-      <c r="G35" s="85" t="n">
+      <c r="H35" s="85" t="n">
         <v>5238</v>
       </c>
-      <c r="H35" s="85" t="n">
+      <c r="I35" s="85" t="n">
         <v>5557</v>
       </c>
-      <c r="I35" s="85" t="n">
+      <c r="J35" s="85" t="n">
         <v>5437</v>
       </c>
-      <c r="J35" s="85" t="n">
+      <c r="K35" s="85" t="n">
         <v>6100</v>
       </c>
-      <c r="K35" s="85" t="n">
+      <c r="L35" s="85" t="n">
         <v>6881</v>
       </c>
-      <c r="L35" s="85" t="n">
+      <c r="M35" s="85" t="n">
         <v>6566</v>
       </c>
-      <c r="M35" s="85" t="n">
+      <c r="N35" s="85" t="n">
         <v>6053</v>
       </c>
-      <c r="N35" s="85" t="n">
+      <c r="O35" s="85" t="n">
         <v>5672</v>
       </c>
-      <c r="O35" s="85" t="n">
+      <c r="P35" s="85" t="n">
         <v>5790</v>
       </c>
-      <c r="P35" s="85" t="n">
+      <c r="Q35" s="85" t="n">
         <v>5809</v>
       </c>
-      <c r="Q35" s="85" t="n">
+      <c r="R35" s="85" t="n">
         <v>4405</v>
       </c>
-      <c r="R35" s="85" t="n">
+      <c r="S35" s="85" t="n">
         <v>3140</v>
       </c>
-      <c r="S35" s="85" t="n">
+      <c r="T35" s="85" t="n">
         <v>3774</v>
       </c>
-      <c r="T35" s="85" t="n">
+      <c r="U35" s="85" t="n">
         <v>2162</v>
       </c>
-      <c r="U35" s="85" t="n">
+      <c r="V35" s="85" t="n">
         <v>4347</v>
       </c>
-      <c r="V35" s="85" t="n">
+      <c r="W35" s="85" t="n">
         <v>5813</v>
       </c>
-      <c r="W35" s="85" t="n">
+      <c r="X35" s="85" t="n">
         <v>6484</v>
       </c>
-      <c r="X35" s="85" t="n">
+      <c r="Y35" s="85" t="n">
         <v>7308</v>
       </c>
-      <c r="Y35" s="85" t="n">
+      <c r="Z35" s="85" t="n">
         <v>3490</v>
       </c>
-      <c r="Z35" s="85" t="n">
+      <c r="AA35" s="85" t="n">
         <v>2791</v>
       </c>
-      <c r="AA35" s="85" t="n">
+      <c r="AB35" s="85" t="n">
         <v>3098</v>
       </c>
-      <c r="AB35" s="85" t="n">
+      <c r="AC35" s="85" t="n">
         <v>2621</v>
       </c>
-      <c r="AC35" s="85" t="n">
+      <c r="AD35" s="85" t="n">
         <v>1922</v>
       </c>
-      <c r="AD35" s="85" t="n">
+      <c r="AE35" s="85" t="n">
         <v>2101</v>
-      </c>
-      <c r="AE35" s="85" t="n">
-        <v>3221</v>
       </c>
     </row>
     <row r="36">
@@ -4962,94 +4962,94 @@
         </is>
       </c>
       <c r="B36" s="85" t="n">
+        <v>19154</v>
+      </c>
+      <c r="C36" s="85" t="n">
         <v>23532</v>
       </c>
-      <c r="C36" s="85" t="n">
+      <c r="D36" s="85" t="n">
         <v>23629</v>
       </c>
-      <c r="D36" s="85" t="n">
+      <c r="E36" s="85" t="n">
         <v>24475</v>
       </c>
-      <c r="E36" s="85" t="n">
+      <c r="F36" s="85" t="n">
         <v>26458</v>
       </c>
-      <c r="F36" s="85" t="n">
+      <c r="G36" s="85" t="n">
         <v>26092</v>
       </c>
-      <c r="G36" s="85" t="n">
+      <c r="H36" s="85" t="n">
         <v>28004</v>
       </c>
-      <c r="H36" s="85" t="n">
+      <c r="I36" s="85" t="n">
         <v>26528</v>
       </c>
-      <c r="I36" s="85" t="n">
+      <c r="J36" s="85" t="n">
         <v>28094</v>
       </c>
-      <c r="J36" s="85" t="n">
+      <c r="K36" s="85" t="n">
         <v>27615</v>
       </c>
-      <c r="K36" s="85" t="n">
+      <c r="L36" s="85" t="n">
         <v>25218</v>
       </c>
-      <c r="L36" s="85" t="n">
+      <c r="M36" s="85" t="n">
         <v>25236</v>
       </c>
-      <c r="M36" s="85" t="n">
+      <c r="N36" s="85" t="n">
         <v>24073</v>
       </c>
-      <c r="N36" s="85" t="n">
+      <c r="O36" s="85" t="n">
         <v>24341</v>
       </c>
-      <c r="O36" s="85" t="n">
+      <c r="P36" s="85" t="n">
         <v>24056</v>
       </c>
-      <c r="P36" s="85" t="n">
+      <c r="Q36" s="85" t="n">
         <v>23457</v>
       </c>
-      <c r="Q36" s="85" t="n">
+      <c r="R36" s="85" t="n">
         <v>12536</v>
       </c>
-      <c r="R36" s="85" t="n">
+      <c r="S36" s="85" t="n">
         <v>15852</v>
       </c>
-      <c r="S36" s="85" t="n">
+      <c r="T36" s="85" t="n">
         <v>22319</v>
       </c>
-      <c r="T36" s="85" t="n">
+      <c r="U36" s="85" t="n">
         <v>23406</v>
       </c>
-      <c r="U36" s="85" t="n">
+      <c r="V36" s="85" t="n">
         <v>24893</v>
       </c>
-      <c r="V36" s="85" t="n">
+      <c r="W36" s="85" t="n">
         <v>26885</v>
       </c>
-      <c r="W36" s="85" t="n">
+      <c r="X36" s="85" t="n">
         <v>26038</v>
       </c>
-      <c r="X36" s="85" t="n">
+      <c r="Y36" s="85" t="n">
         <v>29521</v>
       </c>
-      <c r="Y36" s="85" t="n">
+      <c r="Z36" s="85" t="n">
         <v>40018</v>
       </c>
-      <c r="Z36" s="85" t="n">
+      <c r="AA36" s="85" t="n">
         <v>38409</v>
       </c>
-      <c r="AA36" s="85" t="n">
+      <c r="AB36" s="85" t="n">
         <v>38996</v>
       </c>
-      <c r="AB36" s="85" t="n">
+      <c r="AC36" s="85" t="n">
         <v>37907</v>
       </c>
-      <c r="AC36" s="85" t="n">
+      <c r="AD36" s="85" t="n">
         <v>40878</v>
       </c>
-      <c r="AD36" s="85" t="n">
+      <c r="AE36" s="85" t="n">
         <v>36225</v>
-      </c>
-      <c r="AE36" s="85" t="n">
-        <v>38107</v>
       </c>
     </row>
     <row r="37">
@@ -5059,94 +5059,94 @@
         </is>
       </c>
       <c r="B37" s="85" t="n">
+        <v>130412</v>
+      </c>
+      <c r="C37" s="85" t="n">
         <v>134312</v>
       </c>
-      <c r="C37" s="85" t="n">
+      <c r="D37" s="85" t="n">
         <v>125392</v>
       </c>
-      <c r="D37" s="85" t="n">
+      <c r="E37" s="85" t="n">
         <v>126889</v>
       </c>
-      <c r="E37" s="85" t="n">
+      <c r="F37" s="85" t="n">
         <v>126946</v>
       </c>
-      <c r="F37" s="85" t="n">
+      <c r="G37" s="85" t="n">
         <v>122769</v>
       </c>
-      <c r="G37" s="85" t="n">
+      <c r="H37" s="85" t="n">
         <v>125168</v>
       </c>
-      <c r="H37" s="85" t="n">
+      <c r="I37" s="85" t="n">
         <v>120111</v>
       </c>
-      <c r="I37" s="85" t="n">
+      <c r="J37" s="85" t="n">
         <v>118852</v>
       </c>
-      <c r="J37" s="85" t="n">
+      <c r="K37" s="85" t="n">
         <v>115096</v>
       </c>
-      <c r="K37" s="85" t="n">
+      <c r="L37" s="85" t="n">
         <v>109394</v>
       </c>
-      <c r="L37" s="85" t="n">
+      <c r="M37" s="85" t="n">
         <v>113620</v>
       </c>
-      <c r="M37" s="85" t="n">
+      <c r="N37" s="85" t="n">
         <v>115926</v>
       </c>
-      <c r="N37" s="85" t="n">
+      <c r="O37" s="85" t="n">
         <v>122227</v>
       </c>
-      <c r="O37" s="85" t="n">
+      <c r="P37" s="85" t="n">
         <v>133679</v>
       </c>
-      <c r="P37" s="85" t="n">
+      <c r="Q37" s="85" t="n">
         <v>118670</v>
       </c>
-      <c r="Q37" s="85" t="n">
+      <c r="R37" s="85" t="n">
         <v>123412</v>
       </c>
-      <c r="R37" s="85" t="n">
+      <c r="S37" s="85" t="n">
         <v>119153</v>
       </c>
-      <c r="S37" s="85" t="n">
+      <c r="T37" s="85" t="n">
         <v>128315</v>
       </c>
-      <c r="T37" s="85" t="n">
+      <c r="U37" s="85" t="n">
         <v>126425</v>
       </c>
-      <c r="U37" s="85" t="n">
+      <c r="V37" s="85" t="n">
         <v>123968</v>
       </c>
-      <c r="V37" s="85" t="n">
+      <c r="W37" s="85" t="n">
         <v>128616</v>
       </c>
-      <c r="W37" s="85" t="n">
+      <c r="X37" s="85" t="n">
         <v>125888</v>
       </c>
-      <c r="X37" s="85" t="n">
+      <c r="Y37" s="85" t="n">
         <v>163819</v>
       </c>
-      <c r="Y37" s="85" t="n">
+      <c r="Z37" s="85" t="n">
         <v>193939</v>
       </c>
-      <c r="Z37" s="85" t="n">
+      <c r="AA37" s="85" t="n">
         <v>180901</v>
       </c>
-      <c r="AA37" s="85" t="n">
+      <c r="AB37" s="85" t="n">
         <v>182209</v>
       </c>
-      <c r="AB37" s="85" t="n">
+      <c r="AC37" s="85" t="n">
         <v>180403</v>
       </c>
-      <c r="AC37" s="85" t="n">
+      <c r="AD37" s="85" t="n">
         <v>180031</v>
       </c>
-      <c r="AD37" s="85" t="n">
+      <c r="AE37" s="85" t="n">
         <v>182294</v>
-      </c>
-      <c r="AE37" s="85" t="n">
-        <v>186092</v>
       </c>
     </row>
     <row r="38">
@@ -5156,94 +5156,94 @@
         </is>
       </c>
       <c r="B38" s="85" t="n">
+        <v>45438</v>
+      </c>
+      <c r="C38" s="85" t="n">
         <v>43414</v>
       </c>
-      <c r="C38" s="85" t="n">
+      <c r="D38" s="85" t="n">
         <v>43548</v>
       </c>
-      <c r="D38" s="85" t="n">
+      <c r="E38" s="85" t="n">
         <v>47946</v>
       </c>
-      <c r="E38" s="85" t="n">
+      <c r="F38" s="85" t="n">
         <v>45225</v>
       </c>
-      <c r="F38" s="85" t="n">
+      <c r="G38" s="85" t="n">
         <v>46055</v>
       </c>
-      <c r="G38" s="85" t="n">
+      <c r="H38" s="85" t="n">
         <v>46419</v>
       </c>
-      <c r="H38" s="85" t="n">
+      <c r="I38" s="85" t="n">
         <v>46081</v>
       </c>
-      <c r="I38" s="85" t="n">
+      <c r="J38" s="85" t="n">
         <v>45583</v>
       </c>
-      <c r="J38" s="85" t="n">
+      <c r="K38" s="85" t="n">
         <v>43314</v>
       </c>
-      <c r="K38" s="85" t="n">
+      <c r="L38" s="85" t="n">
         <v>42106</v>
       </c>
-      <c r="L38" s="85" t="n">
+      <c r="M38" s="85" t="n">
         <v>44013</v>
       </c>
-      <c r="M38" s="85" t="n">
+      <c r="N38" s="85" t="n">
         <v>44481</v>
       </c>
-      <c r="N38" s="85" t="n">
+      <c r="O38" s="85" t="n">
         <v>49043</v>
       </c>
-      <c r="O38" s="85" t="n">
+      <c r="P38" s="85" t="n">
         <v>48815</v>
       </c>
-      <c r="P38" s="85" t="n">
+      <c r="Q38" s="85" t="n">
         <v>43552</v>
       </c>
-      <c r="Q38" s="85" t="n">
+      <c r="R38" s="85" t="n">
         <v>45894</v>
       </c>
-      <c r="R38" s="85" t="n">
+      <c r="S38" s="85" t="n">
         <v>45545</v>
       </c>
-      <c r="S38" s="85" t="n">
+      <c r="T38" s="85" t="n">
         <v>47465</v>
       </c>
-      <c r="T38" s="85" t="n">
+      <c r="U38" s="85" t="n">
         <v>45835</v>
       </c>
-      <c r="U38" s="85" t="n">
+      <c r="V38" s="85" t="n">
         <v>49431</v>
       </c>
-      <c r="V38" s="85" t="n">
+      <c r="W38" s="85" t="n">
         <v>49331</v>
       </c>
-      <c r="W38" s="85" t="n">
+      <c r="X38" s="85" t="n">
         <v>46138</v>
       </c>
-      <c r="X38" s="85" t="n">
+      <c r="Y38" s="85" t="n">
         <v>61779</v>
       </c>
-      <c r="Y38" s="85" t="n">
+      <c r="Z38" s="85" t="n">
         <v>76841</v>
       </c>
-      <c r="Z38" s="85" t="n">
+      <c r="AA38" s="85" t="n">
         <v>66090</v>
       </c>
-      <c r="AA38" s="85" t="n">
+      <c r="AB38" s="85" t="n">
         <v>66154</v>
       </c>
-      <c r="AB38" s="85" t="n">
+      <c r="AC38" s="85" t="n">
         <v>65693</v>
       </c>
-      <c r="AC38" s="85" t="n">
+      <c r="AD38" s="85" t="n">
         <v>67308</v>
       </c>
-      <c r="AD38" s="85" t="n">
+      <c r="AE38" s="85" t="n">
         <v>69636</v>
-      </c>
-      <c r="AE38" s="85" t="n">
-        <v>70422</v>
       </c>
     </row>
     <row r="39">
@@ -5253,94 +5253,94 @@
         </is>
       </c>
       <c r="B39" s="85" t="n">
+        <v>7560</v>
+      </c>
+      <c r="C39" s="85" t="n">
         <v>9003</v>
       </c>
-      <c r="C39" s="85" t="n">
+      <c r="D39" s="85" t="n">
         <v>10595</v>
       </c>
-      <c r="D39" s="85" t="n">
+      <c r="E39" s="85" t="n">
         <v>10201</v>
       </c>
-      <c r="E39" s="85" t="n">
+      <c r="F39" s="85" t="n">
         <v>10403</v>
       </c>
-      <c r="F39" s="85" t="n">
+      <c r="G39" s="85" t="n">
         <v>9398</v>
       </c>
-      <c r="G39" s="85" t="n">
+      <c r="H39" s="85" t="n">
         <v>12656</v>
       </c>
-      <c r="H39" s="85" t="n">
+      <c r="I39" s="85" t="n">
         <v>11618</v>
       </c>
-      <c r="I39" s="85" t="n">
+      <c r="J39" s="85" t="n">
         <v>12076</v>
       </c>
-      <c r="J39" s="85" t="n">
+      <c r="K39" s="85" t="n">
         <v>11758</v>
       </c>
-      <c r="K39" s="85" t="n">
+      <c r="L39" s="85" t="n">
         <v>10613</v>
       </c>
-      <c r="L39" s="85" t="n">
+      <c r="M39" s="85" t="n">
         <v>11568</v>
       </c>
-      <c r="M39" s="85" t="n">
+      <c r="N39" s="85" t="n">
         <v>9652</v>
       </c>
-      <c r="N39" s="85" t="n">
+      <c r="O39" s="85" t="n">
         <v>9425</v>
       </c>
-      <c r="O39" s="85" t="n">
+      <c r="P39" s="85" t="n">
         <v>9678</v>
       </c>
-      <c r="P39" s="85" t="n">
+      <c r="Q39" s="85" t="n">
         <v>9476</v>
       </c>
-      <c r="Q39" s="85" t="n">
+      <c r="R39" s="85" t="n">
         <v>4305</v>
       </c>
-      <c r="R39" s="85" t="n">
+      <c r="S39" s="85" t="n">
         <v>6779</v>
       </c>
-      <c r="S39" s="85" t="n">
+      <c r="T39" s="85" t="n">
         <v>8894</v>
       </c>
-      <c r="T39" s="85" t="n">
+      <c r="U39" s="85" t="n">
         <v>8049</v>
       </c>
-      <c r="U39" s="85" t="n">
+      <c r="V39" s="85" t="n">
         <v>8652</v>
       </c>
-      <c r="V39" s="85" t="n">
+      <c r="W39" s="85" t="n">
         <v>11171</v>
       </c>
-      <c r="W39" s="85" t="n">
+      <c r="X39" s="85" t="n">
         <v>11679</v>
       </c>
-      <c r="X39" s="85" t="n">
+      <c r="Y39" s="85" t="n">
         <v>13290</v>
       </c>
-      <c r="Y39" s="85" t="n">
+      <c r="Z39" s="85" t="n">
         <v>15629</v>
       </c>
-      <c r="Z39" s="85" t="n">
+      <c r="AA39" s="85" t="n">
         <v>14622</v>
       </c>
-      <c r="AA39" s="85" t="n">
+      <c r="AB39" s="85" t="n">
         <v>14837</v>
       </c>
-      <c r="AB39" s="85" t="n">
+      <c r="AC39" s="85" t="n">
         <v>15559</v>
       </c>
-      <c r="AC39" s="85" t="n">
+      <c r="AD39" s="85" t="n">
         <v>16737</v>
       </c>
-      <c r="AD39" s="85" t="n">
+      <c r="AE39" s="85" t="n">
         <v>14841</v>
-      </c>
-      <c r="AE39" s="85" t="n">
-        <v>15758</v>
       </c>
     </row>
     <row r="41">
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="B3" s="94" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="C3" s="94" t="n">
         <v>1.54</v>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="B4" s="94" t="n">
-        <v>-2.84</v>
+        <v>-2.74</v>
       </c>
       <c r="C4" s="94" t="n">
         <v>-2.41</v>
@@ -6858,7 +6858,7 @@
         </is>
       </c>
       <c r="B5" s="94" t="n">
-        <v>85.66</v>
+        <v>86.81</v>
       </c>
       <c r="C5" s="94" t="n">
         <v>84.8</v>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B7" s="94" t="n">
-        <v>-2.98</v>
+        <v>-3.02</v>
       </c>
       <c r="C7" s="94" t="n">
         <v>-1.29</v>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="B8" s="94" t="n">
-        <v>-5.93</v>
+        <v>-5.97</v>
       </c>
       <c r="C8" s="94" t="n">
         <v>-1.4</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B9" s="94" t="n">
-        <v>43.51</v>
+        <v>42.92</v>
       </c>
       <c r="C9" s="94" t="n">
         <v>44.98</v>
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="B11" s="94" t="n">
-        <v>-6.02</v>
+        <v>-5.91</v>
       </c>
       <c r="C11" s="94" t="n">
         <v>-4.09</v>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="B12" s="94" t="n">
-        <v>-13.9</v>
+        <v>-13.8</v>
       </c>
       <c r="C12" s="94" t="n">
         <v>-11.06</v>
@@ -7754,7 +7754,7 @@
         </is>
       </c>
       <c r="B13" s="94" t="n">
-        <v>79.7</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="C13" s="94" t="n">
         <v>85.88</v>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="B15" s="94" t="n">
-        <v>8.67</v>
+        <v>8.52</v>
       </c>
       <c r="C15" s="94" t="n">
         <v>9.42</v>
@@ -8105,7 +8105,7 @@
         </is>
       </c>
       <c r="B16" s="94" t="n">
-        <v>13.29</v>
+        <v>13.13</v>
       </c>
       <c r="C16" s="94" t="n">
         <v>13.61</v>
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B17" s="94" t="n">
-        <v>64.31999999999999</v>
+        <v>62.61</v>
       </c>
       <c r="C17" s="94" t="n">
         <v>97.56</v>
@@ -10248,7 +10248,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>1.17</v>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>2.63</v>
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>95.44</v>
+        <v>95.45999999999999</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>93.31999999999999</v>
@@ -10538,9 +10538,9 @@
           <t>sensex:EIDE</t>
         </is>
       </c>
-      <c r="B38" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
+      <c r="B38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
       <c r="C38" s="91" t="inlineStr">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>5.6</v>
+        <v>4.24</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>5.6</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>4.77</v>
+        <v>4.46</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>4.77</v>
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>71.28</v>
+        <v>60.02</v>
       </c>
       <c r="C41" s="94" t="n">
         <v>71.28</v>
@@ -10986,9 +10986,9 @@
           <t>fr40:EIDE</t>
         </is>
       </c>
-      <c r="B42" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
+      <c r="B42" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
       <c r="C42" s="91" t="inlineStr">
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-2.39</v>
+        <v>-3.71</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-2.39</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>7.98</v>
+        <v>8.02</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>7.98</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>78.25</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>78.25</v>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>6.4</v>
+        <v>4.37</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.4</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>24.01</v>
+        <v>22.51</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>24.01</v>
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>82.09</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>82.09</v>
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:85.66&gt;=66;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:95.44&gt;=85;dax30:RNG120:24.01&gt;=20</t>
+          <t>今日卖报：sh:RS3:86.81&gt;=66;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:95.46&gt;=85;dax30:RNG120:22.51&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.55</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-1.55</v>
+        <v>-1.52</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-2.02</v>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-5.15</v>
+        <v>-5.4</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-5.15</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-3.06</v>
+        <v>-3</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-3.06</v>
@@ -9092,13 +9092,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="95" t="inlineStr">
+      <c r="A25" s="76" t="inlineStr">
         <is>
           <t>us30:RS3</t>
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>89.23</v>
+        <v>71.33</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>89.23</v>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-6.2</v>
+        <v>-5.08</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-6.2</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>-2.09</v>
+        <v>1.77</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>-2.09</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>98.37</v>
+        <v>99.04000000000001</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>98.37</v>
@@ -9800,7 +9800,7 @@
         </is>
       </c>
       <c r="B31" s="94" t="n">
-        <v>-2.27</v>
+        <v>-2.47</v>
       </c>
       <c r="C31" s="94" t="n">
         <v>-4.61</v>
@@ -9897,7 +9897,7 @@
         </is>
       </c>
       <c r="B32" s="94" t="n">
-        <v>-0.99</v>
+        <v>-1.19</v>
       </c>
       <c r="C32" s="94" t="n">
         <v>-2.31</v>
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="B33" s="94" t="n">
-        <v>79.31999999999999</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="C33" s="94" t="n">
         <v>74.86</v>
@@ -10578,14 +10578,14 @@
           <t>blue</t>
         </is>
       </c>
-      <c r="J38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="K38" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
+      <c r="J38" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="K38" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
       <c r="L38" s="92" t="inlineStr">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>5.6</v>
@@ -10720,10 +10720,10 @@
         <v>4.25</v>
       </c>
       <c r="J39" s="94" t="n">
-        <v>4.88</v>
+        <v>5.72</v>
       </c>
       <c r="K39" s="94" t="n">
-        <v>4.88</v>
+        <v>5.72</v>
       </c>
       <c r="L39" s="94" t="n">
         <v>4.85</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>4.46</v>
+        <v>4.45</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>4.77</v>
@@ -10817,10 +10817,10 @@
         <v>1.66</v>
       </c>
       <c r="J40" s="94" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="K40" s="94" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="L40" s="94" t="n">
         <v>0.65</v>
@@ -10890,94 +10890,94 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>60.02</v>
+        <v>58.73</v>
       </c>
       <c r="C41" s="94" t="n">
-        <v>71.28</v>
+        <v>68.76000000000001</v>
       </c>
       <c r="D41" s="94" t="n">
-        <v>52.53</v>
+        <v>51.43</v>
       </c>
       <c r="E41" s="94" t="n">
-        <v>52.53</v>
+        <v>51.43</v>
       </c>
       <c r="F41" s="94" t="n">
-        <v>63.59</v>
+        <v>60.35</v>
       </c>
       <c r="G41" s="94" t="n">
-        <v>69.77</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H41" s="94" t="n">
-        <v>69.08</v>
+        <v>64.45</v>
       </c>
       <c r="I41" s="94" t="n">
-        <v>71.25</v>
+        <v>66.08</v>
       </c>
       <c r="J41" s="94" t="n">
-        <v>69.62</v>
+        <v>69.64</v>
       </c>
       <c r="K41" s="94" t="n">
-        <v>69.62</v>
+        <v>69.64</v>
       </c>
       <c r="L41" s="94" t="n">
-        <v>68.2</v>
+        <v>65.3</v>
       </c>
       <c r="M41" s="94" t="n">
-        <v>68.2</v>
+        <v>65.3</v>
       </c>
       <c r="N41" s="94" t="n">
-        <v>68.70999999999999</v>
+        <v>65.73</v>
       </c>
       <c r="O41" s="94" t="n">
-        <v>68.39</v>
+        <v>65.42</v>
       </c>
       <c r="P41" s="94" t="n">
-        <v>63.45</v>
+        <v>60.81</v>
       </c>
       <c r="Q41" s="94" t="n">
-        <v>63.45</v>
+        <v>60.81</v>
       </c>
       <c r="R41" s="94" t="n">
-        <v>69.14</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S41" s="94" t="n">
-        <v>72.26000000000001</v>
+        <v>67.87</v>
       </c>
       <c r="T41" s="94" t="n">
-        <v>70.26000000000001</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="U41" s="94" t="n">
-        <v>69.55</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="V41" s="94" t="n">
-        <v>66.25</v>
+        <v>62.25</v>
       </c>
       <c r="W41" s="94" t="n">
-        <v>66.25</v>
+        <v>62.25</v>
       </c>
       <c r="X41" s="94" t="n">
-        <v>66.25</v>
+        <v>62.25</v>
       </c>
       <c r="Y41" s="94" t="n">
-        <v>59.21</v>
+        <v>56.15</v>
       </c>
       <c r="Z41" s="94" t="n">
-        <v>57.58</v>
+        <v>54.8</v>
       </c>
       <c r="AA41" s="94" t="n">
-        <v>48.04</v>
+        <v>47.38</v>
       </c>
       <c r="AB41" s="94" t="n">
-        <v>48.04</v>
+        <v>47.38</v>
       </c>
       <c r="AC41" s="94" t="n">
-        <v>48.04</v>
+        <v>47.38</v>
       </c>
       <c r="AD41" s="94" t="n">
-        <v>37.55</v>
+        <v>40.01</v>
       </c>
       <c r="AE41" s="94" t="n">
-        <v>37.55</v>
+        <v>40.01</v>
       </c>
     </row>
     <row r="42">
@@ -10986,9 +10986,9 @@
           <t>fr40:EIDE</t>
         </is>
       </c>
-      <c r="B42" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
+      <c r="B42" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
         </is>
       </c>
       <c r="C42" s="91" t="inlineStr">
@@ -11144,7 +11144,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-3.71</v>
+        <v>-3.56</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-2.39</v>
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>8.02</v>
+        <v>8.18</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>7.98</v>
@@ -11338,7 +11338,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>79.09999999999999</v>
+        <v>79.92</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>78.25</v>
@@ -11592,7 +11592,7 @@
         </is>
       </c>
       <c r="B47" s="94" t="n">
-        <v>4.37</v>
+        <v>4.46</v>
       </c>
       <c r="C47" s="94" t="n">
         <v>6.4</v>
@@ -11689,7 +11689,7 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>22.51</v>
+        <v>22.61</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>24.01</v>
@@ -11786,7 +11786,7 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>82.70999999999999</v>
+        <v>83.04000000000001</v>
       </c>
       <c r="C49" s="94" t="n">
         <v>82.09</v>
@@ -11886,7 +11886,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:86.81&gt;=66;us500:RS2:97.11&gt;=85;us30:RS3:89.23&gt;=85;ixic:RS2:98.37&gt;=96;vn:RS3:95.46&gt;=85;dax30:RNG120:22.51&gt;=20</t>
+          <t>今日卖报：sh:RS3:86.81&gt;=66;us500:RS2:97.11&gt;=85;ixic:RS2:99.04&gt;=96;vn:RS3:95.46&gt;=85;dax30:RNG120:22.61&gt;=20</t>
         </is>
       </c>
     </row>

--- a/report_2505.xlsx
+++ b/report_2505.xlsx
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B25" s="87" t="n">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="C25" s="87" t="n">
         <v>7.2</v>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B26" s="88" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="C26" s="88" t="n">
         <v>-0.03</v>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B27" s="88" t="n">
-        <v>-1.12</v>
+        <v>-1</v>
       </c>
       <c r="C27" s="88" t="n">
         <v>-1.52</v>
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="B19" s="94" t="n">
-        <v>-3.73</v>
+        <v>-3.87</v>
       </c>
       <c r="C19" s="94" t="n">
         <v>-3.73</v>
@@ -8553,7 +8553,7 @@
         </is>
       </c>
       <c r="B20" s="94" t="n">
-        <v>0.27</v>
+        <v>-0.02</v>
       </c>
       <c r="C20" s="94" t="n">
         <v>0.27</v>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="B21" s="94" t="n">
-        <v>97.95999999999999</v>
+        <v>98.12</v>
       </c>
       <c r="C21" s="94" t="n">
         <v>97.95999999999999</v>
@@ -8746,9 +8746,9 @@
           <t>us30:EIDE</t>
         </is>
       </c>
-      <c r="B22" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
+      <c r="B22" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
       <c r="C22" s="91" t="inlineStr">
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="B23" s="94" t="n">
-        <v>-5.4</v>
+        <v>-5.62</v>
       </c>
       <c r="C23" s="94" t="n">
         <v>-5.4</v>
@@ -9001,7 +9001,7 @@
         </is>
       </c>
       <c r="B24" s="94" t="n">
-        <v>-3</v>
+        <v>-3.08</v>
       </c>
       <c r="C24" s="94" t="n">
         <v>-3</v>
@@ -9098,7 +9098,7 @@
         </is>
       </c>
       <c r="B25" s="94" t="n">
-        <v>71.33</v>
+        <v>64.86</v>
       </c>
       <c r="C25" s="94" t="n">
         <v>71.33</v>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B27" s="94" t="n">
-        <v>-5.08</v>
+        <v>-4.46</v>
       </c>
       <c r="C27" s="94" t="n">
         <v>-5.08</v>
@@ -9449,7 +9449,7 @@
         </is>
       </c>
       <c r="B28" s="94" t="n">
-        <v>1.77</v>
+        <v>1.89</v>
       </c>
       <c r="C28" s="94" t="n">
         <v>1.77</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="B29" s="94" t="n">
-        <v>99.04000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C29" s="94" t="n">
         <v>99.04000000000001</v>
@@ -10248,7 +10248,7 @@
         </is>
       </c>
       <c r="B35" s="94" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="C35" s="94" t="n">
         <v>2.09</v>
@@ -10345,7 +10345,7 @@
         </is>
       </c>
       <c r="B36" s="94" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="C36" s="94" t="n">
         <v>3.9</v>
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B37" s="94" t="n">
-        <v>97.45</v>
+        <v>97.44</v>
       </c>
       <c r="C37" s="94" t="n">
         <v>95.45999999999999</v>
@@ -10538,14 +10538,14 @@
           <t>sensex:EIDE</t>
         </is>
       </c>
-      <c r="B38" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="C38" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
+      <c r="B38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
+        </is>
+      </c>
+      <c r="C38" s="92" t="inlineStr">
+        <is>
+          <t>blue</t>
         </is>
       </c>
       <c r="D38" s="91" t="inlineStr">
@@ -10694,13 +10694,13 @@
         </is>
       </c>
       <c r="B39" s="94" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="C39" s="94" t="n">
         <v>4.22</v>
       </c>
       <c r="D39" s="94" t="n">
-        <v>4.17</v>
+        <v>5.6</v>
       </c>
       <c r="E39" s="94" t="n">
         <v>1.51</v>
@@ -10791,13 +10791,13 @@
         </is>
       </c>
       <c r="B40" s="94" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="C40" s="94" t="n">
         <v>4.45</v>
       </c>
       <c r="D40" s="94" t="n">
-        <v>3.35</v>
+        <v>4.77</v>
       </c>
       <c r="E40" s="94" t="n">
         <v>-0.05</v>
@@ -10888,13 +10888,13 @@
         </is>
       </c>
       <c r="B41" s="94" t="n">
-        <v>62.38</v>
+        <v>59.23</v>
       </c>
       <c r="C41" s="94" t="n">
-        <v>61.47</v>
+        <v>58.37</v>
       </c>
       <c r="D41" s="94" t="n">
-        <v>62.81</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="E41" s="94" t="n">
         <v>51.99</v>
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="B43" s="94" t="n">
-        <v>-4.53</v>
+        <v>-4.18</v>
       </c>
       <c r="C43" s="94" t="n">
         <v>-3.56</v>
@@ -11239,7 +11239,7 @@
         </is>
       </c>
       <c r="B44" s="94" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="C44" s="94" t="n">
         <v>8.18</v>
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="B45" s="94" t="n">
-        <v>63.08</v>
+        <v>69.48</v>
       </c>
       <c r="C45" s="94" t="n">
         <v>79.92</v>
@@ -11487,84 +11487,84 @@
           <t>red</t>
         </is>
       </c>
-      <c r="M46" s="92" t="inlineStr">
+      <c r="M46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="N46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="O46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="P46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="Q46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="R46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="S46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="T46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="U46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="V46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="W46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="X46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="Y46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="Z46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AA46" s="91" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+      <c r="AB46" s="92" t="inlineStr">
         <is>
           <t>blue</t>
-        </is>
-      </c>
-      <c r="N46" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="O46" s="92" t="inlineStr">
-        <is>
-          <t>blue</t>
-        </is>
-      </c>
-      <c r="P46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="Q46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="R46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="S46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="T46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="U46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="V46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="W46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="X46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="Y46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="Z46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AA46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-      <c r="AB46" s="91" t="inlineStr">
-        <is>
-          <t>red</t>
         </is>
       </c>
       <c r="AC46" s="92" t="inlineStr">
@@ -11596,7 +11596,7 @@
         <v>4.54</v>
       </c>
       <c r="D47" s="94" t="n">
-        <v>6.23</v>
+        <v>6.4</v>
       </c>
       <c r="E47" s="94" t="n">
         <v>6.63</v>
@@ -11614,7 +11614,7 @@
         <v>6.15</v>
       </c>
       <c r="J47" s="94" t="n">
-        <v>8.859999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="K47" s="94" t="n">
         <v>7.35</v>
@@ -11632,7 +11632,7 @@
         <v>3.19</v>
       </c>
       <c r="P47" s="94" t="n">
-        <v>6.26</v>
+        <v>2.51</v>
       </c>
       <c r="Q47" s="94" t="n">
         <v>2.8</v>
@@ -11647,7 +11647,7 @@
         <v>3.19</v>
       </c>
       <c r="U47" s="94" t="n">
-        <v>3.96</v>
+        <v>-0.47</v>
       </c>
       <c r="V47" s="94" t="n">
         <v>-0.96</v>
@@ -11668,7 +11668,7 @@
         <v>1.01</v>
       </c>
       <c r="AB47" s="94" t="n">
-        <v>1.03</v>
+        <v>-0.17</v>
       </c>
       <c r="AC47" s="94" t="n">
         <v>-2.53</v>
@@ -11687,13 +11687,13 @@
         </is>
       </c>
       <c r="B48" s="94" t="n">
-        <v>22.46</v>
+        <v>22.47</v>
       </c>
       <c r="C48" s="94" t="n">
         <v>22.71</v>
       </c>
       <c r="D48" s="94" t="n">
-        <v>23.81</v>
+        <v>24.01</v>
       </c>
       <c r="E48" s="94" t="n">
         <v>23.46</v>
@@ -11711,7 +11711,7 @@
         <v>20.08</v>
       </c>
       <c r="J48" s="94" t="n">
-        <v>23.43</v>
+        <v>22.61</v>
       </c>
       <c r="K48" s="94" t="n">
         <v>19.89</v>
@@ -11729,7 +11729,7 @@
         <v>16.47</v>
       </c>
       <c r="P48" s="94" t="n">
-        <v>21.01</v>
+        <v>16.74</v>
       </c>
       <c r="Q48" s="94" t="n">
         <v>15.5</v>
@@ -11744,7 +11744,7 @@
         <v>12.44</v>
       </c>
       <c r="U48" s="94" t="n">
-        <v>14.28</v>
+        <v>9.4</v>
       </c>
       <c r="V48" s="94" t="n">
         <v>9.07</v>
@@ -11765,7 +11765,7 @@
         <v>9.43</v>
       </c>
       <c r="AB48" s="94" t="n">
-        <v>8.960000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="AC48" s="94" t="n">
         <v>3.65</v>
@@ -11784,94 +11784,94 @@
         </is>
       </c>
       <c r="B49" s="94" t="n">
-        <v>66.08</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="C49" s="94" t="n">
-        <v>72.42</v>
+        <v>83.36</v>
       </c>
       <c r="D49" s="94" t="n">
-        <v>70.09</v>
+        <v>82.09</v>
       </c>
       <c r="E49" s="94" t="n">
-        <v>69.52</v>
+        <v>80.97</v>
       </c>
       <c r="F49" s="94" t="n">
-        <v>69.52</v>
+        <v>80.97</v>
       </c>
       <c r="G49" s="94" t="n">
-        <v>66.88</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="H49" s="94" t="n">
-        <v>62.51</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="I49" s="94" t="n">
-        <v>66.65000000000001</v>
+        <v>82.12</v>
       </c>
       <c r="J49" s="94" t="n">
-        <v>74.31</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="K49" s="94" t="n">
-        <v>69.47</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="L49" s="94" t="n">
-        <v>69.47</v>
+        <v>85.54000000000001</v>
       </c>
       <c r="M49" s="94" t="n">
-        <v>60.67</v>
+        <v>77.56</v>
       </c>
       <c r="N49" s="94" t="n">
-        <v>60.67</v>
+        <v>77.56</v>
       </c>
       <c r="O49" s="94" t="n">
-        <v>59.49</v>
+        <v>76.25</v>
       </c>
       <c r="P49" s="94" t="n">
-        <v>77.39</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="Q49" s="94" t="n">
-        <v>66.73999999999999</v>
+        <v>72.92</v>
       </c>
       <c r="R49" s="94" t="n">
-        <v>66.73999999999999</v>
+        <v>72.92</v>
       </c>
       <c r="S49" s="94" t="n">
-        <v>63.74</v>
+        <v>70.02</v>
       </c>
       <c r="T49" s="94" t="n">
-        <v>62.1</v>
+        <v>68.39</v>
       </c>
       <c r="U49" s="94" t="n">
-        <v>69.23999999999999</v>
+        <v>55.14</v>
       </c>
       <c r="V49" s="94" t="n">
-        <v>52.36</v>
+        <v>52.99</v>
       </c>
       <c r="W49" s="94" t="n">
-        <v>52.36</v>
+        <v>52.99</v>
       </c>
       <c r="X49" s="94" t="n">
-        <v>52.36</v>
+        <v>52.99</v>
       </c>
       <c r="Y49" s="94" t="n">
-        <v>52.36</v>
+        <v>52.99</v>
       </c>
       <c r="Z49" s="94" t="n">
-        <v>54.9</v>
+        <v>55.66</v>
       </c>
       <c r="AA49" s="94" t="n">
-        <v>53.89</v>
+        <v>54.62</v>
       </c>
       <c r="AB49" s="94" t="n">
-        <v>53.15</v>
+        <v>49.48</v>
       </c>
       <c r="AC49" s="94" t="n">
-        <v>39.04</v>
+        <v>38.14</v>
       </c>
       <c r="AD49" s="94" t="n">
-        <v>39.04</v>
+        <v>38.14</v>
       </c>
       <c r="AE49" s="94" t="n">
-        <v>41.4</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="51">
@@ -11884,7 +11884,7 @@
     <row r="52">
       <c r="A52" s="90" t="inlineStr">
         <is>
-          <t>今日卖报：sh:RS3:93.49&gt;=66;hk50:RS4:76.28&gt;=73;us500:RS2:97.96&gt;=85;ixic:RS2:99.04&gt;=96;vn:RS3:97.45&gt;=85;dax30:RNG120:22.46&gt;=20</t>
+          <t>今日卖报：sh:RS3:93.49&gt;=66;hk50:RS4:76.28&gt;=73;us500:RS2:98.12&gt;=85;ixic:RS2:99.3&gt;=96;vn:RS3:97.44&gt;=85;dax30:RNG120:22.47&gt;=20</t>
         </is>
       </c>
     </row>
